--- a/agregat/assets/docs/Прайс ЧелныАгрегатЦентр 01 2019.xlsx
+++ b/agregat/assets/docs/Прайс ЧелныАгрегатЦентр 01 2019.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\drsk0211.github.io\agregat\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\drsk0211.github.io\agregat\assets\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1952,6 +1952,336 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="16" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="20" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="27" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="27" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="27" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1964,66 +2294,12 @@
     <xf numFmtId="0" fontId="33" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2038,282 +2314,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="16" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="20" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="27" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="27" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="27" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="29">
@@ -2649,7 +2649,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H186"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
@@ -2666,27 +2666,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.4">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="201" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
+      <c r="B1" s="201"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="201"/>
+      <c r="G1" s="201"/>
       <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="201" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
+      <c r="B2" s="202"/>
+      <c r="C2" s="202"/>
+      <c r="D2" s="202"/>
+      <c r="E2" s="202"/>
+      <c r="F2" s="202"/>
+      <c r="G2" s="202"/>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -2700,45 +2700,45 @@
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="99" t="s">
+      <c r="C4" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="102" t="s">
+      <c r="D4" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="103"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="131"/>
+      <c r="G4" s="132"/>
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" s="3" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="94"/>
-      <c r="B5" s="97"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="108" t="s">
+      <c r="A5" s="111"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="128" t="s">
         <v>232</v>
       </c>
-      <c r="E5" s="106" t="s">
+      <c r="E5" s="155" t="s">
         <v>222</v>
       </c>
-      <c r="F5" s="104" t="s">
+      <c r="F5" s="157" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="105"/>
+      <c r="G5" s="158"/>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" s="3" customFormat="1" ht="135.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="95"/>
-      <c r="B6" s="98"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="107"/>
+      <c r="A6" s="192"/>
+      <c r="B6" s="152"/>
+      <c r="C6" s="153"/>
+      <c r="D6" s="180"/>
+      <c r="E6" s="181"/>
       <c r="F6" s="25" t="s">
         <v>221</v>
       </c>
@@ -2748,15 +2748,15 @@
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" s="3" customFormat="1" ht="36" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="196" t="s">
         <v>173</v>
       </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="88"/>
+      <c r="B7" s="197"/>
+      <c r="C7" s="197"/>
+      <c r="D7" s="197"/>
+      <c r="E7" s="197"/>
+      <c r="F7" s="197"/>
+      <c r="G7" s="198"/>
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
@@ -2832,15 +2832,15 @@
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" s="3" customFormat="1" ht="35.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="199" t="s">
         <v>174</v>
       </c>
-      <c r="B11" s="90"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="91"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="200"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" s="3" customFormat="1" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -3096,106 +3096,106 @@
       <c r="H22" s="47"/>
     </row>
     <row r="23" spans="1:8" s="30" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="124" t="s">
+      <c r="A23" s="191" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="124"/>
-      <c r="C23" s="124"/>
-      <c r="D23" s="124"/>
-      <c r="E23" s="124"/>
-      <c r="F23" s="124"/>
-      <c r="G23" s="124"/>
+      <c r="B23" s="191"/>
+      <c r="C23" s="191"/>
+      <c r="D23" s="191"/>
+      <c r="E23" s="191"/>
+      <c r="F23" s="191"/>
+      <c r="G23" s="191"/>
       <c r="H23" s="48"/>
     </row>
     <row r="24" spans="1:8" s="3" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A24" s="35"/>
-      <c r="B24" s="194" t="s">
+      <c r="B24" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="195"/>
-      <c r="D24" s="196"/>
-      <c r="E24" s="196"/>
-      <c r="F24" s="197">
+      <c r="C24" s="90"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="91"/>
+      <c r="F24" s="92">
         <v>1500</v>
       </c>
-      <c r="G24" s="198"/>
+      <c r="G24" s="93"/>
       <c r="H24" s="20"/>
     </row>
     <row r="25" spans="1:8" s="3" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="38"/>
-      <c r="B25" s="199" t="s">
+      <c r="B25" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="200"/>
-      <c r="D25" s="201"/>
-      <c r="E25" s="201"/>
-      <c r="F25" s="202">
+      <c r="C25" s="95"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="96"/>
+      <c r="F25" s="97">
         <v>2500</v>
       </c>
-      <c r="G25" s="203"/>
+      <c r="G25" s="98"/>
       <c r="H25" s="20"/>
     </row>
     <row r="26" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="204" t="s">
+      <c r="A26" s="99" t="s">
         <v>188</v>
       </c>
-      <c r="B26" s="90"/>
-      <c r="C26" s="90"/>
-      <c r="D26" s="90"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="205"/>
+      <c r="B26" s="100"/>
+      <c r="C26" s="100"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="101"/>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="132" t="s">
+      <c r="A27" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="131" t="s">
+      <c r="B27" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="134" t="s">
+      <c r="C27" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="137" t="s">
+      <c r="D27" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="137"/>
-      <c r="F27" s="137"/>
-      <c r="G27" s="138"/>
+      <c r="E27" s="107"/>
+      <c r="F27" s="107"/>
+      <c r="G27" s="108"/>
       <c r="H27" s="10"/>
     </row>
     <row r="28" spans="1:8" s="3" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="132"/>
-      <c r="B28" s="132"/>
-      <c r="C28" s="135"/>
-      <c r="D28" s="132" t="s">
+      <c r="A28" s="102"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="106"/>
+      <c r="D28" s="102" t="s">
         <v>187</v>
       </c>
-      <c r="E28" s="113" t="s">
+      <c r="E28" s="205" t="s">
         <v>235</v>
       </c>
-      <c r="F28" s="114"/>
-      <c r="G28" s="111" t="s">
+      <c r="F28" s="206"/>
+      <c r="G28" s="203" t="s">
         <v>233</v>
       </c>
-      <c r="H28" s="112"/>
+      <c r="H28" s="204"/>
     </row>
     <row r="29" spans="1:8" s="3" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="132"/>
-      <c r="B29" s="133"/>
-      <c r="C29" s="135"/>
-      <c r="D29" s="206"/>
+      <c r="A29" s="102"/>
+      <c r="B29" s="104"/>
+      <c r="C29" s="106"/>
+      <c r="D29" s="109"/>
       <c r="E29" s="83" t="s">
         <v>236</v>
       </c>
       <c r="F29" s="83" t="s">
         <v>237</v>
       </c>
-      <c r="G29" s="111" t="s">
+      <c r="G29" s="203" t="s">
         <v>234</v>
       </c>
-      <c r="H29" s="112"/>
+      <c r="H29" s="204"/>
     </row>
     <row r="30" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="12">
@@ -3318,69 +3318,69 @@
       <c r="H34" s="2"/>
     </row>
     <row r="35" spans="1:8" s="3" customFormat="1" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="125" t="s">
+      <c r="A35" s="193" t="s">
         <v>219</v>
       </c>
-      <c r="B35" s="126"/>
-      <c r="C35" s="126"/>
-      <c r="D35" s="126"/>
-      <c r="E35" s="126"/>
-      <c r="F35" s="126"/>
-      <c r="G35" s="127"/>
+      <c r="B35" s="194"/>
+      <c r="C35" s="194"/>
+      <c r="D35" s="194"/>
+      <c r="E35" s="194"/>
+      <c r="F35" s="194"/>
+      <c r="G35" s="195"/>
       <c r="H35" s="10"/>
     </row>
     <row r="36" spans="1:8" s="3" customFormat="1" ht="35.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A36" s="121" t="s">
+      <c r="A36" s="188" t="s">
         <v>177</v>
       </c>
-      <c r="B36" s="122"/>
-      <c r="C36" s="122"/>
-      <c r="D36" s="122"/>
-      <c r="E36" s="122"/>
-      <c r="F36" s="122"/>
-      <c r="G36" s="123"/>
+      <c r="B36" s="189"/>
+      <c r="C36" s="189"/>
+      <c r="D36" s="189"/>
+      <c r="E36" s="189"/>
+      <c r="F36" s="189"/>
+      <c r="G36" s="190"/>
       <c r="H36" s="10"/>
     </row>
     <row r="37" spans="1:8" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="93" t="s">
+      <c r="A37" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="96" t="s">
+      <c r="B37" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="99" t="s">
+      <c r="C37" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="102" t="s">
+      <c r="D37" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="E37" s="102"/>
-      <c r="F37" s="102"/>
-      <c r="G37" s="103"/>
+      <c r="E37" s="131"/>
+      <c r="F37" s="131"/>
+      <c r="G37" s="132"/>
       <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8" s="3" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="94"/>
-      <c r="B38" s="97"/>
-      <c r="C38" s="100"/>
-      <c r="D38" s="108" t="s">
+      <c r="A38" s="111"/>
+      <c r="B38" s="127"/>
+      <c r="C38" s="130"/>
+      <c r="D38" s="128" t="s">
         <v>238</v>
       </c>
-      <c r="E38" s="106" t="s">
+      <c r="E38" s="155" t="s">
         <v>239</v>
       </c>
-      <c r="F38" s="104" t="s">
+      <c r="F38" s="157" t="s">
         <v>41</v>
       </c>
-      <c r="G38" s="105"/>
+      <c r="G38" s="158"/>
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8" s="3" customFormat="1" ht="135.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="95"/>
-      <c r="B39" s="98"/>
-      <c r="C39" s="101"/>
-      <c r="D39" s="109"/>
-      <c r="E39" s="107"/>
+      <c r="A39" s="192"/>
+      <c r="B39" s="152"/>
+      <c r="C39" s="153"/>
+      <c r="D39" s="180"/>
+      <c r="E39" s="181"/>
       <c r="F39" s="25" t="s">
         <v>227</v>
       </c>
@@ -3462,15 +3462,15 @@
       <c r="H42" s="10"/>
     </row>
     <row r="43" spans="1:8" s="3" customFormat="1" ht="35.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A43" s="121" t="s">
+      <c r="A43" s="188" t="s">
         <v>189</v>
       </c>
-      <c r="B43" s="122"/>
-      <c r="C43" s="122"/>
-      <c r="D43" s="122"/>
-      <c r="E43" s="122"/>
-      <c r="F43" s="122"/>
-      <c r="G43" s="123"/>
+      <c r="B43" s="189"/>
+      <c r="C43" s="189"/>
+      <c r="D43" s="189"/>
+      <c r="E43" s="189"/>
+      <c r="F43" s="189"/>
+      <c r="G43" s="190"/>
       <c r="H43" s="10"/>
     </row>
     <row r="44" spans="1:8" s="3" customFormat="1" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -3522,57 +3522,57 @@
       <c r="H45" s="10"/>
     </row>
     <row r="46" spans="1:8" s="3" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="86" t="s">
+      <c r="A46" s="196" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="87"/>
-      <c r="C46" s="87"/>
-      <c r="D46" s="87"/>
-      <c r="E46" s="87"/>
-      <c r="F46" s="87"/>
-      <c r="G46" s="88"/>
+      <c r="B46" s="197"/>
+      <c r="C46" s="197"/>
+      <c r="D46" s="197"/>
+      <c r="E46" s="197"/>
+      <c r="F46" s="197"/>
+      <c r="G46" s="198"/>
       <c r="H46" s="10"/>
     </row>
     <row r="47" spans="1:8" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="128" t="s">
+      <c r="A47" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="131" t="s">
+      <c r="B47" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="134" t="s">
+      <c r="C47" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="137" t="s">
+      <c r="D47" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="E47" s="137"/>
-      <c r="F47" s="137"/>
-      <c r="G47" s="138"/>
+      <c r="E47" s="107"/>
+      <c r="F47" s="107"/>
+      <c r="G47" s="108"/>
       <c r="H47" s="10"/>
     </row>
     <row r="48" spans="1:8" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="129"/>
-      <c r="B48" s="132"/>
-      <c r="C48" s="135"/>
-      <c r="D48" s="139" t="s">
+      <c r="A48" s="165"/>
+      <c r="B48" s="102"/>
+      <c r="C48" s="106"/>
+      <c r="D48" s="168" t="s">
         <v>75</v>
       </c>
-      <c r="E48" s="139" t="s">
+      <c r="E48" s="168" t="s">
         <v>241</v>
       </c>
-      <c r="F48" s="141" t="s">
+      <c r="F48" s="170" t="s">
         <v>41</v>
       </c>
-      <c r="G48" s="142"/>
+      <c r="G48" s="171"/>
       <c r="H48" s="10"/>
     </row>
     <row r="49" spans="1:8" s="3" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="130"/>
-      <c r="B49" s="133"/>
-      <c r="C49" s="136"/>
-      <c r="D49" s="140"/>
-      <c r="E49" s="140"/>
+      <c r="A49" s="166"/>
+      <c r="B49" s="104"/>
+      <c r="C49" s="167"/>
+      <c r="D49" s="169"/>
+      <c r="E49" s="169"/>
       <c r="F49" s="58" t="s">
         <v>49</v>
       </c>
@@ -3942,67 +3942,67 @@
       <c r="H67" s="10"/>
     </row>
     <row r="68" spans="1:8" s="3" customFormat="1" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="115" t="s">
+      <c r="A68" s="182" t="s">
         <v>208</v>
       </c>
-      <c r="B68" s="116"/>
-      <c r="C68" s="116"/>
-      <c r="D68" s="116"/>
-      <c r="E68" s="116"/>
-      <c r="F68" s="116"/>
-      <c r="G68" s="117"/>
+      <c r="B68" s="183"/>
+      <c r="C68" s="183"/>
+      <c r="D68" s="183"/>
+      <c r="E68" s="183"/>
+      <c r="F68" s="183"/>
+      <c r="G68" s="184"/>
       <c r="H68" s="10"/>
     </row>
     <row r="69" spans="1:8" s="3" customFormat="1" ht="36" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="143" t="s">
+      <c r="A69" s="139" t="s">
         <v>77</v>
       </c>
-      <c r="B69" s="144"/>
-      <c r="C69" s="144"/>
-      <c r="D69" s="144"/>
-      <c r="E69" s="144"/>
-      <c r="F69" s="144"/>
-      <c r="G69" s="145"/>
+      <c r="B69" s="140"/>
+      <c r="C69" s="140"/>
+      <c r="D69" s="140"/>
+      <c r="E69" s="140"/>
+      <c r="F69" s="140"/>
+      <c r="G69" s="141"/>
       <c r="H69" s="10"/>
     </row>
     <row r="70" spans="1:8" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A70" s="128" t="s">
+      <c r="A70" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B70" s="131" t="s">
+      <c r="B70" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="C70" s="134" t="s">
+      <c r="C70" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="D70" s="137" t="s">
+      <c r="D70" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="E70" s="137"/>
-      <c r="F70" s="137"/>
-      <c r="G70" s="138"/>
+      <c r="E70" s="107"/>
+      <c r="F70" s="107"/>
+      <c r="G70" s="108"/>
       <c r="H70" s="10"/>
     </row>
     <row r="71" spans="1:8" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A71" s="129"/>
-      <c r="B71" s="132"/>
-      <c r="C71" s="135"/>
-      <c r="D71" s="139" t="s">
+      <c r="A71" s="165"/>
+      <c r="B71" s="102"/>
+      <c r="C71" s="106"/>
+      <c r="D71" s="168" t="s">
         <v>100</v>
       </c>
-      <c r="E71" s="139"/>
-      <c r="F71" s="141" t="s">
+      <c r="E71" s="168"/>
+      <c r="F71" s="170" t="s">
         <v>41</v>
       </c>
-      <c r="G71" s="142"/>
+      <c r="G71" s="171"/>
       <c r="H71" s="10"/>
     </row>
     <row r="72" spans="1:8" s="3" customFormat="1" ht="117" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="130"/>
-      <c r="B72" s="133"/>
-      <c r="C72" s="136"/>
-      <c r="D72" s="140"/>
-      <c r="E72" s="140"/>
+      <c r="A72" s="166"/>
+      <c r="B72" s="104"/>
+      <c r="C72" s="167"/>
+      <c r="D72" s="169"/>
+      <c r="E72" s="169"/>
       <c r="F72" s="25" t="s">
         <v>242</v>
       </c>
@@ -4610,65 +4610,65 @@
       </c>
     </row>
     <row r="101" spans="1:8" s="3" customFormat="1" ht="105.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A101" s="118" t="s">
+      <c r="A101" s="185" t="s">
         <v>193</v>
       </c>
-      <c r="B101" s="119"/>
-      <c r="C101" s="119"/>
-      <c r="D101" s="119"/>
-      <c r="E101" s="119"/>
-      <c r="F101" s="119"/>
-      <c r="G101" s="120"/>
+      <c r="B101" s="186"/>
+      <c r="C101" s="186"/>
+      <c r="D101" s="186"/>
+      <c r="E101" s="186"/>
+      <c r="F101" s="186"/>
+      <c r="G101" s="187"/>
     </row>
     <row r="102" spans="1:8" s="3" customFormat="1" ht="35.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A102" s="146" t="s">
+      <c r="A102" s="149" t="s">
         <v>101</v>
       </c>
-      <c r="B102" s="147"/>
-      <c r="C102" s="147"/>
-      <c r="D102" s="147"/>
-      <c r="E102" s="147"/>
-      <c r="F102" s="147"/>
-      <c r="G102" s="148"/>
+      <c r="B102" s="150"/>
+      <c r="C102" s="150"/>
+      <c r="D102" s="150"/>
+      <c r="E102" s="150"/>
+      <c r="F102" s="150"/>
+      <c r="G102" s="151"/>
     </row>
     <row r="103" spans="1:8" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="149" t="s">
+      <c r="A103" s="172" t="s">
         <v>0</v>
       </c>
-      <c r="B103" s="152" t="s">
+      <c r="B103" s="175" t="s">
         <v>47</v>
       </c>
-      <c r="C103" s="99" t="s">
+      <c r="C103" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="D103" s="155" t="s">
+      <c r="D103" s="177" t="s">
         <v>5</v>
       </c>
-      <c r="E103" s="156"/>
-      <c r="F103" s="156"/>
-      <c r="G103" s="157"/>
+      <c r="E103" s="178"/>
+      <c r="F103" s="178"/>
+      <c r="G103" s="179"/>
       <c r="H103" s="10"/>
     </row>
     <row r="104" spans="1:8" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="150"/>
-      <c r="B104" s="153"/>
-      <c r="C104" s="100"/>
-      <c r="D104" s="108" t="s">
+      <c r="A104" s="173"/>
+      <c r="B104" s="176"/>
+      <c r="C104" s="130"/>
+      <c r="D104" s="128" t="s">
         <v>100</v>
       </c>
-      <c r="E104" s="106"/>
-      <c r="F104" s="104" t="s">
+      <c r="E104" s="155"/>
+      <c r="F104" s="157" t="s">
         <v>41</v>
       </c>
-      <c r="G104" s="105"/>
+      <c r="G104" s="158"/>
       <c r="H104" s="10"/>
     </row>
     <row r="105" spans="1:8" s="3" customFormat="1" ht="113.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A105" s="151"/>
+      <c r="A105" s="174"/>
       <c r="B105" s="154"/>
-      <c r="C105" s="101"/>
+      <c r="C105" s="153"/>
       <c r="D105" s="154"/>
-      <c r="E105" s="158"/>
+      <c r="E105" s="156"/>
       <c r="F105" s="25" t="s">
         <v>242</v>
       </c>
@@ -4867,79 +4867,79 @@
       </c>
     </row>
     <row r="115" spans="1:8" s="3" customFormat="1" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A115" s="159" t="s">
+      <c r="A115" s="147" t="s">
         <v>113</v>
       </c>
-      <c r="B115" s="160"/>
-      <c r="C115" s="160"/>
-      <c r="D115" s="160"/>
-      <c r="E115" s="160"/>
-      <c r="F115" s="160"/>
-      <c r="G115" s="160"/>
+      <c r="B115" s="148"/>
+      <c r="C115" s="148"/>
+      <c r="D115" s="148"/>
+      <c r="E115" s="148"/>
+      <c r="F115" s="148"/>
+      <c r="G115" s="148"/>
     </row>
     <row r="116" spans="1:8" s="3" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A116" s="72"/>
-      <c r="B116" s="179" t="s">
+      <c r="B116" s="159" t="s">
         <v>112</v>
       </c>
-      <c r="C116" s="180"/>
-      <c r="D116" s="181"/>
-      <c r="E116" s="181"/>
-      <c r="F116" s="182">
+      <c r="C116" s="160"/>
+      <c r="D116" s="161"/>
+      <c r="E116" s="161"/>
+      <c r="F116" s="162">
         <v>1200</v>
       </c>
-      <c r="G116" s="183"/>
+      <c r="G116" s="163"/>
       <c r="H116" s="20"/>
     </row>
     <row r="117" spans="1:8" s="3" customFormat="1" ht="35.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A117" s="146" t="s">
+      <c r="A117" s="149" t="s">
         <v>176</v>
       </c>
-      <c r="B117" s="147"/>
-      <c r="C117" s="147"/>
-      <c r="D117" s="147"/>
-      <c r="E117" s="147"/>
-      <c r="F117" s="147"/>
-      <c r="G117" s="148"/>
+      <c r="B117" s="150"/>
+      <c r="C117" s="150"/>
+      <c r="D117" s="150"/>
+      <c r="E117" s="150"/>
+      <c r="F117" s="150"/>
+      <c r="G117" s="151"/>
     </row>
     <row r="118" spans="1:8" s="3" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
-      <c r="A118" s="93" t="s">
+      <c r="A118" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="B118" s="96" t="s">
+      <c r="B118" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="C118" s="99" t="s">
+      <c r="C118" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="D118" s="102" t="s">
+      <c r="D118" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="E118" s="102"/>
-      <c r="F118" s="102"/>
-      <c r="G118" s="103"/>
+      <c r="E118" s="131"/>
+      <c r="F118" s="131"/>
+      <c r="G118" s="132"/>
       <c r="H118" s="10"/>
     </row>
     <row r="119" spans="1:8" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="94"/>
-      <c r="B119" s="97"/>
-      <c r="C119" s="100"/>
-      <c r="D119" s="108" t="s">
+      <c r="A119" s="111"/>
+      <c r="B119" s="127"/>
+      <c r="C119" s="130"/>
+      <c r="D119" s="128" t="s">
         <v>100</v>
       </c>
-      <c r="E119" s="106" t="s">
+      <c r="E119" s="155" t="s">
         <v>201</v>
       </c>
-      <c r="F119" s="104"/>
-      <c r="G119" s="105"/>
+      <c r="F119" s="157"/>
+      <c r="G119" s="158"/>
       <c r="H119" s="10"/>
     </row>
     <row r="120" spans="1:8" s="3" customFormat="1" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A120" s="161"/>
-      <c r="B120" s="98"/>
-      <c r="C120" s="101"/>
+      <c r="A120" s="112"/>
+      <c r="B120" s="152"/>
+      <c r="C120" s="153"/>
       <c r="D120" s="154"/>
-      <c r="E120" s="158"/>
+      <c r="E120" s="156"/>
       <c r="F120" s="32" t="s">
         <v>200</v>
       </c>
@@ -5031,58 +5031,58 @@
       <c r="G124" s="18"/>
     </row>
     <row r="125" spans="1:8" s="3" customFormat="1" ht="36" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A125" s="143" t="s">
+      <c r="A125" s="139" t="s">
         <v>114</v>
       </c>
-      <c r="B125" s="144"/>
-      <c r="C125" s="144"/>
-      <c r="D125" s="144"/>
-      <c r="E125" s="144"/>
-      <c r="F125" s="144"/>
-      <c r="G125" s="145"/>
+      <c r="B125" s="140"/>
+      <c r="C125" s="140"/>
+      <c r="D125" s="140"/>
+      <c r="E125" s="140"/>
+      <c r="F125" s="140"/>
+      <c r="G125" s="141"/>
     </row>
     <row r="126" spans="1:8" s="3" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
-      <c r="A126" s="93" t="s">
+      <c r="A126" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="B126" s="96" t="s">
+      <c r="B126" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="C126" s="99" t="s">
+      <c r="C126" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="D126" s="102" t="s">
+      <c r="D126" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="E126" s="102"/>
-      <c r="F126" s="102"/>
-      <c r="G126" s="103"/>
+      <c r="E126" s="131"/>
+      <c r="F126" s="131"/>
+      <c r="G126" s="132"/>
       <c r="H126" s="10"/>
     </row>
     <row r="127" spans="1:8" s="3" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A127" s="94"/>
-      <c r="B127" s="97"/>
-      <c r="C127" s="100"/>
-      <c r="D127" s="108" t="s">
+      <c r="A127" s="111"/>
+      <c r="B127" s="127"/>
+      <c r="C127" s="130"/>
+      <c r="D127" s="128" t="s">
         <v>100</v>
       </c>
-      <c r="E127" s="177" t="s">
+      <c r="E127" s="137" t="s">
         <v>41</v>
       </c>
-      <c r="F127" s="178"/>
-      <c r="G127" s="178"/>
+      <c r="F127" s="138"/>
+      <c r="G127" s="138"/>
       <c r="H127" s="10"/>
     </row>
     <row r="128" spans="1:8" s="3" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="161"/>
-      <c r="B128" s="108"/>
-      <c r="C128" s="100"/>
-      <c r="D128" s="173"/>
-      <c r="E128" s="174" t="s">
+      <c r="A128" s="112"/>
+      <c r="B128" s="128"/>
+      <c r="C128" s="130"/>
+      <c r="D128" s="133"/>
+      <c r="E128" s="134" t="s">
         <v>121</v>
       </c>
-      <c r="F128" s="175"/>
-      <c r="G128" s="176"/>
+      <c r="F128" s="135"/>
+      <c r="G128" s="136"/>
       <c r="H128" s="10"/>
     </row>
     <row r="129" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
@@ -5149,26 +5149,26 @@
       </c>
     </row>
     <row r="132" spans="1:8" s="29" customFormat="1" ht="121.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="167" t="s">
+      <c r="A132" s="120" t="s">
         <v>216</v>
       </c>
-      <c r="B132" s="168"/>
-      <c r="C132" s="168"/>
-      <c r="D132" s="168"/>
-      <c r="E132" s="168"/>
-      <c r="F132" s="168"/>
-      <c r="G132" s="169"/>
+      <c r="B132" s="121"/>
+      <c r="C132" s="121"/>
+      <c r="D132" s="121"/>
+      <c r="E132" s="121"/>
+      <c r="F132" s="121"/>
+      <c r="G132" s="122"/>
     </row>
     <row r="133" spans="1:8" s="3" customFormat="1" ht="105.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A133" s="170" t="s">
+      <c r="A133" s="123" t="s">
         <v>217</v>
       </c>
-      <c r="B133" s="171"/>
-      <c r="C133" s="171"/>
-      <c r="D133" s="171"/>
-      <c r="E133" s="171"/>
-      <c r="F133" s="171"/>
-      <c r="G133" s="172"/>
+      <c r="B133" s="124"/>
+      <c r="C133" s="124"/>
+      <c r="D133" s="124"/>
+      <c r="E133" s="124"/>
+      <c r="F133" s="124"/>
+      <c r="G133" s="125"/>
     </row>
     <row r="134" spans="1:8" s="3" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="73"/>
@@ -5180,15 +5180,15 @@
       <c r="G134" s="74"/>
     </row>
     <row r="135" spans="1:8" s="3" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="186" t="s">
+      <c r="A135" s="115" t="s">
         <v>218</v>
       </c>
-      <c r="B135" s="187"/>
-      <c r="C135" s="187"/>
-      <c r="D135" s="187"/>
-      <c r="E135" s="187"/>
-      <c r="F135" s="187"/>
-      <c r="G135" s="187"/>
+      <c r="B135" s="116"/>
+      <c r="C135" s="116"/>
+      <c r="D135" s="116"/>
+      <c r="E135" s="116"/>
+      <c r="F135" s="116"/>
+      <c r="G135" s="116"/>
     </row>
     <row r="136" spans="1:8" s="3" customFormat="1" ht="162" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="73"/>
@@ -5209,49 +5209,49 @@
       <c r="G137" s="74"/>
     </row>
     <row r="138" spans="1:8" s="3" customFormat="1" ht="35.25" x14ac:dyDescent="0.5">
-      <c r="A138" s="143" t="s">
+      <c r="A138" s="139" t="s">
         <v>125</v>
       </c>
-      <c r="B138" s="144"/>
-      <c r="C138" s="144"/>
-      <c r="D138" s="144"/>
-      <c r="E138" s="144"/>
-      <c r="F138" s="144"/>
-      <c r="G138" s="145"/>
+      <c r="B138" s="140"/>
+      <c r="C138" s="140"/>
+      <c r="D138" s="140"/>
+      <c r="E138" s="140"/>
+      <c r="F138" s="140"/>
+      <c r="G138" s="141"/>
     </row>
     <row r="139" spans="1:8" s="3" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A139" s="162" t="s">
+      <c r="A139" s="142" t="s">
         <v>124</v>
       </c>
-      <c r="B139" s="163"/>
-      <c r="C139" s="163"/>
-      <c r="D139" s="163"/>
-      <c r="E139" s="163"/>
-      <c r="F139" s="163"/>
-      <c r="G139" s="163"/>
+      <c r="B139" s="143"/>
+      <c r="C139" s="143"/>
+      <c r="D139" s="143"/>
+      <c r="E139" s="143"/>
+      <c r="F139" s="143"/>
+      <c r="G139" s="143"/>
     </row>
     <row r="140" spans="1:8" s="3" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
-      <c r="A140" s="93" t="s">
+      <c r="A140" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="B140" s="96" t="s">
+      <c r="B140" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="C140" s="99" t="s">
+      <c r="C140" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="D140" s="102" t="s">
+      <c r="D140" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="E140" s="102"/>
-      <c r="F140" s="102"/>
-      <c r="G140" s="103"/>
+      <c r="E140" s="131"/>
+      <c r="F140" s="131"/>
+      <c r="G140" s="132"/>
       <c r="H140" s="10"/>
     </row>
     <row r="141" spans="1:8" s="3" customFormat="1" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A141" s="161"/>
-      <c r="B141" s="108"/>
-      <c r="C141" s="100"/>
+      <c r="A141" s="112"/>
+      <c r="B141" s="128"/>
+      <c r="C141" s="130"/>
       <c r="D141" s="27"/>
       <c r="E141" s="26"/>
       <c r="F141" s="26"/>
@@ -5259,15 +5259,15 @@
       <c r="H141" s="10"/>
     </row>
     <row r="142" spans="1:8" s="3" customFormat="1" ht="33" x14ac:dyDescent="0.45">
-      <c r="A142" s="164" t="s">
+      <c r="A142" s="144" t="s">
         <v>126</v>
       </c>
-      <c r="B142" s="165"/>
-      <c r="C142" s="165"/>
-      <c r="D142" s="165"/>
-      <c r="E142" s="165"/>
-      <c r="F142" s="165"/>
-      <c r="G142" s="166"/>
+      <c r="B142" s="145"/>
+      <c r="C142" s="145"/>
+      <c r="D142" s="145"/>
+      <c r="E142" s="145"/>
+      <c r="F142" s="145"/>
+      <c r="G142" s="146"/>
     </row>
     <row r="143" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A143" s="28">
@@ -5933,62 +5933,144 @@
       <c r="G181" s="14"/>
     </row>
     <row r="182" spans="1:7" s="3" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A182" s="184" t="s">
+      <c r="A182" s="113" t="s">
         <v>205</v>
       </c>
-      <c r="B182" s="185"/>
-      <c r="C182" s="185"/>
-      <c r="D182" s="185"/>
-      <c r="E182" s="185"/>
-      <c r="F182" s="185"/>
-      <c r="G182" s="185"/>
+      <c r="B182" s="114"/>
+      <c r="C182" s="114"/>
+      <c r="D182" s="114"/>
+      <c r="E182" s="114"/>
+      <c r="F182" s="114"/>
+      <c r="G182" s="114"/>
     </row>
     <row r="183" spans="1:7" s="3" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A183" s="184" t="s">
+      <c r="A183" s="113" t="s">
         <v>206</v>
       </c>
-      <c r="B183" s="185"/>
-      <c r="C183" s="185"/>
-      <c r="D183" s="185"/>
-      <c r="E183" s="185"/>
-      <c r="F183" s="185"/>
-      <c r="G183" s="185"/>
+      <c r="B183" s="114"/>
+      <c r="C183" s="114"/>
+      <c r="D183" s="114"/>
+      <c r="E183" s="114"/>
+      <c r="F183" s="114"/>
+      <c r="G183" s="114"/>
     </row>
     <row r="184" spans="1:7" s="3" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A184" s="188" t="s">
+      <c r="A184" s="117" t="s">
         <v>202</v>
       </c>
-      <c r="B184" s="189"/>
-      <c r="C184" s="189"/>
-      <c r="D184" s="189"/>
-      <c r="E184" s="189"/>
-      <c r="F184" s="189"/>
-      <c r="G184" s="190"/>
+      <c r="B184" s="118"/>
+      <c r="C184" s="118"/>
+      <c r="D184" s="118"/>
+      <c r="E184" s="118"/>
+      <c r="F184" s="118"/>
+      <c r="G184" s="119"/>
     </row>
     <row r="185" spans="1:7" s="3" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A185" s="188" t="s">
+      <c r="A185" s="117" t="s">
         <v>203</v>
       </c>
-      <c r="B185" s="189"/>
-      <c r="C185" s="189"/>
-      <c r="D185" s="189"/>
-      <c r="E185" s="189"/>
-      <c r="F185" s="189"/>
-      <c r="G185" s="190"/>
+      <c r="B185" s="118"/>
+      <c r="C185" s="118"/>
+      <c r="D185" s="118"/>
+      <c r="E185" s="118"/>
+      <c r="F185" s="118"/>
+      <c r="G185" s="119"/>
     </row>
     <row r="186" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.4">
-      <c r="A186" s="191" t="s">
+      <c r="A186" s="86" t="s">
         <v>204</v>
       </c>
-      <c r="B186" s="192"/>
-      <c r="C186" s="192"/>
-      <c r="D186" s="192"/>
-      <c r="E186" s="192"/>
-      <c r="F186" s="192"/>
-      <c r="G186" s="193"/>
+      <c r="B186" s="87"/>
+      <c r="C186" s="87"/>
+      <c r="D186" s="87"/>
+      <c r="E186" s="87"/>
+      <c r="F186" s="87"/>
+      <c r="G186" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="98">
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A46:G46"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="A101:G101"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="A69:G69"/>
+    <mergeCell ref="A68:G68"/>
+    <mergeCell ref="A102:G102"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="C103:C105"/>
+    <mergeCell ref="D103:G103"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="F104:G104"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="D70:G70"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="A115:G115"/>
+    <mergeCell ref="A125:G125"/>
+    <mergeCell ref="A117:G117"/>
+    <mergeCell ref="A118:A120"/>
+    <mergeCell ref="B118:B120"/>
+    <mergeCell ref="C118:C120"/>
+    <mergeCell ref="D118:G118"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="F119:G119"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="F116:G116"/>
+    <mergeCell ref="B126:B128"/>
+    <mergeCell ref="C126:C128"/>
+    <mergeCell ref="D126:G126"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="E128:G128"/>
+    <mergeCell ref="E127:G127"/>
+    <mergeCell ref="A135:G135"/>
+    <mergeCell ref="A184:G184"/>
+    <mergeCell ref="A185:G185"/>
+    <mergeCell ref="A132:G132"/>
+    <mergeCell ref="A133:G133"/>
+    <mergeCell ref="A138:G138"/>
+    <mergeCell ref="A139:G139"/>
+    <mergeCell ref="A142:G142"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="D140:G140"/>
     <mergeCell ref="A186:G186"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="D24:E24"/>
@@ -6005,88 +6087,6 @@
     <mergeCell ref="A126:A128"/>
     <mergeCell ref="A182:G182"/>
     <mergeCell ref="A183:G183"/>
-    <mergeCell ref="A135:G135"/>
-    <mergeCell ref="A184:G184"/>
-    <mergeCell ref="A185:G185"/>
-    <mergeCell ref="A132:G132"/>
-    <mergeCell ref="A133:G133"/>
-    <mergeCell ref="B126:B128"/>
-    <mergeCell ref="C126:C128"/>
-    <mergeCell ref="D126:G126"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="E128:G128"/>
-    <mergeCell ref="E127:G127"/>
-    <mergeCell ref="A138:G138"/>
-    <mergeCell ref="A139:G139"/>
-    <mergeCell ref="A142:G142"/>
-    <mergeCell ref="A140:A141"/>
-    <mergeCell ref="B140:B141"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="D140:G140"/>
-    <mergeCell ref="A115:G115"/>
-    <mergeCell ref="A125:G125"/>
-    <mergeCell ref="A117:G117"/>
-    <mergeCell ref="A118:A120"/>
-    <mergeCell ref="B118:B120"/>
-    <mergeCell ref="C118:C120"/>
-    <mergeCell ref="D118:G118"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="F119:G119"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="F116:G116"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="D70:G70"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="A102:G102"/>
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="C103:C105"/>
-    <mergeCell ref="D103:G103"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="F104:G104"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="A69:G69"/>
-    <mergeCell ref="A68:G68"/>
-    <mergeCell ref="A101:G101"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A46:G46"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E28:F28"/>
   </mergeCells>
   <pageMargins left="0.46" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="41" orientation="portrait" r:id="rId1"/>

--- a/agregat/assets/docs/Прайс ЧелныАгрегатЦентр 01 2019.xlsx
+++ b/agregat/assets/docs/Прайс ЧелныАгрегатЦентр 01 2019.xlsx
@@ -1,28 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\drsk0211.github.io\agregat\assets\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Visual Studio 2012\Projects\drsk0211.github.io\agregat\assets\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92CB9B5-34C6-42F9-8595-4BFD69A55141}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="616"/>
+    <workbookView xWindow="-114" yWindow="-114" windowWidth="23040" windowHeight="12461" tabRatio="616" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Прейскурант c 01.01.16" sheetId="19" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="20" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Прейскурант c 01.01.16'!$A$1:$G$186</definedName>
   </definedNames>
-  <calcPr calcId="125725" refMode="R1C1"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="244">
   <si>
     <t>№ п/п</t>
   </si>
@@ -771,7 +773,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
     <numFmt numFmtId="164" formatCode="_-* #,##0\ &quot;р.&quot;_-;\-* #,##0\ &quot;р.&quot;_-;_-* &quot;-&quot;\ &quot;р.&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0\ _р_._-;\-* #,##0\ _р_._-;_-* &quot;-&quot;\ _р_._-;_-@_-"/>
@@ -781,7 +783,7 @@
     <numFmt numFmtId="169" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
     <numFmt numFmtId="170" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1021,6 +1023,12 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1755,49 +1763,47 @@
     <xf numFmtId="40" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="168" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="207">
+  <cellXfs count="194">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1809,43 +1815,38 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="19" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="19" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="170" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1860,90 +1861,66 @@
     <xf numFmtId="170" fontId="25" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="25" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="25" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="25" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="170" fontId="25" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="25" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="25" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="25" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="170" fontId="25" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="25" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="25" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="25" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="25" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="25" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="25" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="25" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="25" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="25" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="25" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="170" fontId="25" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="25" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="19" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="19" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="23" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="23" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1952,6 +1929,312 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="23" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="27" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="27" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="27" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="16" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="20" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1961,391 +2244,85 @@
     <xf numFmtId="0" fontId="26" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="16" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="20" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="27" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="27" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="27" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="23" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="29">
-    <cellStyle name="1Normal" xfId="1"/>
-    <cellStyle name="Comma [0]_CF &lt;-&gt; NI" xfId="2"/>
-    <cellStyle name="Comma_ASSUMPT" xfId="3"/>
-    <cellStyle name="Currency [0]_CF &lt;-&gt; NI" xfId="4"/>
-    <cellStyle name="Currency_CF &lt;-&gt; NI" xfId="5"/>
-    <cellStyle name="Followed Hyperlink" xfId="6"/>
-    <cellStyle name="Hyperlink" xfId="7"/>
-    <cellStyle name="Norma11l" xfId="8"/>
-    <cellStyle name="Normal_CF &lt;-&gt; NI" xfId="9"/>
-    <cellStyle name="Percent_ASSUMPT" xfId="10"/>
-    <cellStyle name="ДАТА" xfId="11"/>
-    <cellStyle name="ЗАГОЛОВОК1" xfId="12"/>
-    <cellStyle name="ЗАГОЛОВОК2" xfId="13"/>
-    <cellStyle name="ИТОГОВЫЙ" xfId="14"/>
+    <cellStyle name="1Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Comma [0]_CF &lt;-&gt; NI" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Comma_ASSUMPT" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Currency [0]_CF &lt;-&gt; NI" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Currency_CF &lt;-&gt; NI" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Hyperlink" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Norma11l" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal_CF &lt;-&gt; NI" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Percent_ASSUMPT" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="ДАТА" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="ЗАГОЛОВОК1" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="ЗАГОЛОВОК2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="ИТОГОВЫЙ" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="15"/>
-    <cellStyle name="Обычный 2 2" xfId="16"/>
-    <cellStyle name="Обычный 3" xfId="17"/>
-    <cellStyle name="Обычный 4" xfId="18"/>
-    <cellStyle name="Процентный 2" xfId="19"/>
-    <cellStyle name="Процентный 2 2" xfId="20"/>
-    <cellStyle name="Процентный 3" xfId="21"/>
-    <cellStyle name="ТЕКСТ" xfId="22"/>
-    <cellStyle name="Тысячи [0]_15a" xfId="23"/>
-    <cellStyle name="Тысячи_15a" xfId="24"/>
-    <cellStyle name="ФИКСИРОВАННЫЙ" xfId="25"/>
-    <cellStyle name="Финансовый 2" xfId="26"/>
-    <cellStyle name="Финансовый 2 2" xfId="27"/>
-    <cellStyle name="Финансовый 3" xfId="28"/>
+    <cellStyle name="Обычный 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Обычный 2 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Обычный 3" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Обычный 4" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Процентный 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Процентный 2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Процентный 3" xfId="21" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="ТЕКСТ" xfId="22" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Тысячи [0]_15a" xfId="23" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Тысячи_15a" xfId="24" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="ФИКСИРОВАННЫЙ" xfId="25" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Финансовый 2" xfId="26" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Финансовый 2 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Финансовый 3" xfId="28" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2436,6 +2413,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2471,6 +2465,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -2646,100 +2657,100 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H186"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30:B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.85" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="49.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="72.85546875" style="1" customWidth="1"/>
-    <col min="4" max="5" width="26.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="32.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="49.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="72.875" style="1" customWidth="1"/>
+    <col min="4" max="5" width="26.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="32.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.875" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.4">
-      <c r="A1" s="201" t="s">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="29.95" x14ac:dyDescent="0.4">
+      <c r="A1" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="201"/>
-      <c r="C1" s="201"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="201"/>
-      <c r="F1" s="201"/>
-      <c r="G1" s="201"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
       <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="201" t="s">
+      <c r="A2" s="77" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="202"/>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202"/>
-      <c r="E2" s="202"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="202"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="79"/>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="110" t="s">
+    <row r="4" spans="1:8" s="3" customFormat="1" ht="22.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="126" t="s">
+      <c r="B4" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="129" t="s">
+      <c r="C4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="131" t="s">
+      <c r="D4" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="131"/>
-      <c r="F4" s="131"/>
-      <c r="G4" s="132"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="88"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="111"/>
-      <c r="B5" s="127"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="128" t="s">
+    <row r="5" spans="1:8" s="3" customFormat="1" ht="22.1" x14ac:dyDescent="0.35">
+      <c r="A5" s="79"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="93" t="s">
         <v>232</v>
       </c>
-      <c r="E5" s="155" t="s">
+      <c r="E5" s="91" t="s">
         <v>222</v>
       </c>
-      <c r="F5" s="157" t="s">
+      <c r="F5" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="158"/>
+      <c r="G5" s="90"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" s="3" customFormat="1" ht="135.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="192"/>
-      <c r="B6" s="152"/>
-      <c r="C6" s="153"/>
-      <c r="D6" s="180"/>
-      <c r="E6" s="181"/>
-      <c r="F6" s="25" t="s">
+    <row r="6" spans="1:8" s="3" customFormat="1" ht="111.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="80"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="23" t="s">
         <v>221</v>
       </c>
       <c r="G6" s="7" t="s">
@@ -2747,500 +2758,500 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" ht="36" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="196" t="s">
+    <row r="7" spans="1:8" s="3" customFormat="1" ht="35.65" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="71" t="s">
         <v>173</v>
       </c>
-      <c r="B7" s="197"/>
-      <c r="C7" s="197"/>
-      <c r="D7" s="197"/>
-      <c r="E7" s="197"/>
-      <c r="F7" s="197"/>
-      <c r="G7" s="198"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="73"/>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" s="3" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" s="3" customFormat="1" ht="26.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="9">
         <v>1</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="34" t="s">
+      <c r="D8" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="31" t="s">
         <v>45</v>
       </c>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:8" s="3" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" s="3" customFormat="1" ht="26.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="11">
         <v>2</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="34" t="s">
+      <c r="D9" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="31" t="s">
         <v>45</v>
       </c>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:8" s="3" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" s="3" customFormat="1" ht="26.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="15">
         <v>3</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="34" t="s">
+      <c r="D10" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="31" t="s">
         <v>45</v>
       </c>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:8" s="3" customFormat="1" ht="35.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="199" t="s">
+    <row r="11" spans="1:8" s="3" customFormat="1" ht="35.65" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="74" t="s">
         <v>174</v>
       </c>
-      <c r="B11" s="100"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="200"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="76"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8" s="3" customFormat="1" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" s="3" customFormat="1" ht="28.55" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="12">
         <v>1</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="65">
+      <c r="D12" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="44">
         <v>325000</v>
       </c>
-      <c r="F12" s="68">
+      <c r="F12" s="56">
         <v>245000</v>
       </c>
-      <c r="G12" s="69">
+      <c r="G12" s="57">
         <v>220000</v>
       </c>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="1:8" s="3" customFormat="1" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" s="3" customFormat="1" ht="28.55" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="12">
         <v>2</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="65">
+      <c r="D13" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="44">
         <v>345000</v>
       </c>
-      <c r="F13" s="65">
+      <c r="F13" s="44">
         <v>252200</v>
       </c>
-      <c r="G13" s="56">
+      <c r="G13" s="49">
         <v>230000</v>
       </c>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:8" s="3" customFormat="1" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" s="3" customFormat="1" ht="28.55" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="12">
         <v>3</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="65">
+      <c r="D14" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="44">
         <v>390000</v>
       </c>
-      <c r="F14" s="65">
+      <c r="F14" s="44">
         <v>308920</v>
       </c>
-      <c r="G14" s="56">
+      <c r="G14" s="49">
         <v>265000</v>
       </c>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:8" s="3" customFormat="1" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" s="3" customFormat="1" ht="28.55" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="12">
         <v>4</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="65">
+      <c r="D15" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="44">
         <v>445000</v>
       </c>
-      <c r="F15" s="65">
+      <c r="F15" s="44">
         <v>351220</v>
       </c>
-      <c r="G15" s="56">
+      <c r="G15" s="49">
         <v>320000</v>
       </c>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="1:8" s="3" customFormat="1" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" s="3" customFormat="1" ht="28.55" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="12">
         <v>5</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="65">
+      <c r="D16" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="44">
         <v>470000</v>
       </c>
-      <c r="F16" s="65">
+      <c r="F16" s="44">
         <v>361150</v>
       </c>
-      <c r="G16" s="56">
+      <c r="G16" s="49">
         <v>320000</v>
       </c>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="1:8" s="3" customFormat="1" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" s="3" customFormat="1" ht="28.55" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="12">
         <v>6</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="65">
+      <c r="D17" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="44">
         <v>580000</v>
       </c>
-      <c r="F17" s="65">
+      <c r="F17" s="44">
         <v>452740</v>
       </c>
-      <c r="G17" s="56">
+      <c r="G17" s="49">
         <v>395000</v>
       </c>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" spans="1:8" s="3" customFormat="1" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" s="3" customFormat="1" ht="28.55" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="12">
         <v>7</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="65">
+      <c r="D18" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="44">
         <v>540000</v>
       </c>
-      <c r="F18" s="65">
+      <c r="F18" s="44">
         <v>445520</v>
       </c>
-      <c r="G18" s="56">
+      <c r="G18" s="49">
         <v>395000</v>
       </c>
       <c r="H18" s="10"/>
     </row>
-    <row r="19" spans="1:8" s="3" customFormat="1" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" s="3" customFormat="1" ht="28.55" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="12">
         <v>8</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="65">
+      <c r="D19" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="44">
         <v>595000</v>
       </c>
-      <c r="F19" s="65">
+      <c r="F19" s="44">
         <v>475920</v>
       </c>
-      <c r="G19" s="56">
+      <c r="G19" s="49">
         <v>410000</v>
       </c>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" spans="1:8" s="3" customFormat="1" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" s="3" customFormat="1" ht="28.55" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="12">
         <v>9</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="65">
+      <c r="D20" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="44">
         <v>590000</v>
       </c>
-      <c r="F20" s="65">
+      <c r="F20" s="44">
         <v>465140</v>
       </c>
-      <c r="G20" s="56">
+      <c r="G20" s="49">
         <v>410000</v>
       </c>
       <c r="H20" s="10"/>
     </row>
-    <row r="21" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
       <c r="A21" s="12">
         <v>10</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="46" t="s">
+      <c r="C21" s="41" t="s">
         <v>215</v>
       </c>
-      <c r="D21" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="70">
+      <c r="D21" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="58">
         <v>650000</v>
       </c>
-      <c r="F21" s="71">
+      <c r="F21" s="58">
         <v>560000</v>
       </c>
-      <c r="G21" s="64">
+      <c r="G21" s="53">
         <v>500000</v>
       </c>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" spans="1:8" s="30" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="75" t="s">
+    <row r="22" spans="1:8" s="27" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="76"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="47"/>
-    </row>
-    <row r="23" spans="1:8" s="30" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="191" t="s">
+      <c r="B22" s="63"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="42"/>
+    </row>
+    <row r="23" spans="1:8" s="27" customFormat="1" ht="27.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="191"/>
-      <c r="C23" s="191"/>
-      <c r="D23" s="191"/>
-      <c r="E23" s="191"/>
-      <c r="F23" s="191"/>
-      <c r="G23" s="191"/>
-      <c r="H23" s="48"/>
-    </row>
-    <row r="24" spans="1:8" s="3" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A24" s="35"/>
-      <c r="B24" s="89" t="s">
+      <c r="B23" s="105"/>
+      <c r="C23" s="105"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="105"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="43"/>
+    </row>
+    <row r="24" spans="1:8" s="3" customFormat="1" ht="25.7" x14ac:dyDescent="0.4">
+      <c r="A24" s="32"/>
+      <c r="B24" s="176" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="90"/>
-      <c r="D24" s="91"/>
-      <c r="E24" s="91"/>
-      <c r="F24" s="92">
+      <c r="C24" s="177"/>
+      <c r="D24" s="178"/>
+      <c r="E24" s="178"/>
+      <c r="F24" s="179">
         <v>1500</v>
       </c>
-      <c r="G24" s="93"/>
-      <c r="H24" s="20"/>
-    </row>
-    <row r="25" spans="1:8" s="3" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="38"/>
-      <c r="B25" s="94" t="s">
+      <c r="G24" s="180"/>
+      <c r="H24" s="18"/>
+    </row>
+    <row r="25" spans="1:8" s="3" customFormat="1" ht="26.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="35"/>
+      <c r="B25" s="181" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="95"/>
-      <c r="D25" s="96"/>
-      <c r="E25" s="96"/>
-      <c r="F25" s="97">
+      <c r="C25" s="182"/>
+      <c r="D25" s="183"/>
+      <c r="E25" s="183"/>
+      <c r="F25" s="184">
         <v>2500</v>
       </c>
-      <c r="G25" s="98"/>
-      <c r="H25" s="20"/>
-    </row>
-    <row r="26" spans="1:8" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="99" t="s">
+      <c r="G25" s="185"/>
+      <c r="H25" s="18"/>
+    </row>
+    <row r="26" spans="1:8" ht="34.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="186" t="s">
         <v>188</v>
       </c>
-      <c r="B26" s="100"/>
-      <c r="C26" s="100"/>
-      <c r="D26" s="100"/>
-      <c r="E26" s="100"/>
-      <c r="F26" s="100"/>
-      <c r="G26" s="101"/>
+      <c r="B26" s="75"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="187"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="102" t="s">
+    <row r="27" spans="1:8" s="3" customFormat="1" ht="30.85" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="103" t="s">
+      <c r="B27" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="105" t="s">
+      <c r="C27" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="107" t="s">
+      <c r="D27" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="107"/>
-      <c r="F27" s="107"/>
-      <c r="G27" s="108"/>
+      <c r="E27" s="118"/>
+      <c r="F27" s="118"/>
+      <c r="G27" s="119"/>
       <c r="H27" s="10"/>
     </row>
-    <row r="28" spans="1:8" s="3" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="102"/>
-      <c r="B28" s="102"/>
-      <c r="C28" s="106"/>
-      <c r="D28" s="102" t="s">
+    <row r="28" spans="1:8" s="3" customFormat="1" ht="65.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="113"/>
+      <c r="B28" s="113"/>
+      <c r="C28" s="116"/>
+      <c r="D28" s="113" t="s">
         <v>187</v>
       </c>
-      <c r="E28" s="205" t="s">
+      <c r="E28" s="97" t="s">
         <v>235</v>
       </c>
-      <c r="F28" s="206"/>
-      <c r="G28" s="203" t="s">
+      <c r="F28" s="98"/>
+      <c r="G28" s="95" t="s">
         <v>233</v>
       </c>
-      <c r="H28" s="204"/>
-    </row>
-    <row r="29" spans="1:8" s="3" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="102"/>
-      <c r="B29" s="104"/>
-      <c r="C29" s="106"/>
-      <c r="D29" s="109"/>
-      <c r="E29" s="83" t="s">
+      <c r="H28" s="96"/>
+    </row>
+    <row r="29" spans="1:8" s="3" customFormat="1" ht="28.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="113"/>
+      <c r="B29" s="114"/>
+      <c r="C29" s="116"/>
+      <c r="D29" s="188"/>
+      <c r="E29" s="68" t="s">
         <v>236</v>
       </c>
-      <c r="F29" s="83" t="s">
+      <c r="F29" s="68" t="s">
         <v>237</v>
       </c>
-      <c r="G29" s="203" t="s">
+      <c r="G29" s="95" t="s">
         <v>234</v>
       </c>
-      <c r="H29" s="204"/>
-    </row>
-    <row r="30" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H29" s="96"/>
+    </row>
+    <row r="30" spans="1:8" ht="24.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="12">
         <v>1</v>
       </c>
-      <c r="B30" s="44" t="s">
+      <c r="B30" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="C30" s="44" t="s">
+      <c r="C30" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="D30" s="40">
+      <c r="D30" s="37">
         <v>670000</v>
       </c>
-      <c r="E30" s="82">
+      <c r="E30" s="67">
         <v>450000</v>
       </c>
-      <c r="F30" s="82">
+      <c r="F30" s="67">
         <v>200000</v>
       </c>
-      <c r="G30" s="82">
+      <c r="G30" s="67">
         <v>400000</v>
       </c>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" ht="23.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="12">
         <v>2</v>
       </c>
-      <c r="B31" s="44" t="s">
+      <c r="B31" s="40" t="s">
         <v>185</v>
       </c>
-      <c r="C31" s="44" t="s">
+      <c r="C31" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="D31" s="40">
+      <c r="D31" s="37">
         <v>670000</v>
       </c>
-      <c r="E31" s="82">
+      <c r="E31" s="67">
         <v>450000</v>
       </c>
-      <c r="F31" s="82">
+      <c r="F31" s="67">
         <v>200000</v>
       </c>
-      <c r="G31" s="82">
+      <c r="G31" s="67">
         <v>410000</v>
       </c>
       <c r="H31" s="2"/>
@@ -3249,46 +3260,46 @@
       <c r="A32" s="12">
         <v>3</v>
       </c>
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="C32" s="44" t="s">
+      <c r="C32" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="D32" s="40">
+      <c r="D32" s="37">
         <v>805000</v>
       </c>
-      <c r="E32" s="82">
+      <c r="E32" s="67">
         <v>450000</v>
       </c>
-      <c r="F32" s="82">
+      <c r="F32" s="67">
         <v>200000</v>
       </c>
-      <c r="G32" s="82">
+      <c r="G32" s="67">
         <v>420000</v>
       </c>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8" ht="23.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="12">
         <v>4</v>
       </c>
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="C33" s="44" t="s">
+      <c r="C33" s="40" t="s">
         <v>207</v>
       </c>
-      <c r="D33" s="40">
+      <c r="D33" s="37">
         <v>805000</v>
       </c>
-      <c r="E33" s="82">
+      <c r="E33" s="67">
         <v>450000</v>
       </c>
-      <c r="F33" s="82">
+      <c r="F33" s="67">
         <v>200000</v>
       </c>
-      <c r="G33" s="82">
+      <c r="G33" s="67">
         <v>420000</v>
       </c>
       <c r="H33" s="2"/>
@@ -3297,91 +3308,91 @@
       <c r="A34" s="12">
         <v>5</v>
       </c>
-      <c r="B34" s="44" t="s">
+      <c r="B34" s="40" t="s">
         <v>184</v>
       </c>
-      <c r="C34" s="44" t="s">
+      <c r="C34" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="D34" s="40">
+      <c r="D34" s="37">
         <v>820000</v>
       </c>
-      <c r="E34" s="82">
+      <c r="E34" s="67">
         <v>450000</v>
       </c>
-      <c r="F34" s="82">
+      <c r="F34" s="67">
         <v>200000</v>
       </c>
-      <c r="G34" s="82">
+      <c r="G34" s="67">
         <v>420000</v>
       </c>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="1:8" s="3" customFormat="1" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="193" t="s">
+    <row r="35" spans="1:8" s="3" customFormat="1" ht="94.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="106" t="s">
         <v>219</v>
       </c>
-      <c r="B35" s="194"/>
-      <c r="C35" s="194"/>
-      <c r="D35" s="194"/>
-      <c r="E35" s="194"/>
-      <c r="F35" s="194"/>
-      <c r="G35" s="195"/>
+      <c r="B35" s="107"/>
+      <c r="C35" s="107"/>
+      <c r="D35" s="107"/>
+      <c r="E35" s="107"/>
+      <c r="F35" s="107"/>
+      <c r="G35" s="108"/>
       <c r="H35" s="10"/>
     </row>
-    <row r="36" spans="1:8" s="3" customFormat="1" ht="35.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A36" s="188" t="s">
+    <row r="36" spans="1:8" s="3" customFormat="1" ht="35.65" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="102" t="s">
         <v>177</v>
       </c>
-      <c r="B36" s="189"/>
-      <c r="C36" s="189"/>
-      <c r="D36" s="189"/>
-      <c r="E36" s="189"/>
-      <c r="F36" s="189"/>
-      <c r="G36" s="190"/>
+      <c r="B36" s="103"/>
+      <c r="C36" s="103"/>
+      <c r="D36" s="103"/>
+      <c r="E36" s="103"/>
+      <c r="F36" s="103"/>
+      <c r="G36" s="104"/>
       <c r="H36" s="10"/>
     </row>
-    <row r="37" spans="1:8" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="110" t="s">
+    <row r="37" spans="1:8" s="3" customFormat="1" ht="22.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="126" t="s">
+      <c r="B37" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="129" t="s">
+      <c r="C37" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="131" t="s">
+      <c r="D37" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="E37" s="131"/>
-      <c r="F37" s="131"/>
-      <c r="G37" s="132"/>
+      <c r="E37" s="87"/>
+      <c r="F37" s="87"/>
+      <c r="G37" s="88"/>
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="1:8" s="3" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="111"/>
-      <c r="B38" s="127"/>
-      <c r="C38" s="130"/>
-      <c r="D38" s="128" t="s">
+    <row r="38" spans="1:8" s="3" customFormat="1" ht="22.1" x14ac:dyDescent="0.35">
+      <c r="A38" s="79"/>
+      <c r="B38" s="82"/>
+      <c r="C38" s="85"/>
+      <c r="D38" s="93" t="s">
         <v>238</v>
       </c>
-      <c r="E38" s="155" t="s">
+      <c r="E38" s="91" t="s">
         <v>239</v>
       </c>
-      <c r="F38" s="157" t="s">
+      <c r="F38" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="G38" s="158"/>
+      <c r="G38" s="90"/>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="1:8" s="3" customFormat="1" ht="135.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="192"/>
-      <c r="B39" s="152"/>
-      <c r="C39" s="153"/>
-      <c r="D39" s="180"/>
-      <c r="E39" s="181"/>
-      <c r="F39" s="25" t="s">
+    <row r="39" spans="1:8" s="3" customFormat="1" ht="111.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="80"/>
+      <c r="B39" s="83"/>
+      <c r="C39" s="86"/>
+      <c r="D39" s="94"/>
+      <c r="E39" s="92"/>
+      <c r="F39" s="23" t="s">
         <v>227</v>
       </c>
       <c r="G39" s="7" t="s">
@@ -3389,2621 +3400,2672 @@
       </c>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="1:8" s="3" customFormat="1" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="19">
+    <row r="40" spans="1:8" s="3" customFormat="1" ht="28.55" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="17">
         <v>1</v>
       </c>
-      <c r="B40" s="43" t="s">
+      <c r="B40" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="C40" s="50" t="s">
+      <c r="C40" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D40" s="51">
+      <c r="D40" s="46">
         <v>90242</v>
       </c>
-      <c r="E40" s="84" t="s">
+      <c r="E40" s="69" t="s">
         <v>240</v>
       </c>
-      <c r="F40" s="52">
+      <c r="F40" s="46">
         <v>65000</v>
       </c>
-      <c r="G40" s="53">
+      <c r="G40" s="47">
         <v>42200</v>
       </c>
       <c r="H40" s="10"/>
     </row>
-    <row r="41" spans="1:8" s="3" customFormat="1" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="17">
+    <row r="41" spans="1:8" s="3" customFormat="1" ht="28.55" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="12">
         <v>2</v>
       </c>
-      <c r="B41" s="43" t="s">
+      <c r="B41" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="50" t="s">
+      <c r="C41" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="D41" s="54">
+      <c r="D41" s="48">
         <v>105830</v>
       </c>
-      <c r="E41" s="84" t="s">
+      <c r="E41" s="69" t="s">
         <v>240</v>
       </c>
-      <c r="F41" s="55">
+      <c r="F41" s="48">
         <v>85000</v>
       </c>
-      <c r="G41" s="56">
+      <c r="G41" s="49">
         <v>65000</v>
       </c>
       <c r="H41" s="10"/>
     </row>
-    <row r="42" spans="1:8" s="3" customFormat="1" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="17">
+    <row r="42" spans="1:8" s="3" customFormat="1" ht="28.55" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="12">
         <v>3</v>
       </c>
-      <c r="B42" s="43" t="s">
+      <c r="B42" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="50" t="s">
+      <c r="C42" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="D42" s="54">
+      <c r="D42" s="48">
         <v>162815</v>
       </c>
-      <c r="E42" s="84" t="s">
+      <c r="E42" s="69" t="s">
         <v>240</v>
       </c>
-      <c r="F42" s="55">
+      <c r="F42" s="48">
         <v>125000</v>
       </c>
-      <c r="G42" s="56">
+      <c r="G42" s="49">
         <v>105000</v>
       </c>
       <c r="H42" s="10"/>
     </row>
-    <row r="43" spans="1:8" s="3" customFormat="1" ht="35.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A43" s="188" t="s">
+    <row r="43" spans="1:8" s="3" customFormat="1" ht="35.65" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="102" t="s">
         <v>189</v>
       </c>
-      <c r="B43" s="189"/>
-      <c r="C43" s="189"/>
-      <c r="D43" s="189"/>
-      <c r="E43" s="189"/>
-      <c r="F43" s="189"/>
-      <c r="G43" s="190"/>
+      <c r="B43" s="103"/>
+      <c r="C43" s="103"/>
+      <c r="D43" s="103"/>
+      <c r="E43" s="103"/>
+      <c r="F43" s="103"/>
+      <c r="G43" s="104"/>
       <c r="H43" s="10"/>
     </row>
-    <row r="44" spans="1:8" s="3" customFormat="1" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="57">
+    <row r="44" spans="1:8" s="3" customFormat="1" ht="28.55" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="40">
         <v>4</v>
       </c>
-      <c r="B44" s="57" t="s">
+      <c r="B44" s="40" t="s">
         <v>191</v>
       </c>
-      <c r="C44" s="57" t="s">
+      <c r="C44" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="D44" s="54">
+      <c r="D44" s="48">
         <v>365000</v>
       </c>
-      <c r="E44" s="54">
+      <c r="E44" s="48">
         <v>275000</v>
       </c>
-      <c r="F44" s="84" t="s">
+      <c r="F44" s="69" t="s">
         <v>240</v>
       </c>
-      <c r="G44" s="55">
+      <c r="G44" s="48">
         <v>225000</v>
       </c>
       <c r="H44" s="10"/>
     </row>
-    <row r="45" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A45" s="57">
+    <row r="45" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+      <c r="A45" s="40">
         <v>5</v>
       </c>
-      <c r="B45" s="57" t="s">
+      <c r="B45" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="C45" s="57" t="s">
+      <c r="C45" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="D45" s="54">
+      <c r="D45" s="48">
         <v>328000</v>
       </c>
-      <c r="E45" s="54">
+      <c r="E45" s="48">
         <v>275000</v>
       </c>
-      <c r="F45" s="84" t="s">
+      <c r="F45" s="69" t="s">
         <v>240</v>
       </c>
-      <c r="G45" s="55">
+      <c r="G45" s="48">
         <v>235000</v>
       </c>
       <c r="H45" s="10"/>
     </row>
-    <row r="46" spans="1:8" s="3" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="196" t="s">
+    <row r="46" spans="1:8" s="3" customFormat="1" ht="45.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="197"/>
-      <c r="C46" s="197"/>
-      <c r="D46" s="197"/>
-      <c r="E46" s="197"/>
-      <c r="F46" s="197"/>
-      <c r="G46" s="198"/>
+      <c r="B46" s="72"/>
+      <c r="C46" s="72"/>
+      <c r="D46" s="72"/>
+      <c r="E46" s="72"/>
+      <c r="F46" s="72"/>
+      <c r="G46" s="73"/>
       <c r="H46" s="10"/>
     </row>
-    <row r="47" spans="1:8" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="164" t="s">
+    <row r="47" spans="1:8" s="3" customFormat="1" ht="24.95" x14ac:dyDescent="0.35">
+      <c r="A47" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="103" t="s">
+      <c r="B47" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="105" t="s">
+      <c r="C47" s="115" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="107" t="s">
+      <c r="D47" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="E47" s="107"/>
-      <c r="F47" s="107"/>
-      <c r="G47" s="108"/>
+      <c r="E47" s="118"/>
+      <c r="F47" s="118"/>
+      <c r="G47" s="119"/>
       <c r="H47" s="10"/>
     </row>
-    <row r="48" spans="1:8" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="165"/>
-      <c r="B48" s="102"/>
-      <c r="C48" s="106"/>
-      <c r="D48" s="168" t="s">
+    <row r="48" spans="1:8" s="3" customFormat="1" ht="24.95" x14ac:dyDescent="0.35">
+      <c r="A48" s="110"/>
+      <c r="B48" s="113"/>
+      <c r="C48" s="116"/>
+      <c r="D48" s="120" t="s">
         <v>75</v>
       </c>
-      <c r="E48" s="168" t="s">
+      <c r="E48" s="120" t="s">
         <v>241</v>
       </c>
-      <c r="F48" s="170" t="s">
+      <c r="F48" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="G48" s="171"/>
+      <c r="G48" s="123"/>
       <c r="H48" s="10"/>
     </row>
-    <row r="49" spans="1:8" s="3" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="166"/>
-      <c r="B49" s="104"/>
-      <c r="C49" s="167"/>
-      <c r="D49" s="169"/>
-      <c r="E49" s="169"/>
-      <c r="F49" s="58" t="s">
+    <row r="49" spans="1:8" s="3" customFormat="1" ht="50.65" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="111"/>
+      <c r="B49" s="114"/>
+      <c r="C49" s="117"/>
+      <c r="D49" s="121"/>
+      <c r="E49" s="121"/>
+      <c r="F49" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="G49" s="59" t="s">
+      <c r="G49" s="51" t="s">
         <v>40</v>
       </c>
       <c r="H49" s="10"/>
     </row>
-    <row r="50" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A50" s="60">
+    <row r="50" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+      <c r="A50" s="34">
         <v>1</v>
       </c>
-      <c r="B50" s="57" t="s">
+      <c r="B50" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C50" s="57" t="s">
+      <c r="C50" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="D50" s="54">
+      <c r="D50" s="48">
         <v>150000</v>
       </c>
-      <c r="E50" s="57"/>
-      <c r="F50" s="55">
+      <c r="E50" s="40"/>
+      <c r="F50" s="48">
         <v>65000</v>
       </c>
-      <c r="G50" s="65" t="s">
+      <c r="G50" s="44" t="s">
         <v>45</v>
       </c>
       <c r="H50" s="10"/>
     </row>
-    <row r="51" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A51" s="60">
+    <row r="51" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+      <c r="A51" s="34">
         <v>2</v>
       </c>
-      <c r="B51" s="57" t="s">
+      <c r="B51" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="C51" s="57" t="s">
+      <c r="C51" s="40" t="s">
         <v>212</v>
       </c>
-      <c r="D51" s="54">
+      <c r="D51" s="48">
         <v>160000</v>
       </c>
-      <c r="E51" s="57"/>
-      <c r="F51" s="55"/>
-      <c r="G51" s="65" t="s">
+      <c r="E51" s="40"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="44" t="s">
         <v>45</v>
       </c>
       <c r="H51" s="10"/>
     </row>
-    <row r="52" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A52" s="60">
+    <row r="52" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+      <c r="A52" s="34">
         <v>3</v>
       </c>
-      <c r="B52" s="57" t="s">
+      <c r="B52" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="C52" s="57" t="s">
+      <c r="C52" s="40" t="s">
         <v>213</v>
       </c>
-      <c r="D52" s="54">
+      <c r="D52" s="48">
         <v>160000</v>
       </c>
-      <c r="E52" s="57"/>
-      <c r="F52" s="55"/>
-      <c r="G52" s="65" t="s">
+      <c r="E52" s="40"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="44" t="s">
         <v>45</v>
       </c>
       <c r="H52" s="10"/>
     </row>
-    <row r="53" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A53" s="60">
+    <row r="53" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+      <c r="A53" s="34">
         <v>4</v>
       </c>
-      <c r="B53" s="57" t="s">
+      <c r="B53" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="C53" s="57" t="s">
+      <c r="C53" s="40" t="s">
         <v>214</v>
       </c>
-      <c r="D53" s="54">
+      <c r="D53" s="48">
         <v>102000</v>
       </c>
-      <c r="E53" s="85">
+      <c r="E53" s="70">
         <v>62000</v>
       </c>
-      <c r="F53" s="55"/>
-      <c r="G53" s="65" t="s">
+      <c r="F53" s="48"/>
+      <c r="G53" s="44" t="s">
         <v>45</v>
       </c>
       <c r="H53" s="10"/>
     </row>
-    <row r="54" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A54" s="60">
+    <row r="54" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+      <c r="A54" s="34">
         <v>5</v>
       </c>
-      <c r="B54" s="57" t="s">
+      <c r="B54" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="C54" s="57" t="s">
+      <c r="C54" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="D54" s="54">
+      <c r="D54" s="48">
         <v>102000</v>
       </c>
-      <c r="E54" s="85">
+      <c r="E54" s="70">
         <v>62000</v>
       </c>
-      <c r="F54" s="63"/>
-      <c r="G54" s="65" t="s">
+      <c r="F54" s="52"/>
+      <c r="G54" s="44" t="s">
         <v>45</v>
       </c>
       <c r="H54" s="10"/>
     </row>
-    <row r="55" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A55" s="60">
+    <row r="55" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+      <c r="A55" s="34">
         <v>6</v>
       </c>
-      <c r="B55" s="57" t="s">
+      <c r="B55" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C55" s="57" t="s">
+      <c r="C55" s="40" t="s">
         <v>210</v>
       </c>
-      <c r="D55" s="54">
+      <c r="D55" s="48">
         <v>102000</v>
       </c>
-      <c r="E55" s="85">
+      <c r="E55" s="70">
         <v>62000</v>
       </c>
-      <c r="F55" s="63"/>
-      <c r="G55" s="65" t="s">
+      <c r="F55" s="52"/>
+      <c r="G55" s="44" t="s">
         <v>45</v>
       </c>
       <c r="H55" s="10"/>
     </row>
-    <row r="56" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A56" s="60">
+    <row r="56" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+      <c r="A56" s="34">
         <v>7</v>
       </c>
-      <c r="B56" s="57" t="s">
+      <c r="B56" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="C56" s="57" t="s">
+      <c r="C56" s="40" t="s">
         <v>211</v>
       </c>
-      <c r="D56" s="61">
+      <c r="D56" s="52">
         <v>105000</v>
       </c>
-      <c r="E56" s="85">
+      <c r="E56" s="70">
         <v>62000</v>
       </c>
-      <c r="F56" s="63"/>
-      <c r="G56" s="65" t="s">
+      <c r="F56" s="52"/>
+      <c r="G56" s="44" t="s">
         <v>45</v>
       </c>
       <c r="H56" s="10"/>
     </row>
-    <row r="57" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A57" s="60">
+    <row r="57" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+      <c r="A57" s="34">
         <v>8</v>
       </c>
-      <c r="B57" s="57" t="s">
+      <c r="B57" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="C57" s="57" t="s">
+      <c r="C57" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="D57" s="61">
+      <c r="D57" s="52">
         <v>103000</v>
       </c>
-      <c r="E57" s="85">
+      <c r="E57" s="70">
         <v>62000</v>
       </c>
-      <c r="F57" s="63"/>
-      <c r="G57" s="65" t="s">
+      <c r="F57" s="52"/>
+      <c r="G57" s="44" t="s">
         <v>45</v>
       </c>
       <c r="H57" s="10"/>
     </row>
-    <row r="58" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A58" s="60">
+    <row r="58" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+      <c r="A58" s="34">
         <v>9</v>
       </c>
-      <c r="B58" s="57" t="s">
+      <c r="B58" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C58" s="57" t="s">
+      <c r="C58" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="D58" s="61">
+      <c r="D58" s="52">
         <v>103000</v>
       </c>
-      <c r="E58" s="85">
+      <c r="E58" s="70">
         <v>62000</v>
       </c>
-      <c r="F58" s="63"/>
-      <c r="G58" s="65" t="s">
+      <c r="F58" s="52"/>
+      <c r="G58" s="44" t="s">
         <v>45</v>
       </c>
       <c r="H58" s="10"/>
     </row>
-    <row r="59" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A59" s="60">
+    <row r="59" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+      <c r="A59" s="34">
         <v>10</v>
       </c>
-      <c r="B59" s="57" t="s">
+      <c r="B59" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="C59" s="57" t="s">
+      <c r="C59" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="D59" s="61">
+      <c r="D59" s="52">
         <v>108000</v>
       </c>
-      <c r="E59" s="62"/>
-      <c r="F59" s="63"/>
-      <c r="G59" s="65" t="s">
+      <c r="E59" s="41"/>
+      <c r="F59" s="52"/>
+      <c r="G59" s="44" t="s">
         <v>45</v>
       </c>
       <c r="H59" s="10"/>
     </row>
-    <row r="60" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A60" s="60">
+    <row r="60" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+      <c r="A60" s="34">
         <v>11</v>
       </c>
-      <c r="B60" s="57" t="s">
+      <c r="B60" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="C60" s="57" t="s">
+      <c r="C60" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="D60" s="61">
+      <c r="D60" s="52">
         <v>100000</v>
       </c>
-      <c r="E60" s="62"/>
-      <c r="F60" s="63"/>
-      <c r="G60" s="65" t="s">
+      <c r="E60" s="41"/>
+      <c r="F60" s="52"/>
+      <c r="G60" s="44" t="s">
         <v>45</v>
       </c>
       <c r="H60" s="10"/>
     </row>
-    <row r="61" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A61" s="60">
+    <row r="61" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+      <c r="A61" s="34">
         <v>12</v>
       </c>
-      <c r="B61" s="62" t="s">
+      <c r="B61" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="C61" s="62" t="s">
+      <c r="C61" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="D61" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="E61" s="62"/>
-      <c r="F61" s="63"/>
-      <c r="G61" s="64"/>
+      <c r="D61" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E61" s="41"/>
+      <c r="F61" s="52"/>
+      <c r="G61" s="53"/>
       <c r="H61" s="10"/>
     </row>
-    <row r="62" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A62" s="60">
+    <row r="62" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+      <c r="A62" s="34">
         <v>13</v>
       </c>
-      <c r="B62" s="62" t="s">
+      <c r="B62" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="C62" s="62" t="s">
+      <c r="C62" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="D62" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="E62" s="62"/>
-      <c r="F62" s="63"/>
-      <c r="G62" s="64"/>
+      <c r="D62" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E62" s="41"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="53"/>
       <c r="H62" s="10"/>
     </row>
-    <row r="63" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A63" s="60">
+    <row r="63" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+      <c r="A63" s="34">
         <v>14</v>
       </c>
-      <c r="B63" s="62" t="s">
+      <c r="B63" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="C63" s="62" t="s">
+      <c r="C63" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="D63" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="E63" s="62"/>
-      <c r="F63" s="63"/>
-      <c r="G63" s="64"/>
+      <c r="D63" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E63" s="41"/>
+      <c r="F63" s="52"/>
+      <c r="G63" s="53"/>
       <c r="H63" s="10"/>
     </row>
-    <row r="64" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A64" s="60">
+    <row r="64" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+      <c r="A64" s="34">
         <v>15</v>
       </c>
-      <c r="B64" s="62" t="s">
+      <c r="B64" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="C64" s="62" t="s">
+      <c r="C64" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="D64" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="E64" s="62"/>
-      <c r="F64" s="63"/>
-      <c r="G64" s="64"/>
+      <c r="D64" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E64" s="41"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="53"/>
       <c r="H64" s="10"/>
     </row>
-    <row r="65" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A65" s="60">
+    <row r="65" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+      <c r="A65" s="34">
         <v>16</v>
       </c>
-      <c r="B65" s="62" t="s">
+      <c r="B65" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="C65" s="62" t="s">
+      <c r="C65" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="D65" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="E65" s="62"/>
-      <c r="F65" s="63"/>
-      <c r="G65" s="64"/>
+      <c r="D65" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E65" s="41"/>
+      <c r="F65" s="52"/>
+      <c r="G65" s="53"/>
       <c r="H65" s="10"/>
     </row>
-    <row r="66" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A66" s="60">
+    <row r="66" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+      <c r="A66" s="34">
         <v>17</v>
       </c>
-      <c r="B66" s="62" t="s">
+      <c r="B66" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="C66" s="62" t="s">
+      <c r="C66" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="D66" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="E66" s="62"/>
-      <c r="F66" s="63"/>
-      <c r="G66" s="64"/>
+      <c r="D66" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E66" s="41"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="53"/>
       <c r="H66" s="10"/>
     </row>
-    <row r="67" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A67" s="60">
+    <row r="67" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+      <c r="A67" s="34">
         <v>18</v>
       </c>
-      <c r="B67" s="62" t="s">
+      <c r="B67" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="C67" s="62" t="s">
+      <c r="C67" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="D67" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="E67" s="62"/>
-      <c r="F67" s="63"/>
-      <c r="G67" s="64"/>
+      <c r="D67" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E67" s="41"/>
+      <c r="F67" s="52"/>
+      <c r="G67" s="53"/>
       <c r="H67" s="10"/>
     </row>
-    <row r="68" spans="1:8" s="3" customFormat="1" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="182" t="s">
+    <row r="68" spans="1:8" s="3" customFormat="1" ht="81.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="127" t="s">
         <v>208</v>
       </c>
-      <c r="B68" s="183"/>
-      <c r="C68" s="183"/>
-      <c r="D68" s="183"/>
-      <c r="E68" s="183"/>
-      <c r="F68" s="183"/>
-      <c r="G68" s="184"/>
+      <c r="B68" s="128"/>
+      <c r="C68" s="128"/>
+      <c r="D68" s="128"/>
+      <c r="E68" s="128"/>
+      <c r="F68" s="128"/>
+      <c r="G68" s="129"/>
       <c r="H68" s="10"/>
     </row>
-    <row r="69" spans="1:8" s="3" customFormat="1" ht="36" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="139" t="s">
+    <row r="69" spans="1:8" s="3" customFormat="1" ht="35.65" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="124" t="s">
         <v>77</v>
       </c>
-      <c r="B69" s="140"/>
-      <c r="C69" s="140"/>
-      <c r="D69" s="140"/>
-      <c r="E69" s="140"/>
-      <c r="F69" s="140"/>
-      <c r="G69" s="141"/>
+      <c r="B69" s="125"/>
+      <c r="C69" s="125"/>
+      <c r="D69" s="125"/>
+      <c r="E69" s="125"/>
+      <c r="F69" s="125"/>
+      <c r="G69" s="126"/>
       <c r="H69" s="10"/>
     </row>
-    <row r="70" spans="1:8" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A70" s="164" t="s">
+    <row r="70" spans="1:8" s="3" customFormat="1" ht="24.95" x14ac:dyDescent="0.35">
+      <c r="A70" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="B70" s="103" t="s">
+      <c r="B70" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="C70" s="105" t="s">
+      <c r="C70" s="115" t="s">
         <v>48</v>
       </c>
-      <c r="D70" s="107" t="s">
+      <c r="D70" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="E70" s="107"/>
-      <c r="F70" s="107"/>
-      <c r="G70" s="108"/>
+      <c r="E70" s="118"/>
+      <c r="F70" s="118"/>
+      <c r="G70" s="119"/>
       <c r="H70" s="10"/>
     </row>
-    <row r="71" spans="1:8" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A71" s="165"/>
-      <c r="B71" s="102"/>
-      <c r="C71" s="106"/>
-      <c r="D71" s="168" t="s">
+    <row r="71" spans="1:8" s="3" customFormat="1" ht="24.95" x14ac:dyDescent="0.35">
+      <c r="A71" s="110"/>
+      <c r="B71" s="113"/>
+      <c r="C71" s="116"/>
+      <c r="D71" s="120" t="s">
         <v>100</v>
       </c>
-      <c r="E71" s="168"/>
-      <c r="F71" s="170" t="s">
+      <c r="E71" s="120"/>
+      <c r="F71" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="G71" s="171"/>
+      <c r="G71" s="123"/>
       <c r="H71" s="10"/>
     </row>
-    <row r="72" spans="1:8" s="3" customFormat="1" ht="117" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="166"/>
-      <c r="B72" s="104"/>
-      <c r="C72" s="167"/>
-      <c r="D72" s="169"/>
-      <c r="E72" s="169"/>
-      <c r="F72" s="25" t="s">
+    <row r="72" spans="1:8" s="3" customFormat="1" ht="117.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="111"/>
+      <c r="B72" s="114"/>
+      <c r="C72" s="117"/>
+      <c r="D72" s="121"/>
+      <c r="E72" s="121"/>
+      <c r="F72" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="G72" s="81" t="s">
+      <c r="G72" s="50" t="s">
         <v>243</v>
       </c>
       <c r="H72" s="10"/>
     </row>
-    <row r="73" spans="1:8" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:8" s="3" customFormat="1" ht="27.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="12">
         <v>1</v>
       </c>
-      <c r="B73" s="41" t="s">
+      <c r="B73" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="C73" s="43" t="s">
+      <c r="C73" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D73" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="E73" s="65"/>
-      <c r="F73" s="65">
+      <c r="D73" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E73" s="44"/>
+      <c r="F73" s="44">
         <v>51000</v>
       </c>
-      <c r="G73" s="65">
+      <c r="G73" s="44">
         <v>35000</v>
       </c>
       <c r="H73" s="10"/>
     </row>
-    <row r="74" spans="1:8" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:8" s="3" customFormat="1" ht="24.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="12">
         <v>2</v>
       </c>
-      <c r="B74" s="41" t="s">
+      <c r="B74" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="C74" s="43" t="s">
+      <c r="C74" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="D74" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="E74" s="65"/>
-      <c r="F74" s="65">
+      <c r="D74" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E74" s="44"/>
+      <c r="F74" s="44">
         <v>51000</v>
       </c>
-      <c r="G74" s="65">
+      <c r="G74" s="44">
         <v>35000</v>
       </c>
       <c r="H74" s="5"/>
     </row>
-    <row r="75" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
       <c r="A75" s="12">
         <v>3</v>
       </c>
-      <c r="B75" s="41" t="s">
+      <c r="B75" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="C75" s="44" t="s">
+      <c r="C75" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="D75" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="E75" s="65"/>
-      <c r="F75" s="65">
+      <c r="D75" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E75" s="44"/>
+      <c r="F75" s="44">
         <v>51000</v>
       </c>
-      <c r="G75" s="65">
+      <c r="G75" s="44">
         <v>35000</v>
       </c>
-      <c r="H75" s="20"/>
-    </row>
-    <row r="76" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="H75" s="18"/>
+    </row>
+    <row r="76" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
       <c r="A76" s="12">
         <v>4</v>
       </c>
-      <c r="B76" s="41" t="s">
+      <c r="B76" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="C76" s="44" t="s">
+      <c r="C76" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="D76" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="E76" s="65"/>
-      <c r="F76" s="65">
+      <c r="D76" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E76" s="44"/>
+      <c r="F76" s="44">
         <v>51000</v>
       </c>
-      <c r="G76" s="65">
+      <c r="G76" s="44">
         <v>35000</v>
       </c>
-      <c r="H76" s="20"/>
-    </row>
-    <row r="77" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="H76" s="18"/>
+    </row>
+    <row r="77" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
       <c r="A77" s="12">
         <v>5</v>
       </c>
-      <c r="B77" s="41" t="s">
+      <c r="B77" s="38" t="s">
         <v>223</v>
       </c>
-      <c r="C77" s="44" t="s">
+      <c r="C77" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D77" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="E77" s="65"/>
-      <c r="F77" s="65">
+      <c r="D77" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E77" s="44"/>
+      <c r="F77" s="44">
         <v>53500</v>
       </c>
-      <c r="G77" s="65">
+      <c r="G77" s="44">
         <v>37000</v>
       </c>
-      <c r="H77" s="20"/>
-    </row>
-    <row r="78" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="H77" s="18"/>
+    </row>
+    <row r="78" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
       <c r="A78" s="12">
         <v>6</v>
       </c>
-      <c r="B78" s="41" t="s">
+      <c r="B78" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="C78" s="44" t="s">
+      <c r="C78" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="D78" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="E78" s="65"/>
-      <c r="F78" s="65">
+      <c r="D78" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E78" s="44"/>
+      <c r="F78" s="44">
         <v>53500</v>
       </c>
-      <c r="G78" s="65">
+      <c r="G78" s="44">
         <v>37000</v>
       </c>
-      <c r="H78" s="21"/>
-    </row>
-    <row r="79" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="H78" s="19"/>
+    </row>
+    <row r="79" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
       <c r="A79" s="12">
         <v>7</v>
       </c>
-      <c r="B79" s="41" t="s">
+      <c r="B79" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="C79" s="44" t="s">
+      <c r="C79" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="D79" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="E79" s="65"/>
-      <c r="F79" s="65">
+      <c r="D79" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E79" s="44"/>
+      <c r="F79" s="44">
         <v>53500</v>
       </c>
-      <c r="G79" s="65">
+      <c r="G79" s="44">
         <v>37000</v>
       </c>
-      <c r="H79" s="21"/>
-    </row>
-    <row r="80" spans="1:8" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H79" s="19"/>
+    </row>
+    <row r="80" spans="1:8" s="3" customFormat="1" ht="21.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="12">
         <v>8</v>
       </c>
-      <c r="B80" s="41" t="s">
+      <c r="B80" s="38" t="s">
         <v>226</v>
       </c>
-      <c r="C80" s="44" t="s">
+      <c r="C80" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="D80" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="E80" s="65"/>
-      <c r="F80" s="65">
+      <c r="D80" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E80" s="44"/>
+      <c r="F80" s="44">
         <v>53500</v>
       </c>
-      <c r="G80" s="65">
+      <c r="G80" s="44">
         <v>37000</v>
       </c>
-      <c r="H80" s="22"/>
-    </row>
-    <row r="81" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="H80" s="20"/>
+    </row>
+    <row r="81" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
       <c r="A81" s="12">
         <v>9</v>
       </c>
-      <c r="B81" s="41" t="s">
+      <c r="B81" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="C81" s="43" t="s">
+      <c r="C81" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D81" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="E81" s="65"/>
-      <c r="F81" s="65">
+      <c r="D81" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E81" s="44"/>
+      <c r="F81" s="44">
         <v>58500</v>
       </c>
-      <c r="G81" s="65">
+      <c r="G81" s="44">
         <v>40000</v>
       </c>
     </row>
-    <row r="82" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
       <c r="A82" s="12">
         <v>10</v>
       </c>
-      <c r="B82" s="41" t="s">
+      <c r="B82" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="C82" s="43" t="s">
+      <c r="C82" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="D82" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="E82" s="65"/>
-      <c r="F82" s="65">
+      <c r="D82" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E82" s="44"/>
+      <c r="F82" s="44">
         <v>58500</v>
       </c>
-      <c r="G82" s="65">
+      <c r="G82" s="44">
         <v>40000</v>
       </c>
     </row>
-    <row r="83" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
       <c r="A83" s="12">
         <v>11</v>
       </c>
-      <c r="B83" s="41" t="s">
+      <c r="B83" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="C83" s="44" t="s">
+      <c r="C83" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="D83" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="E83" s="65"/>
-      <c r="F83" s="65">
+      <c r="D83" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E83" s="44"/>
+      <c r="F83" s="44">
         <v>58500</v>
       </c>
-      <c r="G83" s="65">
+      <c r="G83" s="44">
         <v>40000</v>
       </c>
     </row>
-    <row r="84" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
       <c r="A84" s="12">
         <v>12</v>
       </c>
-      <c r="B84" s="41" t="s">
+      <c r="B84" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="C84" s="44" t="s">
+      <c r="C84" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="D84" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="E84" s="65"/>
-      <c r="F84" s="65">
+      <c r="D84" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E84" s="44"/>
+      <c r="F84" s="44">
         <v>58500</v>
       </c>
-      <c r="G84" s="65">
+      <c r="G84" s="44">
         <v>40000</v>
       </c>
     </row>
-    <row r="85" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
       <c r="A85" s="12">
         <v>13</v>
       </c>
-      <c r="B85" s="41" t="s">
+      <c r="B85" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="C85" s="44" t="s">
+      <c r="C85" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="D85" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="E85" s="65"/>
-      <c r="F85" s="65">
+      <c r="D85" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E85" s="44"/>
+      <c r="F85" s="44">
         <v>70000</v>
       </c>
-      <c r="G85" s="65">
+      <c r="G85" s="44">
         <v>55000</v>
       </c>
     </row>
-    <row r="86" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
       <c r="A86" s="12">
         <v>14</v>
       </c>
-      <c r="B86" s="41" t="s">
+      <c r="B86" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="C86" s="44" t="s">
+      <c r="C86" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="D86" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="E86" s="65"/>
-      <c r="F86" s="65">
+      <c r="D86" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E86" s="44"/>
+      <c r="F86" s="44">
         <v>70000</v>
       </c>
-      <c r="G86" s="65">
+      <c r="G86" s="44">
         <v>55000</v>
       </c>
     </row>
-    <row r="87" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
       <c r="A87" s="12">
         <v>15</v>
       </c>
-      <c r="B87" s="41" t="s">
+      <c r="B87" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="C87" s="43" t="s">
+      <c r="C87" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D87" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="E87" s="65"/>
-      <c r="F87" s="65">
+      <c r="D87" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E87" s="44"/>
+      <c r="F87" s="44">
         <v>57000</v>
       </c>
-      <c r="G87" s="65">
+      <c r="G87" s="44">
         <v>41000</v>
       </c>
-      <c r="H87" s="23"/>
-    </row>
-    <row r="88" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="H87" s="21"/>
+    </row>
+    <row r="88" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
       <c r="A88" s="12">
         <v>16</v>
       </c>
-      <c r="B88" s="41" t="s">
+      <c r="B88" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="C88" s="43" t="s">
+      <c r="C88" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="D88" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="E88" s="65"/>
-      <c r="F88" s="65">
+      <c r="D88" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E88" s="44"/>
+      <c r="F88" s="44">
         <v>57000</v>
       </c>
-      <c r="G88" s="65">
+      <c r="G88" s="44">
         <v>41000</v>
       </c>
-      <c r="H88" s="24"/>
-    </row>
-    <row r="89" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="H88" s="22"/>
+    </row>
+    <row r="89" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
       <c r="A89" s="12">
         <v>17</v>
       </c>
-      <c r="B89" s="41" t="s">
+      <c r="B89" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="C89" s="43" t="s">
+      <c r="C89" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="D89" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="E89" s="65"/>
-      <c r="F89" s="65">
+      <c r="D89" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E89" s="44"/>
+      <c r="F89" s="44">
         <v>57000</v>
       </c>
-      <c r="G89" s="65">
+      <c r="G89" s="44">
         <v>41000</v>
       </c>
     </row>
-    <row r="90" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
       <c r="A90" s="12">
         <v>18</v>
       </c>
-      <c r="B90" s="41" t="s">
+      <c r="B90" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="C90" s="44" t="s">
+      <c r="C90" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="D90" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="E90" s="65"/>
-      <c r="F90" s="65">
+      <c r="D90" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E90" s="44"/>
+      <c r="F90" s="44">
         <v>57000</v>
       </c>
-      <c r="G90" s="65">
+      <c r="G90" s="44">
         <v>41000</v>
       </c>
     </row>
-    <row r="91" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
       <c r="A91" s="12">
         <v>19</v>
       </c>
-      <c r="B91" s="31" t="s">
+      <c r="B91" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="C91" s="44" t="s">
+      <c r="C91" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D91" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="E91" s="65"/>
-      <c r="F91" s="65">
+      <c r="D91" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E91" s="44"/>
+      <c r="F91" s="44">
         <v>58000</v>
       </c>
-      <c r="G91" s="65">
+      <c r="G91" s="44">
         <v>42000</v>
       </c>
     </row>
-    <row r="92" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
       <c r="A92" s="12">
         <v>20</v>
       </c>
-      <c r="B92" s="31" t="s">
+      <c r="B92" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="C92" s="44" t="s">
+      <c r="C92" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="D92" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="E92" s="65"/>
-      <c r="F92" s="65">
+      <c r="D92" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E92" s="44"/>
+      <c r="F92" s="44">
         <v>58000</v>
       </c>
-      <c r="G92" s="65">
+      <c r="G92" s="44">
         <v>42000</v>
       </c>
     </row>
-    <row r="93" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
       <c r="A93" s="12">
         <v>21</v>
       </c>
-      <c r="B93" s="31" t="s">
+      <c r="B93" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="C93" s="44" t="s">
+      <c r="C93" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="D93" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="E93" s="65"/>
-      <c r="F93" s="65">
+      <c r="D93" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E93" s="44"/>
+      <c r="F93" s="44">
         <v>58000</v>
       </c>
-      <c r="G93" s="65">
+      <c r="G93" s="44">
         <v>42000</v>
       </c>
     </row>
-    <row r="94" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
       <c r="A94" s="12">
         <v>22</v>
       </c>
-      <c r="B94" s="31" t="s">
+      <c r="B94" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="C94" s="44" t="s">
+      <c r="C94" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="D94" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="E94" s="65"/>
-      <c r="F94" s="65">
+      <c r="D94" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E94" s="44"/>
+      <c r="F94" s="44">
         <v>58000</v>
       </c>
-      <c r="G94" s="65">
+      <c r="G94" s="44">
         <v>42000</v>
       </c>
     </row>
-    <row r="95" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
       <c r="A95" s="12">
         <v>23</v>
       </c>
-      <c r="B95" s="41" t="s">
+      <c r="B95" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="C95" s="43" t="s">
+      <c r="C95" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D95" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="E95" s="65"/>
-      <c r="F95" s="65">
+      <c r="D95" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E95" s="44"/>
+      <c r="F95" s="44">
         <v>63000</v>
       </c>
-      <c r="G95" s="65">
+      <c r="G95" s="44">
         <v>45000</v>
       </c>
     </row>
-    <row r="96" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
       <c r="A96" s="12">
         <v>24</v>
       </c>
-      <c r="B96" s="41" t="s">
+      <c r="B96" s="38" t="s">
         <v>229</v>
       </c>
-      <c r="C96" s="43" t="s">
+      <c r="C96" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="D96" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="E96" s="65"/>
-      <c r="F96" s="65">
+      <c r="D96" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E96" s="44"/>
+      <c r="F96" s="44">
         <v>63000</v>
       </c>
-      <c r="G96" s="65">
+      <c r="G96" s="44">
         <v>45000</v>
       </c>
     </row>
-    <row r="97" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
       <c r="A97" s="12">
         <v>25</v>
       </c>
-      <c r="B97" s="41" t="s">
+      <c r="B97" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="C97" s="44" t="s">
+      <c r="C97" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="D97" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="E97" s="65"/>
-      <c r="F97" s="65">
+      <c r="D97" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E97" s="44"/>
+      <c r="F97" s="44">
         <v>63000</v>
       </c>
-      <c r="G97" s="65">
+      <c r="G97" s="44">
         <v>45000</v>
       </c>
     </row>
-    <row r="98" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
       <c r="A98" s="12">
         <v>26</v>
       </c>
-      <c r="B98" s="41" t="s">
+      <c r="B98" s="38" t="s">
         <v>231</v>
       </c>
-      <c r="C98" s="44" t="s">
+      <c r="C98" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="D98" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="E98" s="65"/>
-      <c r="F98" s="65">
+      <c r="D98" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E98" s="44"/>
+      <c r="F98" s="44">
         <v>63000</v>
       </c>
-      <c r="G98" s="65">
+      <c r="G98" s="44">
         <v>45000</v>
       </c>
     </row>
-    <row r="99" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
       <c r="A99" s="12">
         <v>27</v>
       </c>
-      <c r="B99" s="41" t="s">
+      <c r="B99" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="C99" s="44" t="s">
+      <c r="C99" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="D99" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="E99" s="65"/>
-      <c r="F99" s="65">
+      <c r="D99" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E99" s="44"/>
+      <c r="F99" s="44">
         <v>145000</v>
       </c>
-      <c r="G99" s="65">
+      <c r="G99" s="44">
         <v>110000</v>
       </c>
     </row>
-    <row r="100" spans="1:8" s="3" customFormat="1" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:8" s="3" customFormat="1" ht="28.55" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A100" s="12">
         <v>28</v>
       </c>
-      <c r="B100" s="66" t="s">
+      <c r="B100" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="C100" s="46" t="s">
+      <c r="C100" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="D100" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="E100" s="65"/>
-      <c r="F100" s="65">
+      <c r="D100" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E100" s="44"/>
+      <c r="F100" s="44">
         <v>145000</v>
       </c>
-      <c r="G100" s="65">
+      <c r="G100" s="44">
         <v>110000</v>
       </c>
     </row>
-    <row r="101" spans="1:8" s="3" customFormat="1" ht="105.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A101" s="185" t="s">
+    <row r="101" spans="1:8" s="3" customFormat="1" ht="105.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A101" s="99" t="s">
         <v>193</v>
       </c>
-      <c r="B101" s="186"/>
-      <c r="C101" s="186"/>
-      <c r="D101" s="186"/>
-      <c r="E101" s="186"/>
-      <c r="F101" s="186"/>
-      <c r="G101" s="187"/>
-    </row>
-    <row r="102" spans="1:8" s="3" customFormat="1" ht="35.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A102" s="149" t="s">
+      <c r="B101" s="100"/>
+      <c r="C101" s="100"/>
+      <c r="D101" s="100"/>
+      <c r="E101" s="100"/>
+      <c r="F101" s="100"/>
+      <c r="G101" s="101"/>
+    </row>
+    <row r="102" spans="1:8" s="3" customFormat="1" ht="35.65" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102" s="130" t="s">
         <v>101</v>
       </c>
-      <c r="B102" s="150"/>
-      <c r="C102" s="150"/>
-      <c r="D102" s="150"/>
-      <c r="E102" s="150"/>
-      <c r="F102" s="150"/>
-      <c r="G102" s="151"/>
-    </row>
-    <row r="103" spans="1:8" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="172" t="s">
+      <c r="B102" s="131"/>
+      <c r="C102" s="131"/>
+      <c r="D102" s="131"/>
+      <c r="E102" s="131"/>
+      <c r="F102" s="131"/>
+      <c r="G102" s="132"/>
+    </row>
+    <row r="103" spans="1:8" s="3" customFormat="1" ht="22.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="B103" s="175" t="s">
+      <c r="B103" s="136" t="s">
         <v>47</v>
       </c>
-      <c r="C103" s="129" t="s">
+      <c r="C103" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="D103" s="177" t="s">
+      <c r="D103" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="E103" s="178"/>
-      <c r="F103" s="178"/>
-      <c r="G103" s="179"/>
+      <c r="E103" s="140"/>
+      <c r="F103" s="140"/>
+      <c r="G103" s="141"/>
       <c r="H103" s="10"/>
     </row>
-    <row r="104" spans="1:8" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="173"/>
-      <c r="B104" s="176"/>
-      <c r="C104" s="130"/>
-      <c r="D104" s="128" t="s">
+    <row r="104" spans="1:8" s="3" customFormat="1" ht="22.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="134"/>
+      <c r="B104" s="137"/>
+      <c r="C104" s="85"/>
+      <c r="D104" s="93" t="s">
         <v>100</v>
       </c>
-      <c r="E104" s="155"/>
-      <c r="F104" s="157" t="s">
+      <c r="E104" s="91"/>
+      <c r="F104" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="G104" s="158"/>
+      <c r="G104" s="90"/>
       <c r="H104" s="10"/>
     </row>
-    <row r="105" spans="1:8" s="3" customFormat="1" ht="113.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A105" s="174"/>
-      <c r="B105" s="154"/>
-      <c r="C105" s="153"/>
-      <c r="D105" s="154"/>
-      <c r="E105" s="156"/>
-      <c r="F105" s="25" t="s">
+    <row r="105" spans="1:8" s="3" customFormat="1" ht="89.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A105" s="135"/>
+      <c r="B105" s="138"/>
+      <c r="C105" s="86"/>
+      <c r="D105" s="138"/>
+      <c r="E105" s="142"/>
+      <c r="F105" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="G105" s="81" t="s">
+      <c r="G105" s="50" t="s">
         <v>243</v>
       </c>
       <c r="H105" s="10"/>
     </row>
-    <row r="106" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
       <c r="A106" s="12">
         <v>1</v>
       </c>
-      <c r="B106" s="43" t="s">
+      <c r="B106" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="C106" s="43" t="s">
+      <c r="C106" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="D106" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="E106" s="65"/>
-      <c r="F106" s="65">
+      <c r="D106" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E106" s="44"/>
+      <c r="F106" s="44">
         <v>180000</v>
       </c>
-      <c r="G106" s="49" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="G106" s="44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
       <c r="A107" s="12">
         <v>2</v>
       </c>
-      <c r="B107" s="43" t="s">
+      <c r="B107" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="C107" s="43" t="s">
+      <c r="C107" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="D107" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="E107" s="65"/>
-      <c r="F107" s="65">
+      <c r="D107" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E107" s="44"/>
+      <c r="F107" s="44">
         <v>130000</v>
       </c>
-      <c r="G107" s="49" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="G107" s="44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
       <c r="A108" s="12">
         <v>3</v>
       </c>
-      <c r="B108" s="43" t="s">
+      <c r="B108" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="C108" s="43" t="s">
+      <c r="C108" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="D108" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="E108" s="65"/>
-      <c r="F108" s="65">
+      <c r="D108" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E108" s="44"/>
+      <c r="F108" s="44">
         <v>165000</v>
       </c>
-      <c r="G108" s="49" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="G108" s="44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
       <c r="A109" s="12">
         <v>4</v>
       </c>
-      <c r="B109" s="43" t="s">
+      <c r="B109" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="C109" s="43" t="s">
+      <c r="C109" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="D109" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="E109" s="65"/>
-      <c r="F109" s="65">
+      <c r="D109" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E109" s="44"/>
+      <c r="F109" s="44">
         <v>130000</v>
       </c>
-      <c r="G109" s="49" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="G109" s="44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
       <c r="A110" s="12">
         <v>5</v>
       </c>
-      <c r="B110" s="43" t="s">
+      <c r="B110" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="C110" s="43" t="s">
+      <c r="C110" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="D110" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="E110" s="65"/>
-      <c r="F110" s="65">
+      <c r="D110" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E110" s="44"/>
+      <c r="F110" s="44">
         <v>150000</v>
       </c>
-      <c r="G110" s="49" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="G110" s="44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
       <c r="A111" s="12">
         <v>6</v>
       </c>
-      <c r="B111" s="43" t="s">
+      <c r="B111" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="C111" s="43" t="s">
+      <c r="C111" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="D111" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="E111" s="65"/>
-      <c r="F111" s="65">
+      <c r="D111" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E111" s="44"/>
+      <c r="F111" s="44">
         <v>182000</v>
       </c>
-      <c r="G111" s="49" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="G111" s="44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
       <c r="A112" s="12">
         <v>7</v>
       </c>
-      <c r="B112" s="43" t="s">
+      <c r="B112" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="C112" s="43" t="s">
+      <c r="C112" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="D112" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="E112" s="65"/>
-      <c r="F112" s="65">
+      <c r="D112" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E112" s="44"/>
+      <c r="F112" s="44">
         <v>185000</v>
       </c>
-      <c r="G112" s="49" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="G112" s="44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
       <c r="A113" s="12">
         <v>8</v>
       </c>
-      <c r="B113" s="43" t="s">
+      <c r="B113" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="C113" s="43" t="s">
+      <c r="C113" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="D113" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="E113" s="65"/>
-      <c r="F113" s="65">
+      <c r="D113" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E113" s="44"/>
+      <c r="F113" s="44">
         <v>374000</v>
       </c>
-      <c r="G113" s="49" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="G113" s="44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
       <c r="A114" s="12">
         <v>9</v>
       </c>
-      <c r="B114" s="43" t="s">
+      <c r="B114" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="C114" s="43" t="s">
+      <c r="C114" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="D114" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="E114" s="65"/>
-      <c r="F114" s="65">
+      <c r="D114" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E114" s="44"/>
+      <c r="F114" s="44">
         <v>420000</v>
       </c>
-      <c r="G114" s="49" t="s">
+      <c r="G114" s="44" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="115" spans="1:8" s="3" customFormat="1" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A115" s="147" t="s">
+      <c r="A115" s="143" t="s">
         <v>113</v>
       </c>
-      <c r="B115" s="148"/>
-      <c r="C115" s="148"/>
-      <c r="D115" s="148"/>
-      <c r="E115" s="148"/>
-      <c r="F115" s="148"/>
-      <c r="G115" s="148"/>
-    </row>
-    <row r="116" spans="1:8" s="3" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A116" s="72"/>
-      <c r="B116" s="159" t="s">
+      <c r="B115" s="144"/>
+      <c r="C115" s="144"/>
+      <c r="D115" s="144"/>
+      <c r="E115" s="144"/>
+      <c r="F115" s="144"/>
+      <c r="G115" s="144"/>
+    </row>
+    <row r="116" spans="1:8" s="3" customFormat="1" ht="31.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A116" s="59"/>
+      <c r="B116" s="146" t="s">
         <v>112</v>
       </c>
-      <c r="C116" s="160"/>
-      <c r="D116" s="161"/>
-      <c r="E116" s="161"/>
-      <c r="F116" s="162">
+      <c r="C116" s="147"/>
+      <c r="D116" s="148"/>
+      <c r="E116" s="148"/>
+      <c r="F116" s="149">
         <v>1200</v>
       </c>
-      <c r="G116" s="163"/>
-      <c r="H116" s="20"/>
-    </row>
-    <row r="117" spans="1:8" s="3" customFormat="1" ht="35.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A117" s="149" t="s">
+      <c r="G116" s="150"/>
+      <c r="H116" s="18"/>
+    </row>
+    <row r="117" spans="1:8" s="3" customFormat="1" ht="35.65" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A117" s="130" t="s">
         <v>176</v>
       </c>
-      <c r="B117" s="150"/>
-      <c r="C117" s="150"/>
-      <c r="D117" s="150"/>
-      <c r="E117" s="150"/>
-      <c r="F117" s="150"/>
-      <c r="G117" s="151"/>
-    </row>
-    <row r="118" spans="1:8" s="3" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
-      <c r="A118" s="110" t="s">
+      <c r="B117" s="131"/>
+      <c r="C117" s="131"/>
+      <c r="D117" s="131"/>
+      <c r="E117" s="131"/>
+      <c r="F117" s="131"/>
+      <c r="G117" s="132"/>
+    </row>
+    <row r="118" spans="1:8" s="3" customFormat="1" ht="22.1" x14ac:dyDescent="0.35">
+      <c r="A118" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B118" s="126" t="s">
+      <c r="B118" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="C118" s="129" t="s">
+      <c r="C118" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="D118" s="131" t="s">
+      <c r="D118" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="E118" s="131"/>
-      <c r="F118" s="131"/>
-      <c r="G118" s="132"/>
+      <c r="E118" s="87"/>
+      <c r="F118" s="87"/>
+      <c r="G118" s="88"/>
       <c r="H118" s="10"/>
     </row>
-    <row r="119" spans="1:8" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="111"/>
-      <c r="B119" s="127"/>
-      <c r="C119" s="130"/>
-      <c r="D119" s="128" t="s">
+    <row r="119" spans="1:8" s="3" customFormat="1" ht="22.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="79"/>
+      <c r="B119" s="82"/>
+      <c r="C119" s="85"/>
+      <c r="D119" s="93" t="s">
         <v>100</v>
       </c>
-      <c r="E119" s="155" t="s">
+      <c r="E119" s="91" t="s">
         <v>201</v>
       </c>
-      <c r="F119" s="157"/>
-      <c r="G119" s="158"/>
+      <c r="F119" s="89"/>
+      <c r="G119" s="90"/>
       <c r="H119" s="10"/>
     </row>
     <row r="120" spans="1:8" s="3" customFormat="1" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A120" s="112"/>
-      <c r="B120" s="152"/>
-      <c r="C120" s="153"/>
-      <c r="D120" s="154"/>
-      <c r="E120" s="156"/>
-      <c r="F120" s="32" t="s">
+      <c r="A120" s="145"/>
+      <c r="B120" s="83"/>
+      <c r="C120" s="86"/>
+      <c r="D120" s="138"/>
+      <c r="E120" s="142"/>
+      <c r="F120" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="G120" s="18"/>
+      <c r="G120" s="13"/>
       <c r="H120" s="10"/>
     </row>
-    <row r="121" spans="1:8" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A121" s="33">
+    <row r="121" spans="1:8" s="3" customFormat="1" ht="23.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A121" s="30">
         <v>1</v>
       </c>
-      <c r="B121" s="42" t="s">
+      <c r="B121" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="C121" s="44" t="s">
+      <c r="C121" s="40" t="s">
         <v>197</v>
       </c>
       <c r="D121" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="E121" s="65">
+      <c r="E121" s="44">
         <v>75000</v>
       </c>
-      <c r="F121" s="67">
+      <c r="F121" s="55">
         <v>56000</v>
       </c>
-      <c r="G121" s="18"/>
-    </row>
-    <row r="122" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A122" s="33">
+      <c r="G121" s="13"/>
+    </row>
+    <row r="122" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+      <c r="A122" s="30">
         <v>2</v>
       </c>
-      <c r="B122" s="42" t="s">
+      <c r="B122" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="C122" s="44" t="s">
+      <c r="C122" s="40" t="s">
         <v>198</v>
       </c>
       <c r="D122" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="E122" s="65">
+      <c r="E122" s="44">
         <v>78000</v>
       </c>
-      <c r="F122" s="67">
+      <c r="F122" s="55">
         <v>60000</v>
       </c>
-      <c r="G122" s="18"/>
-    </row>
-    <row r="123" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A123" s="33">
+      <c r="G122" s="13"/>
+    </row>
+    <row r="123" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+      <c r="A123" s="30">
         <v>3</v>
       </c>
-      <c r="B123" s="42" t="s">
+      <c r="B123" s="39" t="s">
         <v>196</v>
       </c>
-      <c r="C123" s="44" t="s">
+      <c r="C123" s="40" t="s">
         <v>199</v>
       </c>
       <c r="D123" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="E123" s="65">
+      <c r="E123" s="44">
         <v>148000</v>
       </c>
-      <c r="F123" s="67">
+      <c r="F123" s="55">
         <v>109000</v>
       </c>
-      <c r="G123" s="18"/>
-    </row>
-    <row r="124" spans="1:8" s="3" customFormat="1" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A124" s="33">
+      <c r="G123" s="13"/>
+    </row>
+    <row r="124" spans="1:8" s="3" customFormat="1" ht="28.55" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A124" s="30">
         <v>4</v>
       </c>
-      <c r="B124" s="42" t="s">
+      <c r="B124" s="39" t="s">
         <v>209</v>
       </c>
-      <c r="C124" s="44" t="s">
+      <c r="C124" s="40" t="s">
         <v>199</v>
       </c>
       <c r="D124" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="E124" s="65">
+      <c r="E124" s="44">
         <v>160000</v>
       </c>
-      <c r="F124" s="67">
+      <c r="F124" s="55">
         <v>116000</v>
       </c>
-      <c r="G124" s="18"/>
-    </row>
-    <row r="125" spans="1:8" s="3" customFormat="1" ht="36" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A125" s="139" t="s">
+      <c r="G124" s="13"/>
+    </row>
+    <row r="125" spans="1:8" s="3" customFormat="1" ht="35.65" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A125" s="124" t="s">
         <v>114</v>
       </c>
-      <c r="B125" s="140"/>
-      <c r="C125" s="140"/>
-      <c r="D125" s="140"/>
-      <c r="E125" s="140"/>
-      <c r="F125" s="140"/>
-      <c r="G125" s="141"/>
-    </row>
-    <row r="126" spans="1:8" s="3" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
-      <c r="A126" s="110" t="s">
+      <c r="B125" s="125"/>
+      <c r="C125" s="125"/>
+      <c r="D125" s="125"/>
+      <c r="E125" s="125"/>
+      <c r="F125" s="125"/>
+      <c r="G125" s="126"/>
+    </row>
+    <row r="126" spans="1:8" s="3" customFormat="1" ht="22.1" x14ac:dyDescent="0.35">
+      <c r="A126" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B126" s="126" t="s">
+      <c r="B126" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="C126" s="129" t="s">
+      <c r="C126" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="D126" s="131" t="s">
+      <c r="D126" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="E126" s="131"/>
-      <c r="F126" s="131"/>
-      <c r="G126" s="132"/>
+      <c r="E126" s="87"/>
+      <c r="F126" s="87"/>
+      <c r="G126" s="88"/>
       <c r="H126" s="10"/>
     </row>
-    <row r="127" spans="1:8" s="3" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A127" s="111"/>
-      <c r="B127" s="127"/>
-      <c r="C127" s="130"/>
-      <c r="D127" s="128" t="s">
+    <row r="127" spans="1:8" s="3" customFormat="1" ht="23.55" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A127" s="79"/>
+      <c r="B127" s="82"/>
+      <c r="C127" s="85"/>
+      <c r="D127" s="93" t="s">
         <v>100</v>
       </c>
-      <c r="E127" s="137" t="s">
+      <c r="E127" s="155" t="s">
         <v>41</v>
       </c>
-      <c r="F127" s="138"/>
-      <c r="G127" s="138"/>
+      <c r="F127" s="156"/>
+      <c r="G127" s="156"/>
       <c r="H127" s="10"/>
     </row>
-    <row r="128" spans="1:8" s="3" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="112"/>
-      <c r="B128" s="128"/>
-      <c r="C128" s="130"/>
-      <c r="D128" s="133"/>
-      <c r="E128" s="134" t="s">
+    <row r="128" spans="1:8" s="3" customFormat="1" ht="92.35" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="145"/>
+      <c r="B128" s="93"/>
+      <c r="C128" s="85"/>
+      <c r="D128" s="151"/>
+      <c r="E128" s="152" t="s">
         <v>121</v>
       </c>
-      <c r="F128" s="135"/>
-      <c r="G128" s="136"/>
+      <c r="F128" s="153"/>
+      <c r="G128" s="154"/>
       <c r="H128" s="10"/>
     </row>
-    <row r="129" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
       <c r="A129" s="13"/>
-      <c r="B129" s="43" t="s">
+      <c r="B129" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="C129" s="44" t="s">
+      <c r="C129" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="D129" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="E129" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="F129" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="G129" s="49" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="D129" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E129" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="F129" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="G129" s="44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
       <c r="A130" s="13"/>
-      <c r="B130" s="43" t="s">
+      <c r="B130" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="C130" s="44" t="s">
+      <c r="C130" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="D130" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="E130" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="F130" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="G130" s="49" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="D130" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E130" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="F130" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="G130" s="44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
       <c r="A131" s="13"/>
-      <c r="B131" s="43" t="s">
+      <c r="B131" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="C131" s="44" t="s">
+      <c r="C131" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="D131" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="E131" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="F131" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="G131" s="49" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" s="29" customFormat="1" ht="121.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="120" t="s">
+      <c r="D131" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E131" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="F131" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="G131" s="44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" s="26" customFormat="1" ht="121.55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="162" t="s">
         <v>216</v>
       </c>
-      <c r="B132" s="121"/>
-      <c r="C132" s="121"/>
-      <c r="D132" s="121"/>
-      <c r="E132" s="121"/>
-      <c r="F132" s="121"/>
-      <c r="G132" s="122"/>
-    </row>
-    <row r="133" spans="1:8" s="3" customFormat="1" ht="105.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A133" s="123" t="s">
+      <c r="B132" s="163"/>
+      <c r="C132" s="163"/>
+      <c r="D132" s="163"/>
+      <c r="E132" s="163"/>
+      <c r="F132" s="163"/>
+      <c r="G132" s="164"/>
+    </row>
+    <row r="133" spans="1:8" s="3" customFormat="1" ht="105.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A133" s="165" t="s">
         <v>217</v>
       </c>
-      <c r="B133" s="124"/>
-      <c r="C133" s="124"/>
-      <c r="D133" s="124"/>
-      <c r="E133" s="124"/>
-      <c r="F133" s="124"/>
-      <c r="G133" s="125"/>
-    </row>
-    <row r="134" spans="1:8" s="3" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="73"/>
-      <c r="B134" s="74"/>
-      <c r="C134" s="74"/>
-      <c r="D134" s="74"/>
-      <c r="E134" s="74"/>
-      <c r="F134" s="74"/>
-      <c r="G134" s="74"/>
-    </row>
-    <row r="135" spans="1:8" s="3" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="115" t="s">
+      <c r="B133" s="166"/>
+      <c r="C133" s="166"/>
+      <c r="D133" s="166"/>
+      <c r="E133" s="166"/>
+      <c r="F133" s="166"/>
+      <c r="G133" s="167"/>
+    </row>
+    <row r="134" spans="1:8" s="3" customFormat="1" ht="105.7" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="60"/>
+      <c r="B134" s="61"/>
+      <c r="C134" s="61"/>
+      <c r="D134" s="61"/>
+      <c r="E134" s="61"/>
+      <c r="F134" s="61"/>
+      <c r="G134" s="61"/>
+    </row>
+    <row r="135" spans="1:8" s="3" customFormat="1" ht="105.7" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="157" t="s">
         <v>218</v>
       </c>
-      <c r="B135" s="116"/>
-      <c r="C135" s="116"/>
-      <c r="D135" s="116"/>
-      <c r="E135" s="116"/>
-      <c r="F135" s="116"/>
-      <c r="G135" s="116"/>
+      <c r="B135" s="158"/>
+      <c r="C135" s="158"/>
+      <c r="D135" s="158"/>
+      <c r="E135" s="158"/>
+      <c r="F135" s="158"/>
+      <c r="G135" s="158"/>
     </row>
     <row r="136" spans="1:8" s="3" customFormat="1" ht="162" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="73"/>
-      <c r="B136" s="74"/>
-      <c r="C136" s="74"/>
-      <c r="D136" s="74"/>
-      <c r="E136" s="74"/>
-      <c r="F136" s="74"/>
-      <c r="G136" s="74"/>
-    </row>
-    <row r="137" spans="1:8" s="3" customFormat="1" ht="105.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A137" s="73"/>
-      <c r="B137" s="74"/>
-      <c r="C137" s="74"/>
-      <c r="D137" s="74"/>
-      <c r="E137" s="74"/>
-      <c r="F137" s="74"/>
-      <c r="G137" s="74"/>
-    </row>
-    <row r="138" spans="1:8" s="3" customFormat="1" ht="35.25" x14ac:dyDescent="0.5">
-      <c r="A138" s="139" t="s">
+      <c r="A136" s="60"/>
+      <c r="B136" s="61"/>
+      <c r="C136" s="61"/>
+      <c r="D136" s="61"/>
+      <c r="E136" s="61"/>
+      <c r="F136" s="61"/>
+      <c r="G136" s="61"/>
+    </row>
+    <row r="137" spans="1:8" s="3" customFormat="1" ht="105.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A137" s="60"/>
+      <c r="B137" s="61"/>
+      <c r="C137" s="61"/>
+      <c r="D137" s="61"/>
+      <c r="E137" s="61"/>
+      <c r="F137" s="61"/>
+      <c r="G137" s="61"/>
+    </row>
+    <row r="138" spans="1:8" s="3" customFormat="1" ht="34.950000000000003" x14ac:dyDescent="0.5">
+      <c r="A138" s="124" t="s">
         <v>125</v>
       </c>
-      <c r="B138" s="140"/>
-      <c r="C138" s="140"/>
-      <c r="D138" s="140"/>
-      <c r="E138" s="140"/>
-      <c r="F138" s="140"/>
-      <c r="G138" s="141"/>
-    </row>
-    <row r="139" spans="1:8" s="3" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A139" s="142" t="s">
+      <c r="B138" s="125"/>
+      <c r="C138" s="125"/>
+      <c r="D138" s="125"/>
+      <c r="E138" s="125"/>
+      <c r="F138" s="125"/>
+      <c r="G138" s="126"/>
+    </row>
+    <row r="139" spans="1:8" s="3" customFormat="1" ht="31.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A139" s="168" t="s">
         <v>124</v>
       </c>
-      <c r="B139" s="143"/>
-      <c r="C139" s="143"/>
-      <c r="D139" s="143"/>
-      <c r="E139" s="143"/>
-      <c r="F139" s="143"/>
-      <c r="G139" s="143"/>
-    </row>
-    <row r="140" spans="1:8" s="3" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
-      <c r="A140" s="110" t="s">
+      <c r="B139" s="169"/>
+      <c r="C139" s="169"/>
+      <c r="D139" s="169"/>
+      <c r="E139" s="169"/>
+      <c r="F139" s="169"/>
+      <c r="G139" s="169"/>
+    </row>
+    <row r="140" spans="1:8" s="3" customFormat="1" ht="22.1" x14ac:dyDescent="0.35">
+      <c r="A140" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B140" s="126" t="s">
+      <c r="B140" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="C140" s="129" t="s">
+      <c r="C140" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="D140" s="131" t="s">
+      <c r="D140" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="E140" s="131"/>
-      <c r="F140" s="131"/>
-      <c r="G140" s="132"/>
+      <c r="E140" s="87"/>
+      <c r="F140" s="87"/>
+      <c r="G140" s="88"/>
       <c r="H140" s="10"/>
     </row>
-    <row r="141" spans="1:8" s="3" customFormat="1" ht="92.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A141" s="112"/>
-      <c r="B141" s="128"/>
-      <c r="C141" s="130"/>
-      <c r="D141" s="27"/>
-      <c r="E141" s="26"/>
-      <c r="F141" s="26"/>
-      <c r="G141" s="26"/>
+    <row r="141" spans="1:8" s="3" customFormat="1" ht="92.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A141" s="145"/>
+      <c r="B141" s="93"/>
+      <c r="C141" s="85"/>
+      <c r="D141" s="24"/>
+      <c r="E141" s="24"/>
+      <c r="F141" s="24"/>
+      <c r="G141" s="24"/>
       <c r="H141" s="10"/>
     </row>
-    <row r="142" spans="1:8" s="3" customFormat="1" ht="33" x14ac:dyDescent="0.45">
-      <c r="A142" s="144" t="s">
+    <row r="142" spans="1:8" s="3" customFormat="1" ht="32.799999999999997" x14ac:dyDescent="0.5">
+      <c r="A142" s="170" t="s">
         <v>126</v>
       </c>
-      <c r="B142" s="145"/>
-      <c r="C142" s="145"/>
-      <c r="D142" s="145"/>
-      <c r="E142" s="145"/>
-      <c r="F142" s="145"/>
-      <c r="G142" s="146"/>
-    </row>
-    <row r="143" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A143" s="28">
+      <c r="B142" s="171"/>
+      <c r="C142" s="171"/>
+      <c r="D142" s="171"/>
+      <c r="E142" s="171"/>
+      <c r="F142" s="171"/>
+      <c r="G142" s="172"/>
+    </row>
+    <row r="143" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+      <c r="A143" s="25">
         <v>1</v>
       </c>
-      <c r="B143" s="43" t="s">
+      <c r="B143" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="C143" s="44" t="s">
+      <c r="C143" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="D143" s="40">
+      <c r="D143" s="37">
         <v>8640</v>
       </c>
-      <c r="E143" s="40"/>
-      <c r="F143" s="40"/>
+      <c r="E143" s="37"/>
+      <c r="F143" s="37"/>
       <c r="G143" s="14"/>
     </row>
-    <row r="144" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A144" s="28">
+    <row r="144" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+      <c r="A144" s="25">
         <v>2</v>
       </c>
-      <c r="B144" s="43" t="s">
+      <c r="B144" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="C144" s="44" t="s">
+      <c r="C144" s="40" t="s">
         <v>167</v>
       </c>
-      <c r="D144" s="40">
+      <c r="D144" s="37">
         <v>7800</v>
       </c>
-      <c r="E144" s="40"/>
-      <c r="F144" s="40"/>
+      <c r="E144" s="37"/>
+      <c r="F144" s="37"/>
       <c r="G144" s="14"/>
     </row>
-    <row r="145" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A145" s="28">
+    <row r="145" spans="1:7" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+      <c r="A145" s="25">
         <v>3</v>
       </c>
-      <c r="B145" s="43" t="s">
+      <c r="B145" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="C145" s="44" t="s">
+      <c r="C145" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="D145" s="40">
+      <c r="D145" s="37">
         <v>10320</v>
       </c>
-      <c r="E145" s="40"/>
-      <c r="F145" s="40"/>
+      <c r="E145" s="37"/>
+      <c r="F145" s="37"/>
       <c r="G145" s="14"/>
     </row>
-    <row r="146" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A146" s="28">
+    <row r="146" spans="1:7" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+      <c r="A146" s="25">
         <v>4</v>
       </c>
-      <c r="B146" s="43" t="s">
+      <c r="B146" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="C146" s="44" t="s">
+      <c r="C146" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="D146" s="40">
+      <c r="D146" s="37">
         <v>15000</v>
       </c>
-      <c r="E146" s="40"/>
-      <c r="F146" s="40"/>
+      <c r="E146" s="37"/>
+      <c r="F146" s="37"/>
       <c r="G146" s="14"/>
     </row>
-    <row r="147" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A147" s="28">
+    <row r="147" spans="1:7" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+      <c r="A147" s="25">
         <v>5</v>
       </c>
-      <c r="B147" s="43" t="s">
+      <c r="B147" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="C147" s="44" t="s">
+      <c r="C147" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="D147" s="40">
+      <c r="D147" s="37">
         <v>15240</v>
       </c>
-      <c r="E147" s="40"/>
-      <c r="F147" s="40"/>
+      <c r="E147" s="37"/>
+      <c r="F147" s="37"/>
       <c r="G147" s="14"/>
     </row>
-    <row r="148" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A148" s="28">
+    <row r="148" spans="1:7" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+      <c r="A148" s="25">
         <v>6</v>
       </c>
-      <c r="B148" s="43" t="s">
+      <c r="B148" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="C148" s="44" t="s">
+      <c r="C148" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="D148" s="40">
+      <c r="D148" s="37">
         <v>15660</v>
       </c>
-      <c r="E148" s="40"/>
-      <c r="F148" s="40"/>
+      <c r="E148" s="37"/>
+      <c r="F148" s="37"/>
       <c r="G148" s="14"/>
     </row>
-    <row r="149" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A149" s="28">
+    <row r="149" spans="1:7" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+      <c r="A149" s="25">
         <v>7</v>
       </c>
-      <c r="B149" s="43" t="s">
+      <c r="B149" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="C149" s="44" t="s">
+      <c r="C149" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="D149" s="40">
+      <c r="D149" s="37">
         <v>19680</v>
       </c>
-      <c r="E149" s="40"/>
-      <c r="F149" s="40"/>
+      <c r="E149" s="37"/>
+      <c r="F149" s="37"/>
       <c r="G149" s="14"/>
     </row>
-    <row r="150" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A150" s="28">
+    <row r="150" spans="1:7" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+      <c r="A150" s="25">
         <v>8</v>
       </c>
-      <c r="B150" s="43" t="s">
+      <c r="B150" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="C150" s="44" t="s">
+      <c r="C150" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="D150" s="40">
+      <c r="D150" s="37">
         <v>15480</v>
       </c>
-      <c r="E150" s="40"/>
-      <c r="F150" s="40"/>
+      <c r="E150" s="37"/>
+      <c r="F150" s="37"/>
       <c r="G150" s="14"/>
     </row>
-    <row r="151" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A151" s="28">
+    <row r="151" spans="1:7" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+      <c r="A151" s="25">
         <v>9</v>
       </c>
-      <c r="B151" s="43" t="s">
+      <c r="B151" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="C151" s="44" t="s">
+      <c r="C151" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="D151" s="40">
+      <c r="D151" s="37">
         <v>20160</v>
       </c>
-      <c r="E151" s="40"/>
-      <c r="F151" s="40"/>
+      <c r="E151" s="37"/>
+      <c r="F151" s="37"/>
       <c r="G151" s="14"/>
     </row>
-    <row r="152" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A152" s="28">
+    <row r="152" spans="1:7" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+      <c r="A152" s="25">
         <v>10</v>
       </c>
-      <c r="B152" s="43" t="s">
+      <c r="B152" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="C152" s="44" t="s">
+      <c r="C152" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="D152" s="40">
+      <c r="D152" s="37">
         <v>8520</v>
       </c>
-      <c r="E152" s="40"/>
-      <c r="F152" s="40"/>
+      <c r="E152" s="37"/>
+      <c r="F152" s="37"/>
       <c r="G152" s="14"/>
     </row>
-    <row r="153" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A153" s="28">
+    <row r="153" spans="1:7" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+      <c r="A153" s="25">
         <v>11</v>
       </c>
-      <c r="B153" s="43" t="s">
+      <c r="B153" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="C153" s="44" t="s">
+      <c r="C153" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="D153" s="40">
+      <c r="D153" s="37">
         <v>22080</v>
       </c>
-      <c r="E153" s="40"/>
-      <c r="F153" s="40"/>
+      <c r="E153" s="37"/>
+      <c r="F153" s="37"/>
       <c r="G153" s="14"/>
     </row>
-    <row r="154" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A154" s="28">
+    <row r="154" spans="1:7" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+      <c r="A154" s="25">
         <v>12</v>
       </c>
-      <c r="B154" s="43" t="s">
+      <c r="B154" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="C154" s="44" t="s">
+      <c r="C154" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="D154" s="40">
+      <c r="D154" s="37">
         <v>12840</v>
       </c>
-      <c r="E154" s="40"/>
-      <c r="F154" s="40"/>
+      <c r="E154" s="37"/>
+      <c r="F154" s="37"/>
       <c r="G154" s="14"/>
     </row>
-    <row r="155" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A155" s="28">
+    <row r="155" spans="1:7" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+      <c r="A155" s="25">
         <v>13</v>
       </c>
-      <c r="B155" s="43" t="s">
+      <c r="B155" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="C155" s="44" t="s">
+      <c r="C155" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="D155" s="40">
+      <c r="D155" s="37">
         <v>8880</v>
       </c>
-      <c r="E155" s="40"/>
-      <c r="F155" s="40"/>
+      <c r="E155" s="37"/>
+      <c r="F155" s="37"/>
       <c r="G155" s="14"/>
     </row>
-    <row r="156" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A156" s="28">
+    <row r="156" spans="1:7" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+      <c r="A156" s="25">
         <v>14</v>
       </c>
-      <c r="B156" s="43" t="s">
+      <c r="B156" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="C156" s="44" t="s">
+      <c r="C156" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="D156" s="40">
+      <c r="D156" s="37">
         <v>10320</v>
       </c>
-      <c r="E156" s="40"/>
-      <c r="F156" s="40"/>
+      <c r="E156" s="37"/>
+      <c r="F156" s="37"/>
       <c r="G156" s="14"/>
     </row>
-    <row r="157" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A157" s="28">
+    <row r="157" spans="1:7" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+      <c r="A157" s="25">
         <v>15</v>
       </c>
-      <c r="B157" s="43" t="s">
+      <c r="B157" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="C157" s="44" t="s">
+      <c r="C157" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="D157" s="40">
+      <c r="D157" s="37">
         <v>6960</v>
       </c>
-      <c r="E157" s="40"/>
-      <c r="F157" s="40"/>
+      <c r="E157" s="37"/>
+      <c r="F157" s="37"/>
       <c r="G157" s="14"/>
     </row>
-    <row r="158" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A158" s="28">
+    <row r="158" spans="1:7" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+      <c r="A158" s="25">
         <v>16</v>
       </c>
-      <c r="B158" s="43" t="s">
+      <c r="B158" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="C158" s="44" t="s">
+      <c r="C158" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="D158" s="40">
+      <c r="D158" s="37">
         <v>8640</v>
       </c>
-      <c r="E158" s="40"/>
-      <c r="F158" s="40"/>
+      <c r="E158" s="37"/>
+      <c r="F158" s="37"/>
       <c r="G158" s="14"/>
     </row>
-    <row r="159" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A159" s="28">
+    <row r="159" spans="1:7" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+      <c r="A159" s="25">
         <v>17</v>
       </c>
-      <c r="B159" s="43" t="s">
+      <c r="B159" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="C159" s="44" t="s">
+      <c r="C159" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="D159" s="40">
+      <c r="D159" s="37">
         <v>8640</v>
       </c>
-      <c r="E159" s="40"/>
-      <c r="F159" s="40"/>
+      <c r="E159" s="37"/>
+      <c r="F159" s="37"/>
       <c r="G159" s="14"/>
     </row>
-    <row r="160" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A160" s="28">
+    <row r="160" spans="1:7" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+      <c r="A160" s="25">
         <v>18</v>
       </c>
-      <c r="B160" s="43" t="s">
+      <c r="B160" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="C160" s="44" t="s">
+      <c r="C160" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="D160" s="40">
+      <c r="D160" s="37">
         <v>10080</v>
       </c>
-      <c r="E160" s="40"/>
-      <c r="F160" s="40"/>
+      <c r="E160" s="37"/>
+      <c r="F160" s="37"/>
       <c r="G160" s="14"/>
     </row>
-    <row r="161" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A161" s="28">
+    <row r="161" spans="1:7" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+      <c r="A161" s="25">
         <v>19</v>
       </c>
-      <c r="B161" s="43" t="s">
+      <c r="B161" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="C161" s="44" t="s">
+      <c r="C161" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="D161" s="40">
+      <c r="D161" s="37">
         <v>15000</v>
       </c>
-      <c r="E161" s="40"/>
-      <c r="F161" s="40"/>
+      <c r="E161" s="37"/>
+      <c r="F161" s="37"/>
       <c r="G161" s="14"/>
     </row>
-    <row r="162" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A162" s="28">
+    <row r="162" spans="1:7" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+      <c r="A162" s="25">
         <v>20</v>
       </c>
-      <c r="B162" s="43" t="s">
+      <c r="B162" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="C162" s="44" t="s">
+      <c r="C162" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="D162" s="40">
+      <c r="D162" s="37">
         <v>17400</v>
       </c>
-      <c r="E162" s="40"/>
-      <c r="F162" s="40"/>
+      <c r="E162" s="37"/>
+      <c r="F162" s="37"/>
       <c r="G162" s="14"/>
     </row>
-    <row r="163" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A163" s="28">
+    <row r="163" spans="1:7" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+      <c r="A163" s="25">
         <v>21</v>
       </c>
-      <c r="B163" s="43" t="s">
+      <c r="B163" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="C163" s="44" t="s">
+      <c r="C163" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="D163" s="40">
+      <c r="D163" s="37">
         <v>9480</v>
       </c>
-      <c r="E163" s="40"/>
-      <c r="F163" s="40"/>
+      <c r="E163" s="37"/>
+      <c r="F163" s="37"/>
       <c r="G163" s="14"/>
     </row>
-    <row r="164" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A164" s="28">
+    <row r="164" spans="1:7" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+      <c r="A164" s="25">
         <v>22</v>
       </c>
-      <c r="B164" s="43" t="s">
+      <c r="B164" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="C164" s="44" t="s">
+      <c r="C164" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="D164" s="40">
+      <c r="D164" s="37">
         <v>10080</v>
       </c>
-      <c r="E164" s="40"/>
-      <c r="F164" s="40"/>
+      <c r="E164" s="37"/>
+      <c r="F164" s="37"/>
       <c r="G164" s="14"/>
     </row>
-    <row r="165" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A165" s="28">
+    <row r="165" spans="1:7" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+      <c r="A165" s="25">
         <v>23</v>
       </c>
-      <c r="B165" s="43" t="s">
+      <c r="B165" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="C165" s="44" t="s">
+      <c r="C165" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="D165" s="40">
+      <c r="D165" s="37">
         <v>10080</v>
       </c>
-      <c r="E165" s="40"/>
-      <c r="F165" s="40"/>
+      <c r="E165" s="37"/>
+      <c r="F165" s="37"/>
       <c r="G165" s="14"/>
     </row>
-    <row r="166" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A166" s="28">
+    <row r="166" spans="1:7" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+      <c r="A166" s="25">
         <v>24</v>
       </c>
-      <c r="B166" s="43" t="s">
+      <c r="B166" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="C166" s="44" t="s">
+      <c r="C166" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="D166" s="40">
+      <c r="D166" s="37">
         <v>11760</v>
       </c>
-      <c r="E166" s="40"/>
-      <c r="F166" s="40"/>
+      <c r="E166" s="37"/>
+      <c r="F166" s="37"/>
       <c r="G166" s="14"/>
     </row>
-    <row r="167" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A167" s="28">
+    <row r="167" spans="1:7" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+      <c r="A167" s="25">
         <v>25</v>
       </c>
-      <c r="B167" s="43" t="s">
+      <c r="B167" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="C167" s="44" t="s">
+      <c r="C167" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="D167" s="40">
+      <c r="D167" s="37">
         <v>17400</v>
       </c>
-      <c r="E167" s="40"/>
-      <c r="F167" s="40"/>
+      <c r="E167" s="37"/>
+      <c r="F167" s="37"/>
       <c r="G167" s="14"/>
     </row>
-    <row r="168" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A168" s="28">
+    <row r="168" spans="1:7" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+      <c r="A168" s="25">
         <v>26</v>
       </c>
-      <c r="B168" s="43" t="s">
+      <c r="B168" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="C168" s="44" t="s">
+      <c r="C168" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="D168" s="40">
+      <c r="D168" s="37">
         <v>18120</v>
       </c>
-      <c r="E168" s="40"/>
-      <c r="F168" s="40"/>
+      <c r="E168" s="37"/>
+      <c r="F168" s="37"/>
       <c r="G168" s="14"/>
     </row>
-    <row r="169" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A169" s="28">
+    <row r="169" spans="1:7" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+      <c r="A169" s="25">
         <v>27</v>
       </c>
-      <c r="B169" s="43" t="s">
+      <c r="B169" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="C169" s="44" t="s">
+      <c r="C169" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="D169" s="40">
+      <c r="D169" s="37">
         <v>17400</v>
       </c>
-      <c r="E169" s="40"/>
-      <c r="F169" s="40"/>
+      <c r="E169" s="37"/>
+      <c r="F169" s="37"/>
       <c r="G169" s="14"/>
     </row>
-    <row r="170" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A170" s="28">
+    <row r="170" spans="1:7" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+      <c r="A170" s="25">
         <v>28</v>
       </c>
-      <c r="B170" s="43" t="s">
+      <c r="B170" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="C170" s="44" t="s">
+      <c r="C170" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="D170" s="40">
+      <c r="D170" s="37">
         <v>22080</v>
       </c>
-      <c r="E170" s="40"/>
-      <c r="F170" s="40"/>
+      <c r="E170" s="37"/>
+      <c r="F170" s="37"/>
       <c r="G170" s="14"/>
     </row>
-    <row r="171" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A171" s="28">
+    <row r="171" spans="1:7" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+      <c r="A171" s="25">
         <v>29</v>
       </c>
-      <c r="B171" s="43" t="s">
+      <c r="B171" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="C171" s="44" t="s">
+      <c r="C171" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="D171" s="40">
+      <c r="D171" s="37">
         <v>10560</v>
       </c>
-      <c r="E171" s="40"/>
-      <c r="F171" s="40"/>
+      <c r="E171" s="37"/>
+      <c r="F171" s="37"/>
       <c r="G171" s="14"/>
     </row>
-    <row r="172" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A172" s="28">
+    <row r="172" spans="1:7" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+      <c r="A172" s="25">
         <v>30</v>
       </c>
-      <c r="B172" s="43" t="s">
+      <c r="B172" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="C172" s="44" t="s">
+      <c r="C172" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="D172" s="40">
+      <c r="D172" s="37">
         <v>16320</v>
       </c>
-      <c r="E172" s="40"/>
-      <c r="F172" s="40"/>
+      <c r="E172" s="37"/>
+      <c r="F172" s="37"/>
       <c r="G172" s="14"/>
     </row>
-    <row r="173" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A173" s="28">
+    <row r="173" spans="1:7" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+      <c r="A173" s="25">
         <v>31</v>
       </c>
-      <c r="B173" s="43" t="s">
+      <c r="B173" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="C173" s="44" t="s">
+      <c r="C173" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="D173" s="40">
+      <c r="D173" s="37">
         <v>9000</v>
       </c>
-      <c r="E173" s="40"/>
-      <c r="F173" s="40"/>
+      <c r="E173" s="37"/>
+      <c r="F173" s="37"/>
       <c r="G173" s="14"/>
     </row>
-    <row r="174" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A174" s="28">
+    <row r="174" spans="1:7" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+      <c r="A174" s="25">
         <v>32</v>
       </c>
-      <c r="B174" s="43" t="s">
+      <c r="B174" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="C174" s="44" t="s">
+      <c r="C174" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="D174" s="40">
+      <c r="D174" s="37">
         <v>20640</v>
       </c>
-      <c r="E174" s="40"/>
-      <c r="F174" s="40"/>
+      <c r="E174" s="37"/>
+      <c r="F174" s="37"/>
       <c r="G174" s="14"/>
     </row>
-    <row r="175" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A175" s="28">
+    <row r="175" spans="1:7" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+      <c r="A175" s="25">
         <v>33</v>
       </c>
-      <c r="B175" s="43" t="s">
+      <c r="B175" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="C175" s="44" t="s">
+      <c r="C175" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="D175" s="40">
+      <c r="D175" s="37">
         <v>10320</v>
       </c>
-      <c r="E175" s="40"/>
-      <c r="F175" s="40"/>
+      <c r="E175" s="37"/>
+      <c r="F175" s="37"/>
       <c r="G175" s="14"/>
     </row>
-    <row r="176" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A176" s="28">
+    <row r="176" spans="1:7" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+      <c r="A176" s="25">
         <v>34</v>
       </c>
-      <c r="B176" s="43" t="s">
+      <c r="B176" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="C176" s="44" t="s">
+      <c r="C176" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="D176" s="40">
+      <c r="D176" s="37">
         <v>11640</v>
       </c>
-      <c r="E176" s="40"/>
-      <c r="F176" s="40"/>
+      <c r="E176" s="37"/>
+      <c r="F176" s="37"/>
       <c r="G176" s="14"/>
     </row>
-    <row r="177" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A177" s="28">
+    <row r="177" spans="1:7" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+      <c r="A177" s="25">
         <v>35</v>
       </c>
-      <c r="B177" s="43" t="s">
+      <c r="B177" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="C177" s="44" t="s">
+      <c r="C177" s="40" t="s">
         <v>166</v>
       </c>
-      <c r="D177" s="40">
+      <c r="D177" s="37">
         <v>9120</v>
       </c>
-      <c r="E177" s="40"/>
-      <c r="F177" s="40"/>
+      <c r="E177" s="37"/>
+      <c r="F177" s="37"/>
       <c r="G177" s="14"/>
     </row>
-    <row r="178" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A178" s="28">
+    <row r="178" spans="1:7" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+      <c r="A178" s="25">
         <v>36</v>
       </c>
-      <c r="B178" s="43" t="s">
+      <c r="B178" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="C178" s="44" t="s">
+      <c r="C178" s="40" t="s">
         <v>168</v>
       </c>
-      <c r="D178" s="40">
+      <c r="D178" s="37">
         <v>9336</v>
       </c>
-      <c r="E178" s="40"/>
-      <c r="F178" s="40"/>
+      <c r="E178" s="37"/>
+      <c r="F178" s="37"/>
       <c r="G178" s="14"/>
     </row>
-    <row r="179" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A179" s="28">
+    <row r="179" spans="1:7" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+      <c r="A179" s="25">
         <v>37</v>
       </c>
-      <c r="B179" s="43" t="s">
+      <c r="B179" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="C179" s="44" t="s">
+      <c r="C179" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="D179" s="40">
+      <c r="D179" s="37">
         <v>19800</v>
       </c>
-      <c r="E179" s="40"/>
-      <c r="F179" s="40"/>
+      <c r="E179" s="37"/>
+      <c r="F179" s="37"/>
       <c r="G179" s="14"/>
     </row>
-    <row r="180" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A180" s="28">
+    <row r="180" spans="1:7" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+      <c r="A180" s="25">
         <v>38</v>
       </c>
-      <c r="B180" s="43" t="s">
+      <c r="B180" s="40" t="s">
         <v>164</v>
       </c>
-      <c r="C180" s="44" t="s">
+      <c r="C180" s="40" t="s">
         <v>172</v>
       </c>
-      <c r="D180" s="40">
+      <c r="D180" s="37">
         <v>20400</v>
       </c>
-      <c r="E180" s="40"/>
-      <c r="F180" s="40"/>
+      <c r="E180" s="37"/>
+      <c r="F180" s="37"/>
       <c r="G180" s="14"/>
     </row>
-    <row r="181" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
-      <c r="A181" s="28">
+    <row r="181" spans="1:7" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+      <c r="A181" s="25">
         <v>39</v>
       </c>
-      <c r="B181" s="43" t="s">
+      <c r="B181" s="40" t="s">
         <v>165</v>
       </c>
-      <c r="C181" s="44" t="s">
+      <c r="C181" s="40" t="s">
         <v>172</v>
       </c>
-      <c r="D181" s="40">
+      <c r="D181" s="37">
         <v>27600</v>
       </c>
-      <c r="E181" s="40"/>
-      <c r="F181" s="40"/>
+      <c r="E181" s="37"/>
+      <c r="F181" s="37"/>
       <c r="G181" s="14"/>
     </row>
-    <row r="182" spans="1:7" s="3" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A182" s="113" t="s">
+    <row r="182" spans="1:7" s="3" customFormat="1" ht="26.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A182" s="189" t="s">
         <v>205</v>
       </c>
-      <c r="B182" s="114"/>
-      <c r="C182" s="114"/>
-      <c r="D182" s="114"/>
-      <c r="E182" s="114"/>
-      <c r="F182" s="114"/>
-      <c r="G182" s="114"/>
-    </row>
-    <row r="183" spans="1:7" s="3" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A183" s="113" t="s">
+      <c r="B182" s="190"/>
+      <c r="C182" s="190"/>
+      <c r="D182" s="190"/>
+      <c r="E182" s="190"/>
+      <c r="F182" s="190"/>
+      <c r="G182" s="190"/>
+    </row>
+    <row r="183" spans="1:7" s="3" customFormat="1" ht="26.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A183" s="189" t="s">
         <v>206</v>
       </c>
-      <c r="B183" s="114"/>
-      <c r="C183" s="114"/>
-      <c r="D183" s="114"/>
-      <c r="E183" s="114"/>
-      <c r="F183" s="114"/>
-      <c r="G183" s="114"/>
-    </row>
-    <row r="184" spans="1:7" s="3" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A184" s="117" t="s">
+      <c r="B183" s="190"/>
+      <c r="C183" s="190"/>
+      <c r="D183" s="190"/>
+      <c r="E183" s="190"/>
+      <c r="F183" s="190"/>
+      <c r="G183" s="190"/>
+    </row>
+    <row r="184" spans="1:7" s="3" customFormat="1" ht="30.65" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A184" s="159" t="s">
         <v>202</v>
       </c>
-      <c r="B184" s="118"/>
-      <c r="C184" s="118"/>
-      <c r="D184" s="118"/>
-      <c r="E184" s="118"/>
-      <c r="F184" s="118"/>
-      <c r="G184" s="119"/>
-    </row>
-    <row r="185" spans="1:7" s="3" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A185" s="117" t="s">
+      <c r="B184" s="160"/>
+      <c r="C184" s="160"/>
+      <c r="D184" s="160"/>
+      <c r="E184" s="160"/>
+      <c r="F184" s="160"/>
+      <c r="G184" s="161"/>
+    </row>
+    <row r="185" spans="1:7" s="3" customFormat="1" ht="30.65" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A185" s="159" t="s">
         <v>203</v>
       </c>
-      <c r="B185" s="118"/>
-      <c r="C185" s="118"/>
-      <c r="D185" s="118"/>
-      <c r="E185" s="118"/>
-      <c r="F185" s="118"/>
-      <c r="G185" s="119"/>
-    </row>
-    <row r="186" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.4">
-      <c r="A186" s="86" t="s">
+      <c r="B185" s="160"/>
+      <c r="C185" s="160"/>
+      <c r="D185" s="160"/>
+      <c r="E185" s="160"/>
+      <c r="F185" s="160"/>
+      <c r="G185" s="161"/>
+    </row>
+    <row r="186" spans="1:7" s="3" customFormat="1" ht="29.95" x14ac:dyDescent="0.4">
+      <c r="A186" s="173" t="s">
         <v>204</v>
       </c>
-      <c r="B186" s="87"/>
-      <c r="C186" s="87"/>
-      <c r="D186" s="87"/>
-      <c r="E186" s="87"/>
-      <c r="F186" s="87"/>
-      <c r="G186" s="88"/>
+      <c r="B186" s="174"/>
+      <c r="C186" s="174"/>
+      <c r="D186" s="174"/>
+      <c r="E186" s="174"/>
+      <c r="F186" s="174"/>
+      <c r="G186" s="175"/>
     </row>
   </sheetData>
   <mergeCells count="98">
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A46:G46"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="A186:G186"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="A126:A128"/>
+    <mergeCell ref="A182:G182"/>
+    <mergeCell ref="A183:G183"/>
+    <mergeCell ref="A135:G135"/>
+    <mergeCell ref="A184:G184"/>
+    <mergeCell ref="A185:G185"/>
+    <mergeCell ref="A132:G132"/>
+    <mergeCell ref="A133:G133"/>
+    <mergeCell ref="A138:G138"/>
+    <mergeCell ref="A139:G139"/>
+    <mergeCell ref="A142:G142"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="D140:G140"/>
+    <mergeCell ref="B126:B128"/>
+    <mergeCell ref="C126:C128"/>
+    <mergeCell ref="D126:G126"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="E128:G128"/>
+    <mergeCell ref="E127:G127"/>
+    <mergeCell ref="A115:G115"/>
+    <mergeCell ref="A125:G125"/>
+    <mergeCell ref="A117:G117"/>
+    <mergeCell ref="A118:A120"/>
+    <mergeCell ref="B118:B120"/>
+    <mergeCell ref="C118:C120"/>
+    <mergeCell ref="D118:G118"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="F119:G119"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="F116:G116"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="C103:C105"/>
+    <mergeCell ref="D103:G103"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="F104:G104"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="A69:G69"/>
+    <mergeCell ref="A68:G68"/>
+    <mergeCell ref="A102:G102"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="D70:G70"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:G71"/>
     <mergeCell ref="A101:G101"/>
     <mergeCell ref="A36:G36"/>
     <mergeCell ref="A23:G23"/>
@@ -6020,73 +6082,22 @@
     <mergeCell ref="D48:D49"/>
     <mergeCell ref="E48:E49"/>
     <mergeCell ref="F48:G48"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A46:G46"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E28:F28"/>
     <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="A69:G69"/>
-    <mergeCell ref="A68:G68"/>
-    <mergeCell ref="A102:G102"/>
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="C103:C105"/>
-    <mergeCell ref="D103:G103"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="F104:G104"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="D70:G70"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="A115:G115"/>
-    <mergeCell ref="A125:G125"/>
-    <mergeCell ref="A117:G117"/>
-    <mergeCell ref="A118:A120"/>
-    <mergeCell ref="B118:B120"/>
-    <mergeCell ref="C118:C120"/>
-    <mergeCell ref="D118:G118"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="F119:G119"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="F116:G116"/>
-    <mergeCell ref="B126:B128"/>
-    <mergeCell ref="C126:C128"/>
-    <mergeCell ref="D126:G126"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="E128:G128"/>
-    <mergeCell ref="E127:G127"/>
-    <mergeCell ref="A135:G135"/>
-    <mergeCell ref="A184:G184"/>
-    <mergeCell ref="A185:G185"/>
-    <mergeCell ref="A132:G132"/>
-    <mergeCell ref="A133:G133"/>
-    <mergeCell ref="A138:G138"/>
-    <mergeCell ref="A139:G139"/>
-    <mergeCell ref="A142:G142"/>
-    <mergeCell ref="A140:A141"/>
-    <mergeCell ref="B140:B141"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="D140:G140"/>
-    <mergeCell ref="A186:G186"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="A126:A128"/>
-    <mergeCell ref="A182:G182"/>
-    <mergeCell ref="A183:G183"/>
   </mergeCells>
   <pageMargins left="0.46" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="41" orientation="portrait" r:id="rId1"/>
@@ -6094,4 +6105,103 @@
     <brk id="206" max="8" man="1"/>
   </rowBreaks>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD269D3E-B516-41F0-91FC-77D72CE7417A}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.25" customWidth="1"/>
+    <col min="2" max="2" width="25.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18.55" x14ac:dyDescent="0.3">
+      <c r="A1" s="191" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="str">
+        <f>""""&amp;A1&amp;""""&amp;","</f>
+        <v>"74009.10-400 (ЕВРО-0)",</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18.55" x14ac:dyDescent="0.3">
+      <c r="A2" s="191" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18.55" x14ac:dyDescent="0.3">
+      <c r="A3" s="191" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18.55" x14ac:dyDescent="0.3">
+      <c r="A4" s="191" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18.55" x14ac:dyDescent="0.3">
+      <c r="A5" s="192" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18.55" x14ac:dyDescent="0.3">
+      <c r="A6" s="192" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18.55" x14ac:dyDescent="0.3">
+      <c r="A7" s="192" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="18.55" x14ac:dyDescent="0.3">
+      <c r="A8" s="192" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="18.55" x14ac:dyDescent="0.3">
+      <c r="A9" s="192" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="18.55" x14ac:dyDescent="0.3">
+      <c r="A10" s="193" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="18.55" x14ac:dyDescent="0.3">
+      <c r="A11" s="192" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="18.55" x14ac:dyDescent="0.3">
+      <c r="A12" s="192" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="18.55" x14ac:dyDescent="0.3">
+      <c r="A13" s="192" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="18.55" x14ac:dyDescent="0.3">
+      <c r="A14" s="192" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="18.55" x14ac:dyDescent="0.3">
+      <c r="A15" s="192" t="s">
+        <v>184</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" copies="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/agregat/assets/docs/Прайс ЧелныАгрегатЦентр 01 2019.xlsx
+++ b/agregat/assets/docs/Прайс ЧелныАгрегатЦентр 01 2019.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Visual Studio 2012\Projects\drsk0211.github.io\agregat\assets\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\drsk0211.github.io\agregat\assets\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92CB9B5-34C6-42F9-8595-4BFD69A55141}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-114" yWindow="-114" windowWidth="23040" windowHeight="12461" tabRatio="616" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23040" windowHeight="12465" tabRatio="616"/>
   </bookViews>
   <sheets>
     <sheet name="Прейскурант c 01.01.16" sheetId="19" r:id="rId1"/>
@@ -19,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Прейскурант c 01.01.16'!$A$1:$G$186</definedName>
   </definedNames>
-  <calcPr calcId="181029" refMode="R1C1"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -773,7 +772,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="7">
     <numFmt numFmtId="164" formatCode="_-* #,##0\ &quot;р.&quot;_-;\-* #,##0\ &quot;р.&quot;_-;_-* &quot;-&quot;\ &quot;р.&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0\ _р_._-;\-* #,##0\ _р_._-;_-* &quot;-&quot;\ _р_._-;_-@_-"/>
@@ -1929,400 +1928,400 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="23" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="27" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="27" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="27" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="16" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="20" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="16" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="20" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="27" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="27" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="27" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="23" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="29">
-    <cellStyle name="1Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Comma [0]_CF &lt;-&gt; NI" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Comma_ASSUMPT" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Currency [0]_CF &lt;-&gt; NI" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Currency_CF &lt;-&gt; NI" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Hyperlink" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Norma11l" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Normal_CF &lt;-&gt; NI" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Percent_ASSUMPT" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="ДАТА" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="ЗАГОЛОВОК1" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="ЗАГОЛОВОК2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="ИТОГОВЫЙ" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="1Normal" xfId="1"/>
+    <cellStyle name="Comma [0]_CF &lt;-&gt; NI" xfId="2"/>
+    <cellStyle name="Comma_ASSUMPT" xfId="3"/>
+    <cellStyle name="Currency [0]_CF &lt;-&gt; NI" xfId="4"/>
+    <cellStyle name="Currency_CF &lt;-&gt; NI" xfId="5"/>
+    <cellStyle name="Followed Hyperlink" xfId="6"/>
+    <cellStyle name="Hyperlink" xfId="7"/>
+    <cellStyle name="Norma11l" xfId="8"/>
+    <cellStyle name="Normal_CF &lt;-&gt; NI" xfId="9"/>
+    <cellStyle name="Percent_ASSUMPT" xfId="10"/>
+    <cellStyle name="ДАТА" xfId="11"/>
+    <cellStyle name="ЗАГОЛОВОК1" xfId="12"/>
+    <cellStyle name="ЗАГОЛОВОК2" xfId="13"/>
+    <cellStyle name="ИТОГОВЫЙ" xfId="14"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="Обычный 2 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="Обычный 3" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="Обычный 4" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="Процентный 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="Процентный 2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="Процентный 3" xfId="21" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="ТЕКСТ" xfId="22" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="Тысячи [0]_15a" xfId="23" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="Тысячи_15a" xfId="24" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="ФИКСИРОВАННЫЙ" xfId="25" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="Финансовый 2" xfId="26" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="Финансовый 2 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="Финансовый 3" xfId="28" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Обычный 2" xfId="15"/>
+    <cellStyle name="Обычный 2 2" xfId="16"/>
+    <cellStyle name="Обычный 3" xfId="17"/>
+    <cellStyle name="Обычный 4" xfId="18"/>
+    <cellStyle name="Процентный 2" xfId="19"/>
+    <cellStyle name="Процентный 2 2" xfId="20"/>
+    <cellStyle name="Процентный 3" xfId="21"/>
+    <cellStyle name="ТЕКСТ" xfId="22"/>
+    <cellStyle name="Тысячи [0]_15a" xfId="23"/>
+    <cellStyle name="Тысячи_15a" xfId="24"/>
+    <cellStyle name="ФИКСИРОВАННЫЙ" xfId="25"/>
+    <cellStyle name="Финансовый 2" xfId="26"/>
+    <cellStyle name="Финансовый 2 2" xfId="27"/>
+    <cellStyle name="Финансовый 3" xfId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2413,23 +2412,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2465,23 +2447,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -2657,47 +2622,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H186"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:B34"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="12.85" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="49.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="72.875" style="1" customWidth="1"/>
-    <col min="4" max="5" width="26.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="32.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.875" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.125" style="1"/>
+    <col min="1" max="1" width="5.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="72.85546875" style="1" customWidth="1"/>
+    <col min="4" max="5" width="26.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="32.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="29.95" x14ac:dyDescent="0.4">
-      <c r="A1" s="77" t="s">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.4">
+      <c r="A1" s="188" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
+      <c r="B1" s="188"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="188"/>
+      <c r="E1" s="188"/>
+      <c r="F1" s="188"/>
+      <c r="G1" s="188"/>
       <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="188" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
+      <c r="B2" s="188"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
+      <c r="G2" s="188"/>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -2710,46 +2675,46 @@
       <c r="G3" s="66"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" s="3" customFormat="1" ht="22.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="78" t="s">
+    <row r="4" spans="1:8" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="84" t="s">
+      <c r="C4" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="87" t="s">
+      <c r="D4" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="88"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="127"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" ht="22.1" x14ac:dyDescent="0.35">
-      <c r="A5" s="79"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="93" t="s">
+    <row r="5" spans="1:8" s="3" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="99"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="123" t="s">
         <v>232</v>
       </c>
-      <c r="E5" s="91" t="s">
+      <c r="E5" s="143" t="s">
         <v>222</v>
       </c>
-      <c r="F5" s="89" t="s">
+      <c r="F5" s="145" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="90"/>
+      <c r="G5" s="146"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" s="3" customFormat="1" ht="111.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="80"/>
-      <c r="B6" s="83"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="92"/>
+    <row r="6" spans="1:8" s="3" customFormat="1" ht="135.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="179"/>
+      <c r="B6" s="140"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="189"/>
+      <c r="E6" s="160"/>
       <c r="F6" s="23" t="s">
         <v>221</v>
       </c>
@@ -2758,19 +2723,19 @@
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" ht="35.65" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="71" t="s">
+    <row r="7" spans="1:8" s="3" customFormat="1" ht="36" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="183" t="s">
         <v>173</v>
       </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="73"/>
+      <c r="B7" s="184"/>
+      <c r="C7" s="184"/>
+      <c r="D7" s="184"/>
+      <c r="E7" s="184"/>
+      <c r="F7" s="184"/>
+      <c r="G7" s="185"/>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" s="3" customFormat="1" ht="26.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" s="3" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="9">
         <v>1</v>
       </c>
@@ -2794,7 +2759,7 @@
       </c>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:8" s="3" customFormat="1" ht="26.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" s="3" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="11">
         <v>2</v>
       </c>
@@ -2818,7 +2783,7 @@
       </c>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:8" s="3" customFormat="1" ht="26.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" s="3" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="15">
         <v>3</v>
       </c>
@@ -2842,19 +2807,19 @@
       </c>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:8" s="3" customFormat="1" ht="35.65" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="74" t="s">
+    <row r="11" spans="1:8" s="3" customFormat="1" ht="35.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="186" t="s">
         <v>174</v>
       </c>
-      <c r="B11" s="75"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="76"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="187"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8" s="3" customFormat="1" ht="28.55" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" s="3" customFormat="1" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="12">
         <v>1</v>
       </c>
@@ -2878,7 +2843,7 @@
       </c>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="1:8" s="3" customFormat="1" ht="28.55" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" s="3" customFormat="1" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="12">
         <v>2</v>
       </c>
@@ -2902,7 +2867,7 @@
       </c>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:8" s="3" customFormat="1" ht="28.55" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" s="3" customFormat="1" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="12">
         <v>3</v>
       </c>
@@ -2926,7 +2891,7 @@
       </c>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:8" s="3" customFormat="1" ht="28.55" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" s="3" customFormat="1" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="12">
         <v>4</v>
       </c>
@@ -2950,7 +2915,7 @@
       </c>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="1:8" s="3" customFormat="1" ht="28.55" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" s="3" customFormat="1" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="12">
         <v>5</v>
       </c>
@@ -2974,7 +2939,7 @@
       </c>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="1:8" s="3" customFormat="1" ht="28.55" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" s="3" customFormat="1" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="12">
         <v>6</v>
       </c>
@@ -2998,7 +2963,7 @@
       </c>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" spans="1:8" s="3" customFormat="1" ht="28.55" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" s="3" customFormat="1" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="12">
         <v>7</v>
       </c>
@@ -3022,7 +2987,7 @@
       </c>
       <c r="H18" s="10"/>
     </row>
-    <row r="19" spans="1:8" s="3" customFormat="1" ht="28.55" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" s="3" customFormat="1" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="12">
         <v>8</v>
       </c>
@@ -3046,7 +3011,7 @@
       </c>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" spans="1:8" s="3" customFormat="1" ht="28.55" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" s="3" customFormat="1" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="12">
         <v>9</v>
       </c>
@@ -3070,7 +3035,7 @@
       </c>
       <c r="H20" s="10"/>
     </row>
-    <row r="21" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A21" s="12">
         <v>10</v>
       </c>
@@ -3106,109 +3071,109 @@
       <c r="G22" s="65"/>
       <c r="H22" s="42"/>
     </row>
-    <row r="23" spans="1:8" s="27" customFormat="1" ht="27.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="105" t="s">
+    <row r="23" spans="1:8" s="27" customFormat="1" ht="27.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="178" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="105"/>
-      <c r="C23" s="105"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="105"/>
-      <c r="G23" s="105"/>
+      <c r="B23" s="178"/>
+      <c r="C23" s="178"/>
+      <c r="D23" s="178"/>
+      <c r="E23" s="178"/>
+      <c r="F23" s="178"/>
+      <c r="G23" s="178"/>
       <c r="H23" s="43"/>
     </row>
-    <row r="24" spans="1:8" s="3" customFormat="1" ht="25.7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" s="3" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A24" s="32"/>
-      <c r="B24" s="176" t="s">
+      <c r="B24" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="177"/>
-      <c r="D24" s="178"/>
-      <c r="E24" s="178"/>
-      <c r="F24" s="179">
+      <c r="C24" s="78"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="80">
         <v>1500</v>
       </c>
-      <c r="G24" s="180"/>
+      <c r="G24" s="81"/>
       <c r="H24" s="18"/>
     </row>
-    <row r="25" spans="1:8" s="3" customFormat="1" ht="26.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" s="3" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="35"/>
-      <c r="B25" s="181" t="s">
+      <c r="B25" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="182"/>
-      <c r="D25" s="183"/>
-      <c r="E25" s="183"/>
-      <c r="F25" s="184">
+      <c r="C25" s="83"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="85">
         <v>2500</v>
       </c>
-      <c r="G25" s="185"/>
+      <c r="G25" s="86"/>
       <c r="H25" s="18"/>
     </row>
-    <row r="26" spans="1:8" ht="34.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="186" t="s">
+    <row r="26" spans="1:8" ht="34.700000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A26" s="87" t="s">
         <v>188</v>
       </c>
-      <c r="B26" s="75"/>
-      <c r="C26" s="75"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="187"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="89"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" s="3" customFormat="1" ht="30.85" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="113" t="s">
+    <row r="27" spans="1:8" s="3" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="112" t="s">
+      <c r="B27" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="115" t="s">
+      <c r="C27" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="118" t="s">
+      <c r="D27" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="118"/>
-      <c r="F27" s="118"/>
-      <c r="G27" s="119"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="96"/>
       <c r="H27" s="10"/>
     </row>
-    <row r="28" spans="1:8" s="3" customFormat="1" ht="65.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="113"/>
-      <c r="B28" s="113"/>
-      <c r="C28" s="116"/>
-      <c r="D28" s="113" t="s">
+    <row r="28" spans="1:8" s="3" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="90"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="94"/>
+      <c r="D28" s="90" t="s">
         <v>187</v>
       </c>
-      <c r="E28" s="97" t="s">
+      <c r="E28" s="192" t="s">
         <v>235</v>
       </c>
-      <c r="F28" s="98"/>
-      <c r="G28" s="95" t="s">
+      <c r="F28" s="193"/>
+      <c r="G28" s="190" t="s">
         <v>233</v>
       </c>
-      <c r="H28" s="96"/>
-    </row>
-    <row r="29" spans="1:8" s="3" customFormat="1" ht="28.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="113"/>
-      <c r="B29" s="114"/>
-      <c r="C29" s="116"/>
-      <c r="D29" s="188"/>
+      <c r="H28" s="191"/>
+    </row>
+    <row r="29" spans="1:8" s="3" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="90"/>
+      <c r="B29" s="92"/>
+      <c r="C29" s="94"/>
+      <c r="D29" s="97"/>
       <c r="E29" s="68" t="s">
         <v>236</v>
       </c>
       <c r="F29" s="68" t="s">
         <v>237</v>
       </c>
-      <c r="G29" s="95" t="s">
+      <c r="G29" s="190" t="s">
         <v>234</v>
       </c>
-      <c r="H29" s="96"/>
-    </row>
-    <row r="30" spans="1:8" ht="24.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H29" s="191"/>
+    </row>
+    <row r="30" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="12">
         <v>1</v>
       </c>
@@ -3232,7 +3197,7 @@
       </c>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:8" ht="23.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="12">
         <v>2</v>
       </c>
@@ -3280,7 +3245,7 @@
       </c>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="1:8" ht="23.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="12">
         <v>4</v>
       </c>
@@ -3328,70 +3293,70 @@
       </c>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="1:8" s="3" customFormat="1" ht="94.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="106" t="s">
+    <row r="35" spans="1:8" s="3" customFormat="1" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="180" t="s">
         <v>219</v>
       </c>
-      <c r="B35" s="107"/>
-      <c r="C35" s="107"/>
-      <c r="D35" s="107"/>
-      <c r="E35" s="107"/>
-      <c r="F35" s="107"/>
-      <c r="G35" s="108"/>
+      <c r="B35" s="181"/>
+      <c r="C35" s="181"/>
+      <c r="D35" s="181"/>
+      <c r="E35" s="181"/>
+      <c r="F35" s="181"/>
+      <c r="G35" s="182"/>
       <c r="H35" s="10"/>
     </row>
-    <row r="36" spans="1:8" s="3" customFormat="1" ht="35.65" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="102" t="s">
+    <row r="36" spans="1:8" s="3" customFormat="1" ht="35.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A36" s="175" t="s">
         <v>177</v>
       </c>
-      <c r="B36" s="103"/>
-      <c r="C36" s="103"/>
-      <c r="D36" s="103"/>
-      <c r="E36" s="103"/>
-      <c r="F36" s="103"/>
-      <c r="G36" s="104"/>
+      <c r="B36" s="176"/>
+      <c r="C36" s="176"/>
+      <c r="D36" s="176"/>
+      <c r="E36" s="176"/>
+      <c r="F36" s="176"/>
+      <c r="G36" s="177"/>
       <c r="H36" s="10"/>
     </row>
-    <row r="37" spans="1:8" s="3" customFormat="1" ht="22.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="78" t="s">
+    <row r="37" spans="1:8" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="81" t="s">
+      <c r="B37" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="84" t="s">
+      <c r="C37" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="87" t="s">
+      <c r="D37" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="E37" s="87"/>
-      <c r="F37" s="87"/>
-      <c r="G37" s="88"/>
+      <c r="E37" s="126"/>
+      <c r="F37" s="126"/>
+      <c r="G37" s="127"/>
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="1:8" s="3" customFormat="1" ht="22.1" x14ac:dyDescent="0.35">
-      <c r="A38" s="79"/>
-      <c r="B38" s="82"/>
-      <c r="C38" s="85"/>
-      <c r="D38" s="93" t="s">
+    <row r="38" spans="1:8" s="3" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="99"/>
+      <c r="B38" s="128"/>
+      <c r="C38" s="125"/>
+      <c r="D38" s="123" t="s">
         <v>238</v>
       </c>
-      <c r="E38" s="91" t="s">
+      <c r="E38" s="143" t="s">
         <v>239</v>
       </c>
-      <c r="F38" s="89" t="s">
+      <c r="F38" s="145" t="s">
         <v>41</v>
       </c>
-      <c r="G38" s="90"/>
+      <c r="G38" s="146"/>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="1:8" s="3" customFormat="1" ht="111.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="80"/>
-      <c r="B39" s="83"/>
-      <c r="C39" s="86"/>
-      <c r="D39" s="94"/>
-      <c r="E39" s="92"/>
+    <row r="39" spans="1:8" s="3" customFormat="1" ht="113.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="179"/>
+      <c r="B39" s="140"/>
+      <c r="C39" s="141"/>
+      <c r="D39" s="189"/>
+      <c r="E39" s="160"/>
       <c r="F39" s="23" t="s">
         <v>227</v>
       </c>
@@ -3400,7 +3365,7 @@
       </c>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="1:8" s="3" customFormat="1" ht="28.55" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" s="3" customFormat="1" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40" s="17">
         <v>1</v>
       </c>
@@ -3424,7 +3389,7 @@
       </c>
       <c r="H40" s="10"/>
     </row>
-    <row r="41" spans="1:8" s="3" customFormat="1" ht="28.55" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" s="3" customFormat="1" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A41" s="12">
         <v>2</v>
       </c>
@@ -3448,7 +3413,7 @@
       </c>
       <c r="H41" s="10"/>
     </row>
-    <row r="42" spans="1:8" s="3" customFormat="1" ht="28.55" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8" s="3" customFormat="1" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A42" s="12">
         <v>3</v>
       </c>
@@ -3472,19 +3437,19 @@
       </c>
       <c r="H42" s="10"/>
     </row>
-    <row r="43" spans="1:8" s="3" customFormat="1" ht="35.65" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="102" t="s">
+    <row r="43" spans="1:8" s="3" customFormat="1" ht="35.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A43" s="175" t="s">
         <v>189</v>
       </c>
-      <c r="B43" s="103"/>
-      <c r="C43" s="103"/>
-      <c r="D43" s="103"/>
-      <c r="E43" s="103"/>
-      <c r="F43" s="103"/>
-      <c r="G43" s="104"/>
+      <c r="B43" s="176"/>
+      <c r="C43" s="176"/>
+      <c r="D43" s="176"/>
+      <c r="E43" s="176"/>
+      <c r="F43" s="176"/>
+      <c r="G43" s="177"/>
       <c r="H43" s="10"/>
     </row>
-    <row r="44" spans="1:8" s="3" customFormat="1" ht="28.55" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8" s="3" customFormat="1" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A44" s="40">
         <v>4</v>
       </c>
@@ -3508,7 +3473,7 @@
       </c>
       <c r="H44" s="10"/>
     </row>
-    <row r="45" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A45" s="40">
         <v>5</v>
       </c>
@@ -3532,58 +3497,58 @@
       </c>
       <c r="H45" s="10"/>
     </row>
-    <row r="46" spans="1:8" s="3" customFormat="1" ht="45.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="71" t="s">
+    <row r="46" spans="1:8" s="3" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="183" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="72"/>
-      <c r="C46" s="72"/>
-      <c r="D46" s="72"/>
-      <c r="E46" s="72"/>
-      <c r="F46" s="72"/>
-      <c r="G46" s="73"/>
+      <c r="B46" s="184"/>
+      <c r="C46" s="184"/>
+      <c r="D46" s="184"/>
+      <c r="E46" s="184"/>
+      <c r="F46" s="184"/>
+      <c r="G46" s="185"/>
       <c r="H46" s="10"/>
     </row>
-    <row r="47" spans="1:8" s="3" customFormat="1" ht="24.95" x14ac:dyDescent="0.35">
-      <c r="A47" s="109" t="s">
+    <row r="47" spans="1:8" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="112" t="s">
+      <c r="B47" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="115" t="s">
+      <c r="C47" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="118" t="s">
+      <c r="D47" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="E47" s="118"/>
-      <c r="F47" s="118"/>
-      <c r="G47" s="119"/>
+      <c r="E47" s="95"/>
+      <c r="F47" s="95"/>
+      <c r="G47" s="96"/>
       <c r="H47" s="10"/>
     </row>
-    <row r="48" spans="1:8" s="3" customFormat="1" ht="24.95" x14ac:dyDescent="0.35">
-      <c r="A48" s="110"/>
-      <c r="B48" s="113"/>
-      <c r="C48" s="116"/>
-      <c r="D48" s="120" t="s">
+    <row r="48" spans="1:8" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A48" s="165"/>
+      <c r="B48" s="90"/>
+      <c r="C48" s="94"/>
+      <c r="D48" s="168" t="s">
         <v>75</v>
       </c>
-      <c r="E48" s="120" t="s">
+      <c r="E48" s="168" t="s">
         <v>241</v>
       </c>
-      <c r="F48" s="122" t="s">
+      <c r="F48" s="170" t="s">
         <v>41</v>
       </c>
-      <c r="G48" s="123"/>
+      <c r="G48" s="171"/>
       <c r="H48" s="10"/>
     </row>
-    <row r="49" spans="1:8" s="3" customFormat="1" ht="50.65" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="111"/>
-      <c r="B49" s="114"/>
-      <c r="C49" s="117"/>
-      <c r="D49" s="121"/>
-      <c r="E49" s="121"/>
+    <row r="49" spans="1:8" s="3" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="166"/>
+      <c r="B49" s="92"/>
+      <c r="C49" s="167"/>
+      <c r="D49" s="169"/>
+      <c r="E49" s="169"/>
       <c r="F49" s="50" t="s">
         <v>49</v>
       </c>
@@ -3592,7 +3557,7 @@
       </c>
       <c r="H49" s="10"/>
     </row>
-    <row r="50" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A50" s="34">
         <v>1</v>
       </c>
@@ -3614,7 +3579,7 @@
       </c>
       <c r="H50" s="10"/>
     </row>
-    <row r="51" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A51" s="34">
         <v>2</v>
       </c>
@@ -3634,7 +3599,7 @@
       </c>
       <c r="H51" s="10"/>
     </row>
-    <row r="52" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A52" s="34">
         <v>3</v>
       </c>
@@ -3654,7 +3619,7 @@
       </c>
       <c r="H52" s="10"/>
     </row>
-    <row r="53" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A53" s="34">
         <v>4</v>
       </c>
@@ -3676,7 +3641,7 @@
       </c>
       <c r="H53" s="10"/>
     </row>
-    <row r="54" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A54" s="34">
         <v>5</v>
       </c>
@@ -3698,7 +3663,7 @@
       </c>
       <c r="H54" s="10"/>
     </row>
-    <row r="55" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A55" s="34">
         <v>6</v>
       </c>
@@ -3720,7 +3685,7 @@
       </c>
       <c r="H55" s="10"/>
     </row>
-    <row r="56" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A56" s="34">
         <v>7</v>
       </c>
@@ -3742,7 +3707,7 @@
       </c>
       <c r="H56" s="10"/>
     </row>
-    <row r="57" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A57" s="34">
         <v>8</v>
       </c>
@@ -3764,7 +3729,7 @@
       </c>
       <c r="H57" s="10"/>
     </row>
-    <row r="58" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A58" s="34">
         <v>9</v>
       </c>
@@ -3786,7 +3751,7 @@
       </c>
       <c r="H58" s="10"/>
     </row>
-    <row r="59" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A59" s="34">
         <v>10</v>
       </c>
@@ -3806,7 +3771,7 @@
       </c>
       <c r="H59" s="10"/>
     </row>
-    <row r="60" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A60" s="34">
         <v>11</v>
       </c>
@@ -3826,7 +3791,7 @@
       </c>
       <c r="H60" s="10"/>
     </row>
-    <row r="61" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A61" s="34">
         <v>12</v>
       </c>
@@ -3844,7 +3809,7 @@
       <c r="G61" s="53"/>
       <c r="H61" s="10"/>
     </row>
-    <row r="62" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A62" s="34">
         <v>13</v>
       </c>
@@ -3862,7 +3827,7 @@
       <c r="G62" s="53"/>
       <c r="H62" s="10"/>
     </row>
-    <row r="63" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A63" s="34">
         <v>14</v>
       </c>
@@ -3880,7 +3845,7 @@
       <c r="G63" s="53"/>
       <c r="H63" s="10"/>
     </row>
-    <row r="64" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A64" s="34">
         <v>15</v>
       </c>
@@ -3898,7 +3863,7 @@
       <c r="G64" s="53"/>
       <c r="H64" s="10"/>
     </row>
-    <row r="65" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A65" s="34">
         <v>16</v>
       </c>
@@ -3916,7 +3881,7 @@
       <c r="G65" s="53"/>
       <c r="H65" s="10"/>
     </row>
-    <row r="66" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A66" s="34">
         <v>17</v>
       </c>
@@ -3934,7 +3899,7 @@
       <c r="G66" s="53"/>
       <c r="H66" s="10"/>
     </row>
-    <row r="67" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A67" s="34">
         <v>18</v>
       </c>
@@ -3952,68 +3917,68 @@
       <c r="G67" s="53"/>
       <c r="H67" s="10"/>
     </row>
-    <row r="68" spans="1:8" s="3" customFormat="1" ht="81.099999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="127" t="s">
+    <row r="68" spans="1:8" s="3" customFormat="1" ht="81.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="161" t="s">
         <v>208</v>
       </c>
-      <c r="B68" s="128"/>
-      <c r="C68" s="128"/>
-      <c r="D68" s="128"/>
-      <c r="E68" s="128"/>
-      <c r="F68" s="128"/>
-      <c r="G68" s="129"/>
+      <c r="B68" s="162"/>
+      <c r="C68" s="162"/>
+      <c r="D68" s="162"/>
+      <c r="E68" s="162"/>
+      <c r="F68" s="162"/>
+      <c r="G68" s="163"/>
       <c r="H68" s="10"/>
     </row>
-    <row r="69" spans="1:8" s="3" customFormat="1" ht="35.65" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="124" t="s">
+    <row r="69" spans="1:8" s="3" customFormat="1" ht="36" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="114" t="s">
         <v>77</v>
       </c>
-      <c r="B69" s="125"/>
-      <c r="C69" s="125"/>
-      <c r="D69" s="125"/>
-      <c r="E69" s="125"/>
-      <c r="F69" s="125"/>
-      <c r="G69" s="126"/>
+      <c r="B69" s="115"/>
+      <c r="C69" s="115"/>
+      <c r="D69" s="115"/>
+      <c r="E69" s="115"/>
+      <c r="F69" s="115"/>
+      <c r="G69" s="116"/>
       <c r="H69" s="10"/>
     </row>
-    <row r="70" spans="1:8" s="3" customFormat="1" ht="24.95" x14ac:dyDescent="0.35">
-      <c r="A70" s="109" t="s">
+    <row r="70" spans="1:8" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A70" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B70" s="112" t="s">
+      <c r="B70" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="C70" s="115" t="s">
+      <c r="C70" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="D70" s="118" t="s">
+      <c r="D70" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="E70" s="118"/>
-      <c r="F70" s="118"/>
-      <c r="G70" s="119"/>
+      <c r="E70" s="95"/>
+      <c r="F70" s="95"/>
+      <c r="G70" s="96"/>
       <c r="H70" s="10"/>
     </row>
-    <row r="71" spans="1:8" s="3" customFormat="1" ht="24.95" x14ac:dyDescent="0.35">
-      <c r="A71" s="110"/>
-      <c r="B71" s="113"/>
-      <c r="C71" s="116"/>
-      <c r="D71" s="120" t="s">
+    <row r="71" spans="1:8" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A71" s="165"/>
+      <c r="B71" s="90"/>
+      <c r="C71" s="94"/>
+      <c r="D71" s="168" t="s">
         <v>100</v>
       </c>
-      <c r="E71" s="120"/>
-      <c r="F71" s="122" t="s">
+      <c r="E71" s="168"/>
+      <c r="F71" s="170" t="s">
         <v>41</v>
       </c>
-      <c r="G71" s="123"/>
+      <c r="G71" s="171"/>
       <c r="H71" s="10"/>
     </row>
-    <row r="72" spans="1:8" s="3" customFormat="1" ht="117.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="111"/>
-      <c r="B72" s="114"/>
-      <c r="C72" s="117"/>
-      <c r="D72" s="121"/>
-      <c r="E72" s="121"/>
+    <row r="72" spans="1:8" s="3" customFormat="1" ht="117.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="166"/>
+      <c r="B72" s="92"/>
+      <c r="C72" s="167"/>
+      <c r="D72" s="169"/>
+      <c r="E72" s="169"/>
       <c r="F72" s="23" t="s">
         <v>242</v>
       </c>
@@ -4022,7 +3987,7 @@
       </c>
       <c r="H72" s="10"/>
     </row>
-    <row r="73" spans="1:8" s="3" customFormat="1" ht="27.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:8" s="3" customFormat="1" ht="27.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="12">
         <v>1</v>
       </c>
@@ -4044,7 +4009,7 @@
       </c>
       <c r="H73" s="10"/>
     </row>
-    <row r="74" spans="1:8" s="3" customFormat="1" ht="24.1" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:8" s="3" customFormat="1" ht="24.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="12">
         <v>2</v>
       </c>
@@ -4066,7 +4031,7 @@
       </c>
       <c r="H74" s="5"/>
     </row>
-    <row r="75" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A75" s="12">
         <v>3</v>
       </c>
@@ -4088,7 +4053,7 @@
       </c>
       <c r="H75" s="18"/>
     </row>
-    <row r="76" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A76" s="12">
         <v>4</v>
       </c>
@@ -4110,7 +4075,7 @@
       </c>
       <c r="H76" s="18"/>
     </row>
-    <row r="77" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A77" s="12">
         <v>5</v>
       </c>
@@ -4132,7 +4097,7 @@
       </c>
       <c r="H77" s="18"/>
     </row>
-    <row r="78" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A78" s="12">
         <v>6</v>
       </c>
@@ -4154,7 +4119,7 @@
       </c>
       <c r="H78" s="19"/>
     </row>
-    <row r="79" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A79" s="12">
         <v>7</v>
       </c>
@@ -4176,7 +4141,7 @@
       </c>
       <c r="H79" s="19"/>
     </row>
-    <row r="80" spans="1:8" s="3" customFormat="1" ht="21.05" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:8" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="12">
         <v>8</v>
       </c>
@@ -4198,7 +4163,7 @@
       </c>
       <c r="H80" s="20"/>
     </row>
-    <row r="81" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A81" s="12">
         <v>9</v>
       </c>
@@ -4219,7 +4184,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="82" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A82" s="12">
         <v>10</v>
       </c>
@@ -4240,7 +4205,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="83" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A83" s="12">
         <v>11</v>
       </c>
@@ -4261,7 +4226,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="84" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A84" s="12">
         <v>12</v>
       </c>
@@ -4282,7 +4247,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="85" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A85" s="12">
         <v>13</v>
       </c>
@@ -4303,7 +4268,7 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="86" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A86" s="12">
         <v>14</v>
       </c>
@@ -4324,7 +4289,7 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="87" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A87" s="12">
         <v>15</v>
       </c>
@@ -4346,7 +4311,7 @@
       </c>
       <c r="H87" s="21"/>
     </row>
-    <row r="88" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A88" s="12">
         <v>16</v>
       </c>
@@ -4368,7 +4333,7 @@
       </c>
       <c r="H88" s="22"/>
     </row>
-    <row r="89" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A89" s="12">
         <v>17</v>
       </c>
@@ -4389,7 +4354,7 @@
         <v>41000</v>
       </c>
     </row>
-    <row r="90" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A90" s="12">
         <v>18</v>
       </c>
@@ -4410,7 +4375,7 @@
         <v>41000</v>
       </c>
     </row>
-    <row r="91" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A91" s="12">
         <v>19</v>
       </c>
@@ -4431,7 +4396,7 @@
         <v>42000</v>
       </c>
     </row>
-    <row r="92" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A92" s="12">
         <v>20</v>
       </c>
@@ -4452,7 +4417,7 @@
         <v>42000</v>
       </c>
     </row>
-    <row r="93" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A93" s="12">
         <v>21</v>
       </c>
@@ -4473,7 +4438,7 @@
         <v>42000</v>
       </c>
     </row>
-    <row r="94" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A94" s="12">
         <v>22</v>
       </c>
@@ -4494,7 +4459,7 @@
         <v>42000</v>
       </c>
     </row>
-    <row r="95" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A95" s="12">
         <v>23</v>
       </c>
@@ -4515,7 +4480,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="96" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A96" s="12">
         <v>24</v>
       </c>
@@ -4536,7 +4501,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="97" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A97" s="12">
         <v>25</v>
       </c>
@@ -4557,7 +4522,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="98" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A98" s="12">
         <v>26</v>
       </c>
@@ -4578,7 +4543,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="99" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A99" s="12">
         <v>27</v>
       </c>
@@ -4599,7 +4564,7 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="100" spans="1:8" s="3" customFormat="1" ht="28.55" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:8" s="3" customFormat="1" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A100" s="12">
         <v>28</v>
       </c>
@@ -4620,66 +4585,66 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="101" spans="1:8" s="3" customFormat="1" ht="105.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A101" s="99" t="s">
+    <row r="101" spans="1:8" s="3" customFormat="1" ht="105.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A101" s="172" t="s">
         <v>193</v>
       </c>
-      <c r="B101" s="100"/>
-      <c r="C101" s="100"/>
-      <c r="D101" s="100"/>
-      <c r="E101" s="100"/>
-      <c r="F101" s="100"/>
-      <c r="G101" s="101"/>
-    </row>
-    <row r="102" spans="1:8" s="3" customFormat="1" ht="35.65" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A102" s="130" t="s">
+      <c r="B101" s="173"/>
+      <c r="C101" s="173"/>
+      <c r="D101" s="173"/>
+      <c r="E101" s="173"/>
+      <c r="F101" s="173"/>
+      <c r="G101" s="174"/>
+    </row>
+    <row r="102" spans="1:8" s="3" customFormat="1" ht="35.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A102" s="137" t="s">
         <v>101</v>
       </c>
-      <c r="B102" s="131"/>
-      <c r="C102" s="131"/>
-      <c r="D102" s="131"/>
-      <c r="E102" s="131"/>
-      <c r="F102" s="131"/>
-      <c r="G102" s="132"/>
-    </row>
-    <row r="103" spans="1:8" s="3" customFormat="1" ht="22.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="133" t="s">
+      <c r="B102" s="138"/>
+      <c r="C102" s="138"/>
+      <c r="D102" s="138"/>
+      <c r="E102" s="138"/>
+      <c r="F102" s="138"/>
+      <c r="G102" s="139"/>
+    </row>
+    <row r="103" spans="1:8" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="B103" s="136" t="s">
+      <c r="B103" s="155" t="s">
         <v>47</v>
       </c>
-      <c r="C103" s="84" t="s">
+      <c r="C103" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="D103" s="139" t="s">
+      <c r="D103" s="157" t="s">
         <v>5</v>
       </c>
-      <c r="E103" s="140"/>
-      <c r="F103" s="140"/>
-      <c r="G103" s="141"/>
+      <c r="E103" s="158"/>
+      <c r="F103" s="158"/>
+      <c r="G103" s="159"/>
       <c r="H103" s="10"/>
     </row>
-    <row r="104" spans="1:8" s="3" customFormat="1" ht="22.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="134"/>
-      <c r="B104" s="137"/>
-      <c r="C104" s="85"/>
-      <c r="D104" s="93" t="s">
+    <row r="104" spans="1:8" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="153"/>
+      <c r="B104" s="156"/>
+      <c r="C104" s="125"/>
+      <c r="D104" s="123" t="s">
         <v>100</v>
       </c>
-      <c r="E104" s="91"/>
-      <c r="F104" s="89" t="s">
+      <c r="E104" s="143"/>
+      <c r="F104" s="145" t="s">
         <v>41</v>
       </c>
-      <c r="G104" s="90"/>
+      <c r="G104" s="146"/>
       <c r="H104" s="10"/>
     </row>
-    <row r="105" spans="1:8" s="3" customFormat="1" ht="89.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A105" s="135"/>
-      <c r="B105" s="138"/>
-      <c r="C105" s="86"/>
-      <c r="D105" s="138"/>
-      <c r="E105" s="142"/>
+    <row r="105" spans="1:8" s="3" customFormat="1" ht="113.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A105" s="154"/>
+      <c r="B105" s="142"/>
+      <c r="C105" s="141"/>
+      <c r="D105" s="142"/>
+      <c r="E105" s="144"/>
       <c r="F105" s="23" t="s">
         <v>242</v>
       </c>
@@ -4688,7 +4653,7 @@
       </c>
       <c r="H105" s="10"/>
     </row>
-    <row r="106" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A106" s="12">
         <v>1</v>
       </c>
@@ -4709,7 +4674,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="107" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A107" s="12">
         <v>2</v>
       </c>
@@ -4730,7 +4695,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="108" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A108" s="12">
         <v>3</v>
       </c>
@@ -4751,7 +4716,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="109" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A109" s="12">
         <v>4</v>
       </c>
@@ -4772,7 +4737,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="110" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A110" s="12">
         <v>5</v>
       </c>
@@ -4793,7 +4758,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="111" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A111" s="12">
         <v>6</v>
       </c>
@@ -4814,7 +4779,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="112" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A112" s="12">
         <v>7</v>
       </c>
@@ -4835,7 +4800,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="113" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A113" s="12">
         <v>8</v>
       </c>
@@ -4856,7 +4821,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="114" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A114" s="12">
         <v>9</v>
       </c>
@@ -4878,86 +4843,86 @@
       </c>
     </row>
     <row r="115" spans="1:8" s="3" customFormat="1" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A115" s="143" t="s">
+      <c r="A115" s="135" t="s">
         <v>113</v>
       </c>
-      <c r="B115" s="144"/>
-      <c r="C115" s="144"/>
-      <c r="D115" s="144"/>
-      <c r="E115" s="144"/>
-      <c r="F115" s="144"/>
-      <c r="G115" s="144"/>
-    </row>
-    <row r="116" spans="1:8" s="3" customFormat="1" ht="31.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B115" s="136"/>
+      <c r="C115" s="136"/>
+      <c r="D115" s="136"/>
+      <c r="E115" s="136"/>
+      <c r="F115" s="136"/>
+      <c r="G115" s="136"/>
+    </row>
+    <row r="116" spans="1:8" s="3" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A116" s="59"/>
-      <c r="B116" s="146" t="s">
+      <c r="B116" s="147" t="s">
         <v>112</v>
       </c>
-      <c r="C116" s="147"/>
-      <c r="D116" s="148"/>
-      <c r="E116" s="148"/>
-      <c r="F116" s="149">
+      <c r="C116" s="148"/>
+      <c r="D116" s="149"/>
+      <c r="E116" s="149"/>
+      <c r="F116" s="150">
         <v>1200</v>
       </c>
-      <c r="G116" s="150"/>
+      <c r="G116" s="151"/>
       <c r="H116" s="18"/>
     </row>
-    <row r="117" spans="1:8" s="3" customFormat="1" ht="35.65" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A117" s="130" t="s">
+    <row r="117" spans="1:8" s="3" customFormat="1" ht="35.25" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A117" s="137" t="s">
         <v>176</v>
       </c>
-      <c r="B117" s="131"/>
-      <c r="C117" s="131"/>
-      <c r="D117" s="131"/>
-      <c r="E117" s="131"/>
-      <c r="F117" s="131"/>
-      <c r="G117" s="132"/>
-    </row>
-    <row r="118" spans="1:8" s="3" customFormat="1" ht="22.1" x14ac:dyDescent="0.35">
-      <c r="A118" s="78" t="s">
+      <c r="B117" s="138"/>
+      <c r="C117" s="138"/>
+      <c r="D117" s="138"/>
+      <c r="E117" s="138"/>
+      <c r="F117" s="138"/>
+      <c r="G117" s="139"/>
+    </row>
+    <row r="118" spans="1:8" s="3" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
+      <c r="A118" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B118" s="81" t="s">
+      <c r="B118" s="122" t="s">
         <v>47</v>
       </c>
-      <c r="C118" s="84" t="s">
+      <c r="C118" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="D118" s="87" t="s">
+      <c r="D118" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="E118" s="87"/>
-      <c r="F118" s="87"/>
-      <c r="G118" s="88"/>
+      <c r="E118" s="126"/>
+      <c r="F118" s="126"/>
+      <c r="G118" s="127"/>
       <c r="H118" s="10"/>
     </row>
-    <row r="119" spans="1:8" s="3" customFormat="1" ht="22.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="79"/>
-      <c r="B119" s="82"/>
-      <c r="C119" s="85"/>
-      <c r="D119" s="93" t="s">
+    <row r="119" spans="1:8" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="99"/>
+      <c r="B119" s="128"/>
+      <c r="C119" s="125"/>
+      <c r="D119" s="123" t="s">
         <v>100</v>
       </c>
-      <c r="E119" s="91" t="s">
+      <c r="E119" s="143" t="s">
         <v>201</v>
       </c>
-      <c r="F119" s="89"/>
-      <c r="G119" s="90"/>
+      <c r="F119" s="145"/>
+      <c r="G119" s="146"/>
       <c r="H119" s="10"/>
     </row>
     <row r="120" spans="1:8" s="3" customFormat="1" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A120" s="145"/>
-      <c r="B120" s="83"/>
-      <c r="C120" s="86"/>
-      <c r="D120" s="138"/>
-      <c r="E120" s="142"/>
+      <c r="A120" s="100"/>
+      <c r="B120" s="140"/>
+      <c r="C120" s="141"/>
+      <c r="D120" s="142"/>
+      <c r="E120" s="144"/>
       <c r="F120" s="29" t="s">
         <v>200</v>
       </c>
       <c r="G120" s="13"/>
       <c r="H120" s="10"/>
     </row>
-    <row r="121" spans="1:8" s="3" customFormat="1" ht="23.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:8" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="30">
         <v>1</v>
       </c>
@@ -4978,7 +4943,7 @@
       </c>
       <c r="G121" s="13"/>
     </row>
-    <row r="122" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A122" s="30">
         <v>2</v>
       </c>
@@ -4999,7 +4964,7 @@
       </c>
       <c r="G122" s="13"/>
     </row>
-    <row r="123" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A123" s="30">
         <v>3</v>
       </c>
@@ -5020,7 +4985,7 @@
       </c>
       <c r="G123" s="13"/>
     </row>
-    <row r="124" spans="1:8" s="3" customFormat="1" ht="28.55" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:8" s="3" customFormat="1" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A124" s="30">
         <v>4</v>
       </c>
@@ -5041,62 +5006,62 @@
       </c>
       <c r="G124" s="13"/>
     </row>
-    <row r="125" spans="1:8" s="3" customFormat="1" ht="35.65" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A125" s="124" t="s">
+    <row r="125" spans="1:8" s="3" customFormat="1" ht="36" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A125" s="114" t="s">
         <v>114</v>
       </c>
-      <c r="B125" s="125"/>
-      <c r="C125" s="125"/>
-      <c r="D125" s="125"/>
-      <c r="E125" s="125"/>
-      <c r="F125" s="125"/>
-      <c r="G125" s="126"/>
-    </row>
-    <row r="126" spans="1:8" s="3" customFormat="1" ht="22.1" x14ac:dyDescent="0.35">
-      <c r="A126" s="78" t="s">
+      <c r="B125" s="115"/>
+      <c r="C125" s="115"/>
+      <c r="D125" s="115"/>
+      <c r="E125" s="115"/>
+      <c r="F125" s="115"/>
+      <c r="G125" s="116"/>
+    </row>
+    <row r="126" spans="1:8" s="3" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
+      <c r="A126" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B126" s="81" t="s">
+      <c r="B126" s="122" t="s">
         <v>47</v>
       </c>
-      <c r="C126" s="84" t="s">
+      <c r="C126" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="D126" s="87" t="s">
+      <c r="D126" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="E126" s="87"/>
-      <c r="F126" s="87"/>
-      <c r="G126" s="88"/>
+      <c r="E126" s="126"/>
+      <c r="F126" s="126"/>
+      <c r="G126" s="127"/>
       <c r="H126" s="10"/>
     </row>
-    <row r="127" spans="1:8" s="3" customFormat="1" ht="23.55" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A127" s="79"/>
-      <c r="B127" s="82"/>
-      <c r="C127" s="85"/>
-      <c r="D127" s="93" t="s">
+    <row r="127" spans="1:8" s="3" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A127" s="99"/>
+      <c r="B127" s="128"/>
+      <c r="C127" s="125"/>
+      <c r="D127" s="123" t="s">
         <v>100</v>
       </c>
-      <c r="E127" s="155" t="s">
+      <c r="E127" s="133" t="s">
         <v>41</v>
       </c>
-      <c r="F127" s="156"/>
-      <c r="G127" s="156"/>
+      <c r="F127" s="134"/>
+      <c r="G127" s="134"/>
       <c r="H127" s="10"/>
     </row>
-    <row r="128" spans="1:8" s="3" customFormat="1" ht="92.35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="145"/>
-      <c r="B128" s="93"/>
-      <c r="C128" s="85"/>
-      <c r="D128" s="151"/>
-      <c r="E128" s="152" t="s">
+    <row r="128" spans="1:8" s="3" customFormat="1" ht="92.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="100"/>
+      <c r="B128" s="123"/>
+      <c r="C128" s="125"/>
+      <c r="D128" s="129"/>
+      <c r="E128" s="130" t="s">
         <v>121</v>
       </c>
-      <c r="F128" s="153"/>
-      <c r="G128" s="154"/>
+      <c r="F128" s="131"/>
+      <c r="G128" s="132"/>
       <c r="H128" s="10"/>
     </row>
-    <row r="129" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A129" s="13"/>
       <c r="B129" s="40" t="s">
         <v>115</v>
@@ -5117,7 +5082,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="130" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A130" s="13"/>
       <c r="B130" s="40" t="s">
         <v>117</v>
@@ -5138,7 +5103,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="131" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A131" s="13"/>
       <c r="B131" s="40" t="s">
         <v>119</v>
@@ -5159,29 +5124,29 @@
         <v>45</v>
       </c>
     </row>
-    <row r="132" spans="1:8" s="26" customFormat="1" ht="121.55" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="162" t="s">
+    <row r="132" spans="1:8" s="26" customFormat="1" ht="121.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="108" t="s">
         <v>216</v>
       </c>
-      <c r="B132" s="163"/>
-      <c r="C132" s="163"/>
-      <c r="D132" s="163"/>
-      <c r="E132" s="163"/>
-      <c r="F132" s="163"/>
-      <c r="G132" s="164"/>
-    </row>
-    <row r="133" spans="1:8" s="3" customFormat="1" ht="105.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A133" s="165" t="s">
+      <c r="B132" s="109"/>
+      <c r="C132" s="109"/>
+      <c r="D132" s="109"/>
+      <c r="E132" s="109"/>
+      <c r="F132" s="109"/>
+      <c r="G132" s="110"/>
+    </row>
+    <row r="133" spans="1:8" s="3" customFormat="1" ht="105.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A133" s="111" t="s">
         <v>217</v>
       </c>
-      <c r="B133" s="166"/>
-      <c r="C133" s="166"/>
-      <c r="D133" s="166"/>
-      <c r="E133" s="166"/>
-      <c r="F133" s="166"/>
-      <c r="G133" s="167"/>
-    </row>
-    <row r="134" spans="1:8" s="3" customFormat="1" ht="105.7" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B133" s="112"/>
+      <c r="C133" s="112"/>
+      <c r="D133" s="112"/>
+      <c r="E133" s="112"/>
+      <c r="F133" s="112"/>
+      <c r="G133" s="113"/>
+    </row>
+    <row r="134" spans="1:8" s="3" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="60"/>
       <c r="B134" s="61"/>
       <c r="C134" s="61"/>
@@ -5190,16 +5155,16 @@
       <c r="F134" s="61"/>
       <c r="G134" s="61"/>
     </row>
-    <row r="135" spans="1:8" s="3" customFormat="1" ht="105.7" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="157" t="s">
+    <row r="135" spans="1:8" s="3" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="103" t="s">
         <v>218</v>
       </c>
-      <c r="B135" s="158"/>
-      <c r="C135" s="158"/>
-      <c r="D135" s="158"/>
-      <c r="E135" s="158"/>
-      <c r="F135" s="158"/>
-      <c r="G135" s="158"/>
+      <c r="B135" s="104"/>
+      <c r="C135" s="104"/>
+      <c r="D135" s="104"/>
+      <c r="E135" s="104"/>
+      <c r="F135" s="104"/>
+      <c r="G135" s="104"/>
     </row>
     <row r="136" spans="1:8" s="3" customFormat="1" ht="162" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="60"/>
@@ -5210,7 +5175,7 @@
       <c r="F136" s="61"/>
       <c r="G136" s="61"/>
     </row>
-    <row r="137" spans="1:8" s="3" customFormat="1" ht="105.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:8" s="3" customFormat="1" ht="105.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A137" s="60"/>
       <c r="B137" s="61"/>
       <c r="C137" s="61"/>
@@ -5219,68 +5184,68 @@
       <c r="F137" s="61"/>
       <c r="G137" s="61"/>
     </row>
-    <row r="138" spans="1:8" s="3" customFormat="1" ht="34.950000000000003" x14ac:dyDescent="0.5">
-      <c r="A138" s="124" t="s">
+    <row r="138" spans="1:8" s="3" customFormat="1" ht="35.25" x14ac:dyDescent="0.5">
+      <c r="A138" s="114" t="s">
         <v>125</v>
       </c>
-      <c r="B138" s="125"/>
-      <c r="C138" s="125"/>
-      <c r="D138" s="125"/>
-      <c r="E138" s="125"/>
-      <c r="F138" s="125"/>
-      <c r="G138" s="126"/>
-    </row>
-    <row r="139" spans="1:8" s="3" customFormat="1" ht="31.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A139" s="168" t="s">
+      <c r="B138" s="115"/>
+      <c r="C138" s="115"/>
+      <c r="D138" s="115"/>
+      <c r="E138" s="115"/>
+      <c r="F138" s="115"/>
+      <c r="G138" s="116"/>
+    </row>
+    <row r="139" spans="1:8" s="3" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A139" s="117" t="s">
         <v>124</v>
       </c>
-      <c r="B139" s="169"/>
-      <c r="C139" s="169"/>
-      <c r="D139" s="169"/>
-      <c r="E139" s="169"/>
-      <c r="F139" s="169"/>
-      <c r="G139" s="169"/>
-    </row>
-    <row r="140" spans="1:8" s="3" customFormat="1" ht="22.1" x14ac:dyDescent="0.35">
-      <c r="A140" s="78" t="s">
+      <c r="B139" s="118"/>
+      <c r="C139" s="118"/>
+      <c r="D139" s="118"/>
+      <c r="E139" s="118"/>
+      <c r="F139" s="118"/>
+      <c r="G139" s="118"/>
+    </row>
+    <row r="140" spans="1:8" s="3" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
+      <c r="A140" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B140" s="81" t="s">
+      <c r="B140" s="122" t="s">
         <v>47</v>
       </c>
-      <c r="C140" s="84" t="s">
+      <c r="C140" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="D140" s="87" t="s">
+      <c r="D140" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="E140" s="87"/>
-      <c r="F140" s="87"/>
-      <c r="G140" s="88"/>
+      <c r="E140" s="126"/>
+      <c r="F140" s="126"/>
+      <c r="G140" s="127"/>
       <c r="H140" s="10"/>
     </row>
-    <row r="141" spans="1:8" s="3" customFormat="1" ht="92.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A141" s="145"/>
-      <c r="B141" s="93"/>
-      <c r="C141" s="85"/>
+    <row r="141" spans="1:8" s="3" customFormat="1" ht="92.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A141" s="100"/>
+      <c r="B141" s="123"/>
+      <c r="C141" s="125"/>
       <c r="D141" s="24"/>
       <c r="E141" s="24"/>
       <c r="F141" s="24"/>
       <c r="G141" s="24"/>
       <c r="H141" s="10"/>
     </row>
-    <row r="142" spans="1:8" s="3" customFormat="1" ht="32.799999999999997" x14ac:dyDescent="0.5">
-      <c r="A142" s="170" t="s">
+    <row r="142" spans="1:8" s="3" customFormat="1" ht="33" x14ac:dyDescent="0.45">
+      <c r="A142" s="119" t="s">
         <v>126</v>
       </c>
-      <c r="B142" s="171"/>
-      <c r="C142" s="171"/>
-      <c r="D142" s="171"/>
-      <c r="E142" s="171"/>
-      <c r="F142" s="171"/>
-      <c r="G142" s="172"/>
-    </row>
-    <row r="143" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+      <c r="B142" s="120"/>
+      <c r="C142" s="120"/>
+      <c r="D142" s="120"/>
+      <c r="E142" s="120"/>
+      <c r="F142" s="120"/>
+      <c r="G142" s="121"/>
+    </row>
+    <row r="143" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A143" s="25">
         <v>1</v>
       </c>
@@ -5297,7 +5262,7 @@
       <c r="F143" s="37"/>
       <c r="G143" s="14"/>
     </row>
-    <row r="144" spans="1:8" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A144" s="25">
         <v>2</v>
       </c>
@@ -5314,7 +5279,7 @@
       <c r="F144" s="37"/>
       <c r="G144" s="14"/>
     </row>
-    <row r="145" spans="1:7" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A145" s="25">
         <v>3</v>
       </c>
@@ -5331,7 +5296,7 @@
       <c r="F145" s="37"/>
       <c r="G145" s="14"/>
     </row>
-    <row r="146" spans="1:7" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A146" s="25">
         <v>4</v>
       </c>
@@ -5348,7 +5313,7 @@
       <c r="F146" s="37"/>
       <c r="G146" s="14"/>
     </row>
-    <row r="147" spans="1:7" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A147" s="25">
         <v>5</v>
       </c>
@@ -5365,7 +5330,7 @@
       <c r="F147" s="37"/>
       <c r="G147" s="14"/>
     </row>
-    <row r="148" spans="1:7" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A148" s="25">
         <v>6</v>
       </c>
@@ -5382,7 +5347,7 @@
       <c r="F148" s="37"/>
       <c r="G148" s="14"/>
     </row>
-    <row r="149" spans="1:7" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A149" s="25">
         <v>7</v>
       </c>
@@ -5399,7 +5364,7 @@
       <c r="F149" s="37"/>
       <c r="G149" s="14"/>
     </row>
-    <row r="150" spans="1:7" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A150" s="25">
         <v>8</v>
       </c>
@@ -5416,7 +5381,7 @@
       <c r="F150" s="37"/>
       <c r="G150" s="14"/>
     </row>
-    <row r="151" spans="1:7" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A151" s="25">
         <v>9</v>
       </c>
@@ -5433,7 +5398,7 @@
       <c r="F151" s="37"/>
       <c r="G151" s="14"/>
     </row>
-    <row r="152" spans="1:7" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A152" s="25">
         <v>10</v>
       </c>
@@ -5450,7 +5415,7 @@
       <c r="F152" s="37"/>
       <c r="G152" s="14"/>
     </row>
-    <row r="153" spans="1:7" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A153" s="25">
         <v>11</v>
       </c>
@@ -5467,7 +5432,7 @@
       <c r="F153" s="37"/>
       <c r="G153" s="14"/>
     </row>
-    <row r="154" spans="1:7" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A154" s="25">
         <v>12</v>
       </c>
@@ -5484,7 +5449,7 @@
       <c r="F154" s="37"/>
       <c r="G154" s="14"/>
     </row>
-    <row r="155" spans="1:7" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A155" s="25">
         <v>13</v>
       </c>
@@ -5501,7 +5466,7 @@
       <c r="F155" s="37"/>
       <c r="G155" s="14"/>
     </row>
-    <row r="156" spans="1:7" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A156" s="25">
         <v>14</v>
       </c>
@@ -5518,7 +5483,7 @@
       <c r="F156" s="37"/>
       <c r="G156" s="14"/>
     </row>
-    <row r="157" spans="1:7" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A157" s="25">
         <v>15</v>
       </c>
@@ -5535,7 +5500,7 @@
       <c r="F157" s="37"/>
       <c r="G157" s="14"/>
     </row>
-    <row r="158" spans="1:7" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A158" s="25">
         <v>16</v>
       </c>
@@ -5552,7 +5517,7 @@
       <c r="F158" s="37"/>
       <c r="G158" s="14"/>
     </row>
-    <row r="159" spans="1:7" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A159" s="25">
         <v>17</v>
       </c>
@@ -5569,7 +5534,7 @@
       <c r="F159" s="37"/>
       <c r="G159" s="14"/>
     </row>
-    <row r="160" spans="1:7" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A160" s="25">
         <v>18</v>
       </c>
@@ -5586,7 +5551,7 @@
       <c r="F160" s="37"/>
       <c r="G160" s="14"/>
     </row>
-    <row r="161" spans="1:7" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A161" s="25">
         <v>19</v>
       </c>
@@ -5603,7 +5568,7 @@
       <c r="F161" s="37"/>
       <c r="G161" s="14"/>
     </row>
-    <row r="162" spans="1:7" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A162" s="25">
         <v>20</v>
       </c>
@@ -5620,7 +5585,7 @@
       <c r="F162" s="37"/>
       <c r="G162" s="14"/>
     </row>
-    <row r="163" spans="1:7" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A163" s="25">
         <v>21</v>
       </c>
@@ -5637,7 +5602,7 @@
       <c r="F163" s="37"/>
       <c r="G163" s="14"/>
     </row>
-    <row r="164" spans="1:7" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A164" s="25">
         <v>22</v>
       </c>
@@ -5654,7 +5619,7 @@
       <c r="F164" s="37"/>
       <c r="G164" s="14"/>
     </row>
-    <row r="165" spans="1:7" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A165" s="25">
         <v>23</v>
       </c>
@@ -5671,7 +5636,7 @@
       <c r="F165" s="37"/>
       <c r="G165" s="14"/>
     </row>
-    <row r="166" spans="1:7" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A166" s="25">
         <v>24</v>
       </c>
@@ -5688,7 +5653,7 @@
       <c r="F166" s="37"/>
       <c r="G166" s="14"/>
     </row>
-    <row r="167" spans="1:7" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A167" s="25">
         <v>25</v>
       </c>
@@ -5705,7 +5670,7 @@
       <c r="F167" s="37"/>
       <c r="G167" s="14"/>
     </row>
-    <row r="168" spans="1:7" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A168" s="25">
         <v>26</v>
       </c>
@@ -5722,7 +5687,7 @@
       <c r="F168" s="37"/>
       <c r="G168" s="14"/>
     </row>
-    <row r="169" spans="1:7" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A169" s="25">
         <v>27</v>
       </c>
@@ -5739,7 +5704,7 @@
       <c r="F169" s="37"/>
       <c r="G169" s="14"/>
     </row>
-    <row r="170" spans="1:7" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A170" s="25">
         <v>28</v>
       </c>
@@ -5756,7 +5721,7 @@
       <c r="F170" s="37"/>
       <c r="G170" s="14"/>
     </row>
-    <row r="171" spans="1:7" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A171" s="25">
         <v>29</v>
       </c>
@@ -5773,7 +5738,7 @@
       <c r="F171" s="37"/>
       <c r="G171" s="14"/>
     </row>
-    <row r="172" spans="1:7" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A172" s="25">
         <v>30</v>
       </c>
@@ -5790,7 +5755,7 @@
       <c r="F172" s="37"/>
       <c r="G172" s="14"/>
     </row>
-    <row r="173" spans="1:7" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A173" s="25">
         <v>31</v>
       </c>
@@ -5807,7 +5772,7 @@
       <c r="F173" s="37"/>
       <c r="G173" s="14"/>
     </row>
-    <row r="174" spans="1:7" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A174" s="25">
         <v>32</v>
       </c>
@@ -5824,7 +5789,7 @@
       <c r="F174" s="37"/>
       <c r="G174" s="14"/>
     </row>
-    <row r="175" spans="1:7" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A175" s="25">
         <v>33</v>
       </c>
@@ -5841,7 +5806,7 @@
       <c r="F175" s="37"/>
       <c r="G175" s="14"/>
     </row>
-    <row r="176" spans="1:7" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A176" s="25">
         <v>34</v>
       </c>
@@ -5858,7 +5823,7 @@
       <c r="F176" s="37"/>
       <c r="G176" s="14"/>
     </row>
-    <row r="177" spans="1:7" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A177" s="25">
         <v>35</v>
       </c>
@@ -5875,7 +5840,7 @@
       <c r="F177" s="37"/>
       <c r="G177" s="14"/>
     </row>
-    <row r="178" spans="1:7" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A178" s="25">
         <v>36</v>
       </c>
@@ -5892,7 +5857,7 @@
       <c r="F178" s="37"/>
       <c r="G178" s="14"/>
     </row>
-    <row r="179" spans="1:7" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A179" s="25">
         <v>37</v>
       </c>
@@ -5909,7 +5874,7 @@
       <c r="F179" s="37"/>
       <c r="G179" s="14"/>
     </row>
-    <row r="180" spans="1:7" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A180" s="25">
         <v>38</v>
       </c>
@@ -5926,7 +5891,7 @@
       <c r="F180" s="37"/>
       <c r="G180" s="14"/>
     </row>
-    <row r="181" spans="1:7" s="3" customFormat="1" ht="27.8" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:7" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A181" s="25">
         <v>39</v>
       </c>
@@ -5943,63 +5908,145 @@
       <c r="F181" s="37"/>
       <c r="G181" s="14"/>
     </row>
-    <row r="182" spans="1:7" s="3" customFormat="1" ht="26.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A182" s="189" t="s">
+    <row r="182" spans="1:7" s="3" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A182" s="101" t="s">
         <v>205</v>
       </c>
-      <c r="B182" s="190"/>
-      <c r="C182" s="190"/>
-      <c r="D182" s="190"/>
-      <c r="E182" s="190"/>
-      <c r="F182" s="190"/>
-      <c r="G182" s="190"/>
-    </row>
-    <row r="183" spans="1:7" s="3" customFormat="1" ht="26.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A183" s="189" t="s">
+      <c r="B182" s="102"/>
+      <c r="C182" s="102"/>
+      <c r="D182" s="102"/>
+      <c r="E182" s="102"/>
+      <c r="F182" s="102"/>
+      <c r="G182" s="102"/>
+    </row>
+    <row r="183" spans="1:7" s="3" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A183" s="101" t="s">
         <v>206</v>
       </c>
-      <c r="B183" s="190"/>
-      <c r="C183" s="190"/>
-      <c r="D183" s="190"/>
-      <c r="E183" s="190"/>
-      <c r="F183" s="190"/>
-      <c r="G183" s="190"/>
-    </row>
-    <row r="184" spans="1:7" s="3" customFormat="1" ht="30.65" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A184" s="159" t="s">
+      <c r="B183" s="102"/>
+      <c r="C183" s="102"/>
+      <c r="D183" s="102"/>
+      <c r="E183" s="102"/>
+      <c r="F183" s="102"/>
+      <c r="G183" s="102"/>
+    </row>
+    <row r="184" spans="1:7" s="3" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A184" s="105" t="s">
         <v>202</v>
       </c>
-      <c r="B184" s="160"/>
-      <c r="C184" s="160"/>
-      <c r="D184" s="160"/>
-      <c r="E184" s="160"/>
-      <c r="F184" s="160"/>
-      <c r="G184" s="161"/>
-    </row>
-    <row r="185" spans="1:7" s="3" customFormat="1" ht="30.65" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A185" s="159" t="s">
+      <c r="B184" s="106"/>
+      <c r="C184" s="106"/>
+      <c r="D184" s="106"/>
+      <c r="E184" s="106"/>
+      <c r="F184" s="106"/>
+      <c r="G184" s="107"/>
+    </row>
+    <row r="185" spans="1:7" s="3" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A185" s="105" t="s">
         <v>203</v>
       </c>
-      <c r="B185" s="160"/>
-      <c r="C185" s="160"/>
-      <c r="D185" s="160"/>
-      <c r="E185" s="160"/>
-      <c r="F185" s="160"/>
-      <c r="G185" s="161"/>
-    </row>
-    <row r="186" spans="1:7" s="3" customFormat="1" ht="29.95" x14ac:dyDescent="0.4">
-      <c r="A186" s="173" t="s">
+      <c r="B185" s="106"/>
+      <c r="C185" s="106"/>
+      <c r="D185" s="106"/>
+      <c r="E185" s="106"/>
+      <c r="F185" s="106"/>
+      <c r="G185" s="107"/>
+    </row>
+    <row r="186" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.4">
+      <c r="A186" s="74" t="s">
         <v>204</v>
       </c>
-      <c r="B186" s="174"/>
-      <c r="C186" s="174"/>
-      <c r="D186" s="174"/>
-      <c r="E186" s="174"/>
-      <c r="F186" s="174"/>
-      <c r="G186" s="175"/>
+      <c r="B186" s="75"/>
+      <c r="C186" s="75"/>
+      <c r="D186" s="75"/>
+      <c r="E186" s="75"/>
+      <c r="F186" s="75"/>
+      <c r="G186" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="98">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A46:G46"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="A69:G69"/>
+    <mergeCell ref="A68:G68"/>
+    <mergeCell ref="A102:G102"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="D70:G70"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="A101:G101"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="C103:C105"/>
+    <mergeCell ref="D103:G103"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="F104:G104"/>
+    <mergeCell ref="A115:G115"/>
+    <mergeCell ref="A125:G125"/>
+    <mergeCell ref="A117:G117"/>
+    <mergeCell ref="A118:A120"/>
+    <mergeCell ref="B118:B120"/>
+    <mergeCell ref="C118:C120"/>
+    <mergeCell ref="D118:G118"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="F119:G119"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="F116:G116"/>
+    <mergeCell ref="B126:B128"/>
+    <mergeCell ref="C126:C128"/>
+    <mergeCell ref="D126:G126"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="E128:G128"/>
+    <mergeCell ref="E127:G127"/>
+    <mergeCell ref="A135:G135"/>
+    <mergeCell ref="A184:G184"/>
+    <mergeCell ref="A185:G185"/>
+    <mergeCell ref="A132:G132"/>
+    <mergeCell ref="A133:G133"/>
+    <mergeCell ref="A138:G138"/>
+    <mergeCell ref="A139:G139"/>
+    <mergeCell ref="A142:G142"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="D140:G140"/>
     <mergeCell ref="A186:G186"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="D24:E24"/>
@@ -6016,88 +6063,6 @@
     <mergeCell ref="A126:A128"/>
     <mergeCell ref="A182:G182"/>
     <mergeCell ref="A183:G183"/>
-    <mergeCell ref="A135:G135"/>
-    <mergeCell ref="A184:G184"/>
-    <mergeCell ref="A185:G185"/>
-    <mergeCell ref="A132:G132"/>
-    <mergeCell ref="A133:G133"/>
-    <mergeCell ref="A138:G138"/>
-    <mergeCell ref="A139:G139"/>
-    <mergeCell ref="A142:G142"/>
-    <mergeCell ref="A140:A141"/>
-    <mergeCell ref="B140:B141"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="D140:G140"/>
-    <mergeCell ref="B126:B128"/>
-    <mergeCell ref="C126:C128"/>
-    <mergeCell ref="D126:G126"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="E128:G128"/>
-    <mergeCell ref="E127:G127"/>
-    <mergeCell ref="A115:G115"/>
-    <mergeCell ref="A125:G125"/>
-    <mergeCell ref="A117:G117"/>
-    <mergeCell ref="A118:A120"/>
-    <mergeCell ref="B118:B120"/>
-    <mergeCell ref="C118:C120"/>
-    <mergeCell ref="D118:G118"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="F119:G119"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="F116:G116"/>
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="C103:C105"/>
-    <mergeCell ref="D103:G103"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="F104:G104"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="A69:G69"/>
-    <mergeCell ref="A68:G68"/>
-    <mergeCell ref="A102:G102"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="D70:G70"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="A101:G101"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A46:G46"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="D38:D39"/>
   </mergeCells>
   <pageMargins left="0.46" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="41" orientation="portrait" r:id="rId1"/>
@@ -6108,21 +6073,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD269D3E-B516-41F0-91FC-77D72CE7417A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.85" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.25" customWidth="1"/>
-    <col min="2" max="2" width="25.125" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.55" x14ac:dyDescent="0.3">
-      <c r="A1" s="191" t="s">
+    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="71" t="s">
         <v>6</v>
       </c>
       <c r="B1" t="str">
@@ -6130,74 +6095,130 @@
         <v>"74009.10-400 (ЕВРО-0)",</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18.55" x14ac:dyDescent="0.3">
-      <c r="A2" s="191" t="s">
+    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="71" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="18.55" x14ac:dyDescent="0.3">
-      <c r="A3" s="191" t="s">
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:B15" si="0">""""&amp;A2&amp;""""&amp;","</f>
+        <v>"74009.10-403 (УРАЛ)",</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="71" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="18.55" x14ac:dyDescent="0.3">
-      <c r="A4" s="191" t="s">
+      <c r="B3" t="str">
+        <f t="shared" si="0"/>
+        <v>"74039.10-400 (турбо)",</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="71" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="18.55" x14ac:dyDescent="0.3">
-      <c r="A5" s="192" t="s">
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>"740.11-400 (ЕВРО-1)",</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="72" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="18.55" x14ac:dyDescent="0.3">
-      <c r="A6" s="192" t="s">
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>"740.13-400 (ЕВРО-1)",</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="72" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="18.55" x14ac:dyDescent="0.3">
-      <c r="A7" s="192" t="s">
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>"740.30-400 (ЕВРО-2)",</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="72" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="18.55" x14ac:dyDescent="0.3">
-      <c r="A8" s="192" t="s">
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>"740.31-400 (ЕВРО-2)",</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="72" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="18.55" x14ac:dyDescent="0.3">
-      <c r="A9" s="192" t="s">
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>"740.50-400 (ЕВРО-2)",</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="72" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="18.55" x14ac:dyDescent="0.3">
-      <c r="A10" s="193" t="s">
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>"740.51-400 (ЕВРО-2)",</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="73" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="18.55" x14ac:dyDescent="0.3">
-      <c r="A11" s="192" t="s">
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>"740.62-400 (ЕВРО-2)",</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="72" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="18.55" x14ac:dyDescent="0.3">
-      <c r="A12" s="192" t="s">
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>"4ISBe 185 1ая",</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="72" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="18.55" x14ac:dyDescent="0.3">
-      <c r="A13" s="192" t="s">
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>"6ISBe 185 1ая",</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="72" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="18.55" x14ac:dyDescent="0.3">
-      <c r="A14" s="192" t="s">
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>"6ISBe 210 1ая",</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="72" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="18.55" x14ac:dyDescent="0.3">
-      <c r="A15" s="192" t="s">
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>"6ISBe 285 1ая",</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="72" t="s">
         <v>184</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>"6ISBe 300 1ая",</v>
       </c>
     </row>
   </sheetData>

--- a/agregat/assets/docs/Прайс ЧелныАгрегатЦентр 01 2019.xlsx
+++ b/agregat/assets/docs/Прайс ЧелныАгрегатЦентр 01 2019.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\drsk0211.github.io\agregat\assets\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Documents\GitHub\drsk0211.github.io\agregat\assets\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Прейскурант c 01.01.16'!$A$1:$G$186</definedName>
   </definedNames>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="152511" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="244">
   <si>
     <t>№ п/п</t>
   </si>
@@ -772,7 +772,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="7">
     <numFmt numFmtId="164" formatCode="_-* #,##0\ &quot;р.&quot;_-;\-* #,##0\ &quot;р.&quot;_-;_-* &quot;-&quot;\ &quot;р.&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0\ _р_._-;\-* #,##0\ _р_._-;_-* &quot;-&quot;\ _р_._-;_-@_-"/>
@@ -782,7 +782,7 @@
     <numFmt numFmtId="169" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
     <numFmt numFmtId="170" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1022,12 +1022,6 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1762,7 +1756,7 @@
     <xf numFmtId="40" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="168" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="194">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1928,9 +1922,312 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="23" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="27" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="27" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="27" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="16" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="20" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1973,323 +2270,17 @@
     <xf numFmtId="0" fontId="33" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="16" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="20" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="27" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="27" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="27" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="23" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="29">
@@ -2625,8 +2616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H186"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A69" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2642,27 +2633,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.4">
-      <c r="A1" s="188" t="s">
+      <c r="A1" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="188"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
       <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="188" t="s">
+      <c r="A2" s="71" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="188"/>
-      <c r="C2" s="188"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="188"/>
-      <c r="F2" s="188"/>
-      <c r="G2" s="188"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -2676,45 +2667,45 @@
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="122" t="s">
+      <c r="B4" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="124" t="s">
+      <c r="C4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="126" t="s">
+      <c r="D4" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="126"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="127"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="82"/>
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" s="3" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="99"/>
-      <c r="B5" s="128"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="123" t="s">
+      <c r="A5" s="73"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="87" t="s">
         <v>232</v>
       </c>
-      <c r="E5" s="143" t="s">
+      <c r="E5" s="85" t="s">
         <v>222</v>
       </c>
-      <c r="F5" s="145" t="s">
+      <c r="F5" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="146"/>
+      <c r="G5" s="84"/>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" s="3" customFormat="1" ht="135.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="179"/>
-      <c r="B6" s="140"/>
-      <c r="C6" s="141"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="160"/>
+      <c r="A6" s="74"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="86"/>
       <c r="F6" s="23" t="s">
         <v>221</v>
       </c>
@@ -2724,15 +2715,15 @@
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" s="3" customFormat="1" ht="36" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="183" t="s">
+      <c r="A7" s="95" t="s">
         <v>173</v>
       </c>
-      <c r="B7" s="184"/>
-      <c r="C7" s="184"/>
-      <c r="D7" s="184"/>
-      <c r="E7" s="184"/>
-      <c r="F7" s="184"/>
-      <c r="G7" s="185"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="97"/>
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
@@ -2808,15 +2799,15 @@
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" s="3" customFormat="1" ht="35.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="186" t="s">
+      <c r="A11" s="98" t="s">
         <v>174</v>
       </c>
-      <c r="B11" s="88"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="187"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="100"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" s="3" customFormat="1" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -3072,106 +3063,106 @@
       <c r="H22" s="42"/>
     </row>
     <row r="23" spans="1:8" s="27" customFormat="1" ht="27.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="178" t="s">
+      <c r="A23" s="108" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="178"/>
-      <c r="C23" s="178"/>
-      <c r="D23" s="178"/>
-      <c r="E23" s="178"/>
-      <c r="F23" s="178"/>
-      <c r="G23" s="178"/>
+      <c r="B23" s="108"/>
+      <c r="C23" s="108"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="108"/>
+      <c r="F23" s="108"/>
+      <c r="G23" s="108"/>
       <c r="H23" s="43"/>
     </row>
     <row r="24" spans="1:8" s="3" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A24" s="32"/>
-      <c r="B24" s="77" t="s">
+      <c r="B24" s="176" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="78"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="80">
+      <c r="C24" s="177"/>
+      <c r="D24" s="178"/>
+      <c r="E24" s="178"/>
+      <c r="F24" s="179">
         <v>1500</v>
       </c>
-      <c r="G24" s="81"/>
+      <c r="G24" s="180"/>
       <c r="H24" s="18"/>
     </row>
     <row r="25" spans="1:8" s="3" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="35"/>
-      <c r="B25" s="82" t="s">
+      <c r="B25" s="181" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="83"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="85">
+      <c r="C25" s="182"/>
+      <c r="D25" s="183"/>
+      <c r="E25" s="183"/>
+      <c r="F25" s="184">
         <v>2500</v>
       </c>
-      <c r="G25" s="86"/>
+      <c r="G25" s="185"/>
       <c r="H25" s="18"/>
     </row>
     <row r="26" spans="1:8" ht="34.700000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="87" t="s">
+      <c r="A26" s="186" t="s">
         <v>188</v>
       </c>
-      <c r="B26" s="88"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="89"/>
+      <c r="B26" s="99"/>
+      <c r="C26" s="99"/>
+      <c r="D26" s="99"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="187"/>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8" s="3" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="90" t="s">
+      <c r="A27" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="91" t="s">
+      <c r="B27" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="93" t="s">
+      <c r="C27" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="95" t="s">
+      <c r="D27" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="95"/>
-      <c r="F27" s="95"/>
-      <c r="G27" s="96"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="90"/>
       <c r="H27" s="10"/>
     </row>
     <row r="28" spans="1:8" s="3" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="90"/>
-      <c r="B28" s="90"/>
-      <c r="C28" s="94"/>
-      <c r="D28" s="90" t="s">
+      <c r="A28" s="125"/>
+      <c r="B28" s="125"/>
+      <c r="C28" s="128"/>
+      <c r="D28" s="125" t="s">
         <v>187</v>
       </c>
-      <c r="E28" s="192" t="s">
+      <c r="E28" s="103" t="s">
         <v>235</v>
       </c>
-      <c r="F28" s="193"/>
-      <c r="G28" s="190" t="s">
+      <c r="F28" s="104"/>
+      <c r="G28" s="101" t="s">
         <v>233</v>
       </c>
-      <c r="H28" s="191"/>
+      <c r="H28" s="102"/>
     </row>
     <row r="29" spans="1:8" s="3" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="90"/>
-      <c r="B29" s="92"/>
-      <c r="C29" s="94"/>
-      <c r="D29" s="97"/>
+      <c r="A29" s="125"/>
+      <c r="B29" s="126"/>
+      <c r="C29" s="128"/>
+      <c r="D29" s="188"/>
       <c r="E29" s="68" t="s">
         <v>236</v>
       </c>
       <c r="F29" s="68" t="s">
         <v>237</v>
       </c>
-      <c r="G29" s="190" t="s">
+      <c r="G29" s="101" t="s">
         <v>234</v>
       </c>
-      <c r="H29" s="191"/>
+      <c r="H29" s="102"/>
     </row>
     <row r="30" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="12">
@@ -3294,69 +3285,69 @@
       <c r="H34" s="2"/>
     </row>
     <row r="35" spans="1:8" s="3" customFormat="1" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="180" t="s">
+      <c r="A35" s="109" t="s">
         <v>219</v>
       </c>
-      <c r="B35" s="181"/>
-      <c r="C35" s="181"/>
-      <c r="D35" s="181"/>
-      <c r="E35" s="181"/>
-      <c r="F35" s="181"/>
-      <c r="G35" s="182"/>
+      <c r="B35" s="110"/>
+      <c r="C35" s="110"/>
+      <c r="D35" s="110"/>
+      <c r="E35" s="110"/>
+      <c r="F35" s="110"/>
+      <c r="G35" s="111"/>
       <c r="H35" s="10"/>
     </row>
     <row r="36" spans="1:8" s="3" customFormat="1" ht="35.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A36" s="175" t="s">
+      <c r="A36" s="105" t="s">
         <v>177</v>
       </c>
-      <c r="B36" s="176"/>
-      <c r="C36" s="176"/>
-      <c r="D36" s="176"/>
-      <c r="E36" s="176"/>
-      <c r="F36" s="176"/>
-      <c r="G36" s="177"/>
+      <c r="B36" s="106"/>
+      <c r="C36" s="106"/>
+      <c r="D36" s="106"/>
+      <c r="E36" s="106"/>
+      <c r="F36" s="106"/>
+      <c r="G36" s="107"/>
       <c r="H36" s="10"/>
     </row>
     <row r="37" spans="1:8" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="98" t="s">
+      <c r="A37" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="122" t="s">
+      <c r="B37" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="124" t="s">
+      <c r="C37" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="126" t="s">
+      <c r="D37" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="E37" s="126"/>
-      <c r="F37" s="126"/>
-      <c r="G37" s="127"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="82"/>
       <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8" s="3" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="99"/>
-      <c r="B38" s="128"/>
-      <c r="C38" s="125"/>
-      <c r="D38" s="123" t="s">
+      <c r="A38" s="73"/>
+      <c r="B38" s="76"/>
+      <c r="C38" s="79"/>
+      <c r="D38" s="87" t="s">
         <v>238</v>
       </c>
-      <c r="E38" s="143" t="s">
+      <c r="E38" s="85" t="s">
         <v>239</v>
       </c>
-      <c r="F38" s="145" t="s">
+      <c r="F38" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="G38" s="146"/>
+      <c r="G38" s="84"/>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="1:8" s="3" customFormat="1" ht="113.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="179"/>
-      <c r="B39" s="140"/>
-      <c r="C39" s="141"/>
-      <c r="D39" s="189"/>
-      <c r="E39" s="160"/>
+    <row r="39" spans="1:8" s="3" customFormat="1" ht="135.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="74"/>
+      <c r="B39" s="77"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="88"/>
+      <c r="E39" s="86"/>
       <c r="F39" s="23" t="s">
         <v>227</v>
       </c>
@@ -3438,15 +3429,15 @@
       <c r="H42" s="10"/>
     </row>
     <row r="43" spans="1:8" s="3" customFormat="1" ht="35.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A43" s="175" t="s">
+      <c r="A43" s="105" t="s">
         <v>189</v>
       </c>
-      <c r="B43" s="176"/>
-      <c r="C43" s="176"/>
-      <c r="D43" s="176"/>
-      <c r="E43" s="176"/>
-      <c r="F43" s="176"/>
-      <c r="G43" s="177"/>
+      <c r="B43" s="106"/>
+      <c r="C43" s="106"/>
+      <c r="D43" s="106"/>
+      <c r="E43" s="106"/>
+      <c r="F43" s="106"/>
+      <c r="G43" s="107"/>
       <c r="H43" s="10"/>
     </row>
     <row r="44" spans="1:8" s="3" customFormat="1" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -3498,57 +3489,57 @@
       <c r="H45" s="10"/>
     </row>
     <row r="46" spans="1:8" s="3" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="183" t="s">
+      <c r="A46" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="184"/>
-      <c r="C46" s="184"/>
-      <c r="D46" s="184"/>
-      <c r="E46" s="184"/>
-      <c r="F46" s="184"/>
-      <c r="G46" s="185"/>
+      <c r="B46" s="96"/>
+      <c r="C46" s="96"/>
+      <c r="D46" s="96"/>
+      <c r="E46" s="96"/>
+      <c r="F46" s="96"/>
+      <c r="G46" s="97"/>
       <c r="H46" s="10"/>
     </row>
     <row r="47" spans="1:8" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="164" t="s">
+      <c r="A47" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="91" t="s">
+      <c r="B47" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="93" t="s">
+      <c r="C47" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="95" t="s">
+      <c r="D47" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="E47" s="95"/>
-      <c r="F47" s="95"/>
-      <c r="G47" s="96"/>
+      <c r="E47" s="89"/>
+      <c r="F47" s="89"/>
+      <c r="G47" s="90"/>
       <c r="H47" s="10"/>
     </row>
     <row r="48" spans="1:8" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="165"/>
-      <c r="B48" s="90"/>
-      <c r="C48" s="94"/>
-      <c r="D48" s="168" t="s">
+      <c r="A48" s="122"/>
+      <c r="B48" s="125"/>
+      <c r="C48" s="128"/>
+      <c r="D48" s="91" t="s">
         <v>75</v>
       </c>
-      <c r="E48" s="168" t="s">
+      <c r="E48" s="91" t="s">
         <v>241</v>
       </c>
-      <c r="F48" s="170" t="s">
+      <c r="F48" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="G48" s="171"/>
+      <c r="G48" s="94"/>
       <c r="H48" s="10"/>
     </row>
     <row r="49" spans="1:8" s="3" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="166"/>
-      <c r="B49" s="92"/>
-      <c r="C49" s="167"/>
-      <c r="D49" s="169"/>
-      <c r="E49" s="169"/>
+      <c r="A49" s="123"/>
+      <c r="B49" s="126"/>
+      <c r="C49" s="129"/>
+      <c r="D49" s="92"/>
+      <c r="E49" s="92"/>
       <c r="F49" s="50" t="s">
         <v>49</v>
       </c>
@@ -3918,67 +3909,67 @@
       <c r="H67" s="10"/>
     </row>
     <row r="68" spans="1:8" s="3" customFormat="1" ht="81.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="161" t="s">
+      <c r="A68" s="115" t="s">
         <v>208</v>
       </c>
-      <c r="B68" s="162"/>
-      <c r="C68" s="162"/>
-      <c r="D68" s="162"/>
-      <c r="E68" s="162"/>
-      <c r="F68" s="162"/>
-      <c r="G68" s="163"/>
+      <c r="B68" s="116"/>
+      <c r="C68" s="116"/>
+      <c r="D68" s="116"/>
+      <c r="E68" s="116"/>
+      <c r="F68" s="116"/>
+      <c r="G68" s="117"/>
       <c r="H68" s="10"/>
     </row>
     <row r="69" spans="1:8" s="3" customFormat="1" ht="36" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="114" t="s">
+      <c r="A69" s="112" t="s">
         <v>77</v>
       </c>
-      <c r="B69" s="115"/>
-      <c r="C69" s="115"/>
-      <c r="D69" s="115"/>
-      <c r="E69" s="115"/>
-      <c r="F69" s="115"/>
-      <c r="G69" s="116"/>
+      <c r="B69" s="113"/>
+      <c r="C69" s="113"/>
+      <c r="D69" s="113"/>
+      <c r="E69" s="113"/>
+      <c r="F69" s="113"/>
+      <c r="G69" s="114"/>
       <c r="H69" s="10"/>
     </row>
     <row r="70" spans="1:8" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A70" s="164" t="s">
+      <c r="A70" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="B70" s="91" t="s">
+      <c r="B70" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="C70" s="93" t="s">
+      <c r="C70" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="D70" s="95" t="s">
+      <c r="D70" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="E70" s="95"/>
-      <c r="F70" s="95"/>
-      <c r="G70" s="96"/>
+      <c r="E70" s="89"/>
+      <c r="F70" s="89"/>
+      <c r="G70" s="90"/>
       <c r="H70" s="10"/>
     </row>
     <row r="71" spans="1:8" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A71" s="165"/>
-      <c r="B71" s="90"/>
-      <c r="C71" s="94"/>
-      <c r="D71" s="168" t="s">
+      <c r="A71" s="122"/>
+      <c r="B71" s="125"/>
+      <c r="C71" s="128"/>
+      <c r="D71" s="91" t="s">
         <v>100</v>
       </c>
-      <c r="E71" s="168"/>
-      <c r="F71" s="170" t="s">
+      <c r="E71" s="91"/>
+      <c r="F71" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="G71" s="171"/>
+      <c r="G71" s="94"/>
       <c r="H71" s="10"/>
     </row>
     <row r="72" spans="1:8" s="3" customFormat="1" ht="117.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="166"/>
-      <c r="B72" s="92"/>
-      <c r="C72" s="167"/>
-      <c r="D72" s="169"/>
-      <c r="E72" s="169"/>
+      <c r="A72" s="123"/>
+      <c r="B72" s="126"/>
+      <c r="C72" s="129"/>
+      <c r="D72" s="92"/>
+      <c r="E72" s="92"/>
       <c r="F72" s="23" t="s">
         <v>242</v>
       </c>
@@ -4586,65 +4577,65 @@
       </c>
     </row>
     <row r="101" spans="1:8" s="3" customFormat="1" ht="105.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A101" s="172" t="s">
+      <c r="A101" s="130" t="s">
         <v>193</v>
       </c>
-      <c r="B101" s="173"/>
-      <c r="C101" s="173"/>
-      <c r="D101" s="173"/>
-      <c r="E101" s="173"/>
-      <c r="F101" s="173"/>
-      <c r="G101" s="174"/>
+      <c r="B101" s="131"/>
+      <c r="C101" s="131"/>
+      <c r="D101" s="131"/>
+      <c r="E101" s="131"/>
+      <c r="F101" s="131"/>
+      <c r="G101" s="132"/>
     </row>
     <row r="102" spans="1:8" s="3" customFormat="1" ht="35.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A102" s="137" t="s">
+      <c r="A102" s="118" t="s">
         <v>101</v>
       </c>
-      <c r="B102" s="138"/>
-      <c r="C102" s="138"/>
-      <c r="D102" s="138"/>
-      <c r="E102" s="138"/>
-      <c r="F102" s="138"/>
-      <c r="G102" s="139"/>
+      <c r="B102" s="119"/>
+      <c r="C102" s="119"/>
+      <c r="D102" s="119"/>
+      <c r="E102" s="119"/>
+      <c r="F102" s="119"/>
+      <c r="G102" s="120"/>
     </row>
     <row r="103" spans="1:8" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="152" t="s">
+      <c r="A103" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="B103" s="155" t="s">
+      <c r="B103" s="136" t="s">
         <v>47</v>
       </c>
-      <c r="C103" s="124" t="s">
+      <c r="C103" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="D103" s="157" t="s">
+      <c r="D103" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="E103" s="158"/>
-      <c r="F103" s="158"/>
-      <c r="G103" s="159"/>
+      <c r="E103" s="140"/>
+      <c r="F103" s="140"/>
+      <c r="G103" s="141"/>
       <c r="H103" s="10"/>
     </row>
     <row r="104" spans="1:8" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="153"/>
-      <c r="B104" s="156"/>
-      <c r="C104" s="125"/>
-      <c r="D104" s="123" t="s">
+      <c r="A104" s="134"/>
+      <c r="B104" s="137"/>
+      <c r="C104" s="79"/>
+      <c r="D104" s="87" t="s">
         <v>100</v>
       </c>
-      <c r="E104" s="143"/>
-      <c r="F104" s="145" t="s">
+      <c r="E104" s="85"/>
+      <c r="F104" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="G104" s="146"/>
+      <c r="G104" s="84"/>
       <c r="H104" s="10"/>
     </row>
     <row r="105" spans="1:8" s="3" customFormat="1" ht="113.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A105" s="154"/>
-      <c r="B105" s="142"/>
-      <c r="C105" s="141"/>
-      <c r="D105" s="142"/>
-      <c r="E105" s="144"/>
+      <c r="A105" s="135"/>
+      <c r="B105" s="138"/>
+      <c r="C105" s="80"/>
+      <c r="D105" s="138"/>
+      <c r="E105" s="142"/>
       <c r="F105" s="23" t="s">
         <v>242</v>
       </c>
@@ -4843,79 +4834,79 @@
       </c>
     </row>
     <row r="115" spans="1:8" s="3" customFormat="1" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A115" s="135" t="s">
+      <c r="A115" s="143" t="s">
         <v>113</v>
       </c>
-      <c r="B115" s="136"/>
-      <c r="C115" s="136"/>
-      <c r="D115" s="136"/>
-      <c r="E115" s="136"/>
-      <c r="F115" s="136"/>
-      <c r="G115" s="136"/>
+      <c r="B115" s="144"/>
+      <c r="C115" s="144"/>
+      <c r="D115" s="144"/>
+      <c r="E115" s="144"/>
+      <c r="F115" s="144"/>
+      <c r="G115" s="144"/>
     </row>
     <row r="116" spans="1:8" s="3" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A116" s="59"/>
-      <c r="B116" s="147" t="s">
+      <c r="B116" s="146" t="s">
         <v>112</v>
       </c>
-      <c r="C116" s="148"/>
-      <c r="D116" s="149"/>
-      <c r="E116" s="149"/>
-      <c r="F116" s="150">
+      <c r="C116" s="147"/>
+      <c r="D116" s="148"/>
+      <c r="E116" s="148"/>
+      <c r="F116" s="149">
         <v>1200</v>
       </c>
-      <c r="G116" s="151"/>
+      <c r="G116" s="150"/>
       <c r="H116" s="18"/>
     </row>
     <row r="117" spans="1:8" s="3" customFormat="1" ht="35.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A117" s="137" t="s">
+      <c r="A117" s="118" t="s">
         <v>176</v>
       </c>
-      <c r="B117" s="138"/>
-      <c r="C117" s="138"/>
-      <c r="D117" s="138"/>
-      <c r="E117" s="138"/>
-      <c r="F117" s="138"/>
-      <c r="G117" s="139"/>
+      <c r="B117" s="119"/>
+      <c r="C117" s="119"/>
+      <c r="D117" s="119"/>
+      <c r="E117" s="119"/>
+      <c r="F117" s="119"/>
+      <c r="G117" s="120"/>
     </row>
     <row r="118" spans="1:8" s="3" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
-      <c r="A118" s="98" t="s">
+      <c r="A118" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B118" s="122" t="s">
+      <c r="B118" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="C118" s="124" t="s">
+      <c r="C118" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="D118" s="126" t="s">
+      <c r="D118" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="E118" s="126"/>
-      <c r="F118" s="126"/>
-      <c r="G118" s="127"/>
+      <c r="E118" s="81"/>
+      <c r="F118" s="81"/>
+      <c r="G118" s="82"/>
       <c r="H118" s="10"/>
     </row>
     <row r="119" spans="1:8" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="99"/>
-      <c r="B119" s="128"/>
-      <c r="C119" s="125"/>
-      <c r="D119" s="123" t="s">
+      <c r="A119" s="73"/>
+      <c r="B119" s="76"/>
+      <c r="C119" s="79"/>
+      <c r="D119" s="87" t="s">
         <v>100</v>
       </c>
-      <c r="E119" s="143" t="s">
+      <c r="E119" s="85" t="s">
         <v>201</v>
       </c>
-      <c r="F119" s="145"/>
-      <c r="G119" s="146"/>
+      <c r="F119" s="83"/>
+      <c r="G119" s="84"/>
       <c r="H119" s="10"/>
     </row>
     <row r="120" spans="1:8" s="3" customFormat="1" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A120" s="100"/>
-      <c r="B120" s="140"/>
-      <c r="C120" s="141"/>
-      <c r="D120" s="142"/>
-      <c r="E120" s="144"/>
+      <c r="A120" s="145"/>
+      <c r="B120" s="77"/>
+      <c r="C120" s="80"/>
+      <c r="D120" s="138"/>
+      <c r="E120" s="142"/>
       <c r="F120" s="29" t="s">
         <v>200</v>
       </c>
@@ -5007,58 +4998,58 @@
       <c r="G124" s="13"/>
     </row>
     <row r="125" spans="1:8" s="3" customFormat="1" ht="36" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A125" s="114" t="s">
+      <c r="A125" s="112" t="s">
         <v>114</v>
       </c>
-      <c r="B125" s="115"/>
-      <c r="C125" s="115"/>
-      <c r="D125" s="115"/>
-      <c r="E125" s="115"/>
-      <c r="F125" s="115"/>
-      <c r="G125" s="116"/>
+      <c r="B125" s="113"/>
+      <c r="C125" s="113"/>
+      <c r="D125" s="113"/>
+      <c r="E125" s="113"/>
+      <c r="F125" s="113"/>
+      <c r="G125" s="114"/>
     </row>
     <row r="126" spans="1:8" s="3" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
-      <c r="A126" s="98" t="s">
+      <c r="A126" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B126" s="122" t="s">
+      <c r="B126" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="C126" s="124" t="s">
+      <c r="C126" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="D126" s="126" t="s">
+      <c r="D126" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="E126" s="126"/>
-      <c r="F126" s="126"/>
-      <c r="G126" s="127"/>
+      <c r="E126" s="81"/>
+      <c r="F126" s="81"/>
+      <c r="G126" s="82"/>
       <c r="H126" s="10"/>
     </row>
     <row r="127" spans="1:8" s="3" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A127" s="99"/>
-      <c r="B127" s="128"/>
-      <c r="C127" s="125"/>
-      <c r="D127" s="123" t="s">
+      <c r="A127" s="73"/>
+      <c r="B127" s="76"/>
+      <c r="C127" s="79"/>
+      <c r="D127" s="87" t="s">
         <v>100</v>
       </c>
-      <c r="E127" s="133" t="s">
+      <c r="E127" s="155" t="s">
         <v>41</v>
       </c>
-      <c r="F127" s="134"/>
-      <c r="G127" s="134"/>
+      <c r="F127" s="156"/>
+      <c r="G127" s="156"/>
       <c r="H127" s="10"/>
     </row>
     <row r="128" spans="1:8" s="3" customFormat="1" ht="92.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="100"/>
-      <c r="B128" s="123"/>
-      <c r="C128" s="125"/>
-      <c r="D128" s="129"/>
-      <c r="E128" s="130" t="s">
+      <c r="A128" s="145"/>
+      <c r="B128" s="87"/>
+      <c r="C128" s="79"/>
+      <c r="D128" s="151"/>
+      <c r="E128" s="152" t="s">
         <v>121</v>
       </c>
-      <c r="F128" s="131"/>
-      <c r="G128" s="132"/>
+      <c r="F128" s="153"/>
+      <c r="G128" s="154"/>
       <c r="H128" s="10"/>
     </row>
     <row r="129" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
@@ -5125,26 +5116,26 @@
       </c>
     </row>
     <row r="132" spans="1:8" s="26" customFormat="1" ht="121.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="108" t="s">
+      <c r="A132" s="162" t="s">
         <v>216</v>
       </c>
-      <c r="B132" s="109"/>
-      <c r="C132" s="109"/>
-      <c r="D132" s="109"/>
-      <c r="E132" s="109"/>
-      <c r="F132" s="109"/>
-      <c r="G132" s="110"/>
+      <c r="B132" s="163"/>
+      <c r="C132" s="163"/>
+      <c r="D132" s="163"/>
+      <c r="E132" s="163"/>
+      <c r="F132" s="163"/>
+      <c r="G132" s="164"/>
     </row>
     <row r="133" spans="1:8" s="3" customFormat="1" ht="105.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A133" s="111" t="s">
+      <c r="A133" s="165" t="s">
         <v>217</v>
       </c>
-      <c r="B133" s="112"/>
-      <c r="C133" s="112"/>
-      <c r="D133" s="112"/>
-      <c r="E133" s="112"/>
-      <c r="F133" s="112"/>
-      <c r="G133" s="113"/>
+      <c r="B133" s="166"/>
+      <c r="C133" s="166"/>
+      <c r="D133" s="166"/>
+      <c r="E133" s="166"/>
+      <c r="F133" s="166"/>
+      <c r="G133" s="167"/>
     </row>
     <row r="134" spans="1:8" s="3" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="60"/>
@@ -5156,15 +5147,15 @@
       <c r="G134" s="61"/>
     </row>
     <row r="135" spans="1:8" s="3" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="103" t="s">
+      <c r="A135" s="157" t="s">
         <v>218</v>
       </c>
-      <c r="B135" s="104"/>
-      <c r="C135" s="104"/>
-      <c r="D135" s="104"/>
-      <c r="E135" s="104"/>
-      <c r="F135" s="104"/>
-      <c r="G135" s="104"/>
+      <c r="B135" s="158"/>
+      <c r="C135" s="158"/>
+      <c r="D135" s="158"/>
+      <c r="E135" s="158"/>
+      <c r="F135" s="158"/>
+      <c r="G135" s="158"/>
     </row>
     <row r="136" spans="1:8" s="3" customFormat="1" ht="162" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="60"/>
@@ -5185,49 +5176,49 @@
       <c r="G137" s="61"/>
     </row>
     <row r="138" spans="1:8" s="3" customFormat="1" ht="35.25" x14ac:dyDescent="0.5">
-      <c r="A138" s="114" t="s">
+      <c r="A138" s="112" t="s">
         <v>125</v>
       </c>
-      <c r="B138" s="115"/>
-      <c r="C138" s="115"/>
-      <c r="D138" s="115"/>
-      <c r="E138" s="115"/>
-      <c r="F138" s="115"/>
-      <c r="G138" s="116"/>
+      <c r="B138" s="113"/>
+      <c r="C138" s="113"/>
+      <c r="D138" s="113"/>
+      <c r="E138" s="113"/>
+      <c r="F138" s="113"/>
+      <c r="G138" s="114"/>
     </row>
     <row r="139" spans="1:8" s="3" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A139" s="117" t="s">
+      <c r="A139" s="168" t="s">
         <v>124</v>
       </c>
-      <c r="B139" s="118"/>
-      <c r="C139" s="118"/>
-      <c r="D139" s="118"/>
-      <c r="E139" s="118"/>
-      <c r="F139" s="118"/>
-      <c r="G139" s="118"/>
+      <c r="B139" s="169"/>
+      <c r="C139" s="169"/>
+      <c r="D139" s="169"/>
+      <c r="E139" s="169"/>
+      <c r="F139" s="169"/>
+      <c r="G139" s="169"/>
     </row>
     <row r="140" spans="1:8" s="3" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
-      <c r="A140" s="98" t="s">
+      <c r="A140" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B140" s="122" t="s">
+      <c r="B140" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="C140" s="124" t="s">
+      <c r="C140" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="D140" s="126" t="s">
+      <c r="D140" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="E140" s="126"/>
-      <c r="F140" s="126"/>
-      <c r="G140" s="127"/>
+      <c r="E140" s="81"/>
+      <c r="F140" s="81"/>
+      <c r="G140" s="82"/>
       <c r="H140" s="10"/>
     </row>
     <row r="141" spans="1:8" s="3" customFormat="1" ht="92.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A141" s="100"/>
-      <c r="B141" s="123"/>
-      <c r="C141" s="125"/>
+      <c r="A141" s="145"/>
+      <c r="B141" s="87"/>
+      <c r="C141" s="79"/>
       <c r="D141" s="24"/>
       <c r="E141" s="24"/>
       <c r="F141" s="24"/>
@@ -5235,15 +5226,15 @@
       <c r="H141" s="10"/>
     </row>
     <row r="142" spans="1:8" s="3" customFormat="1" ht="33" x14ac:dyDescent="0.45">
-      <c r="A142" s="119" t="s">
+      <c r="A142" s="170" t="s">
         <v>126</v>
       </c>
-      <c r="B142" s="120"/>
-      <c r="C142" s="120"/>
-      <c r="D142" s="120"/>
-      <c r="E142" s="120"/>
-      <c r="F142" s="120"/>
-      <c r="G142" s="121"/>
+      <c r="B142" s="171"/>
+      <c r="C142" s="171"/>
+      <c r="D142" s="171"/>
+      <c r="E142" s="171"/>
+      <c r="F142" s="171"/>
+      <c r="G142" s="172"/>
     </row>
     <row r="143" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A143" s="25">
@@ -5909,71 +5900,135 @@
       <c r="G181" s="14"/>
     </row>
     <row r="182" spans="1:7" s="3" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A182" s="101" t="s">
+      <c r="A182" s="189" t="s">
         <v>205</v>
       </c>
-      <c r="B182" s="102"/>
-      <c r="C182" s="102"/>
-      <c r="D182" s="102"/>
-      <c r="E182" s="102"/>
-      <c r="F182" s="102"/>
-      <c r="G182" s="102"/>
+      <c r="B182" s="190"/>
+      <c r="C182" s="190"/>
+      <c r="D182" s="190"/>
+      <c r="E182" s="190"/>
+      <c r="F182" s="190"/>
+      <c r="G182" s="190"/>
     </row>
     <row r="183" spans="1:7" s="3" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A183" s="101" t="s">
+      <c r="A183" s="189" t="s">
         <v>206</v>
       </c>
-      <c r="B183" s="102"/>
-      <c r="C183" s="102"/>
-      <c r="D183" s="102"/>
-      <c r="E183" s="102"/>
-      <c r="F183" s="102"/>
-      <c r="G183" s="102"/>
+      <c r="B183" s="190"/>
+      <c r="C183" s="190"/>
+      <c r="D183" s="190"/>
+      <c r="E183" s="190"/>
+      <c r="F183" s="190"/>
+      <c r="G183" s="190"/>
     </row>
     <row r="184" spans="1:7" s="3" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A184" s="105" t="s">
+      <c r="A184" s="159" t="s">
         <v>202</v>
       </c>
-      <c r="B184" s="106"/>
-      <c r="C184" s="106"/>
-      <c r="D184" s="106"/>
-      <c r="E184" s="106"/>
-      <c r="F184" s="106"/>
-      <c r="G184" s="107"/>
+      <c r="B184" s="160"/>
+      <c r="C184" s="160"/>
+      <c r="D184" s="160"/>
+      <c r="E184" s="160"/>
+      <c r="F184" s="160"/>
+      <c r="G184" s="161"/>
     </row>
     <row r="185" spans="1:7" s="3" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A185" s="105" t="s">
+      <c r="A185" s="159" t="s">
         <v>203</v>
       </c>
-      <c r="B185" s="106"/>
-      <c r="C185" s="106"/>
-      <c r="D185" s="106"/>
-      <c r="E185" s="106"/>
-      <c r="F185" s="106"/>
-      <c r="G185" s="107"/>
+      <c r="B185" s="160"/>
+      <c r="C185" s="160"/>
+      <c r="D185" s="160"/>
+      <c r="E185" s="160"/>
+      <c r="F185" s="160"/>
+      <c r="G185" s="161"/>
     </row>
     <row r="186" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.4">
-      <c r="A186" s="74" t="s">
+      <c r="A186" s="173" t="s">
         <v>204</v>
       </c>
-      <c r="B186" s="75"/>
-      <c r="C186" s="75"/>
-      <c r="D186" s="75"/>
-      <c r="E186" s="75"/>
-      <c r="F186" s="75"/>
-      <c r="G186" s="76"/>
+      <c r="B186" s="174"/>
+      <c r="C186" s="174"/>
+      <c r="D186" s="174"/>
+      <c r="E186" s="174"/>
+      <c r="F186" s="174"/>
+      <c r="G186" s="175"/>
     </row>
   </sheetData>
   <mergeCells count="98">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A186:G186"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="A126:A128"/>
+    <mergeCell ref="A182:G182"/>
+    <mergeCell ref="A183:G183"/>
+    <mergeCell ref="A135:G135"/>
+    <mergeCell ref="A184:G184"/>
+    <mergeCell ref="A185:G185"/>
+    <mergeCell ref="A132:G132"/>
+    <mergeCell ref="A133:G133"/>
+    <mergeCell ref="A138:G138"/>
+    <mergeCell ref="A139:G139"/>
+    <mergeCell ref="A142:G142"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="D140:G140"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="F116:G116"/>
+    <mergeCell ref="B126:B128"/>
+    <mergeCell ref="C126:C128"/>
+    <mergeCell ref="D126:G126"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="E128:G128"/>
+    <mergeCell ref="E127:G127"/>
+    <mergeCell ref="A125:G125"/>
+    <mergeCell ref="A117:G117"/>
+    <mergeCell ref="A118:A120"/>
+    <mergeCell ref="B118:B120"/>
+    <mergeCell ref="C118:C120"/>
+    <mergeCell ref="D118:G118"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="F119:G119"/>
+    <mergeCell ref="D103:G103"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="F104:G104"/>
+    <mergeCell ref="A115:G115"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="C103:C105"/>
+    <mergeCell ref="A69:G69"/>
+    <mergeCell ref="A68:G68"/>
+    <mergeCell ref="A102:G102"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="D70:G70"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="A101:G101"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:G38"/>
     <mergeCell ref="D47:G47"/>
     <mergeCell ref="D48:D49"/>
     <mergeCell ref="E48:E49"/>
@@ -5990,79 +6045,15 @@
     <mergeCell ref="A43:G43"/>
     <mergeCell ref="A37:A39"/>
     <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="A69:G69"/>
-    <mergeCell ref="A68:G68"/>
-    <mergeCell ref="A102:G102"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="D70:G70"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="A101:G101"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="C103:C105"/>
-    <mergeCell ref="D103:G103"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="F104:G104"/>
-    <mergeCell ref="A115:G115"/>
-    <mergeCell ref="A125:G125"/>
-    <mergeCell ref="A117:G117"/>
-    <mergeCell ref="A118:A120"/>
-    <mergeCell ref="B118:B120"/>
-    <mergeCell ref="C118:C120"/>
-    <mergeCell ref="D118:G118"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="F119:G119"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="F116:G116"/>
-    <mergeCell ref="B126:B128"/>
-    <mergeCell ref="C126:C128"/>
-    <mergeCell ref="D126:G126"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="E128:G128"/>
-    <mergeCell ref="E127:G127"/>
-    <mergeCell ref="A135:G135"/>
-    <mergeCell ref="A184:G184"/>
-    <mergeCell ref="A185:G185"/>
-    <mergeCell ref="A132:G132"/>
-    <mergeCell ref="A133:G133"/>
-    <mergeCell ref="A138:G138"/>
-    <mergeCell ref="A139:G139"/>
-    <mergeCell ref="A142:G142"/>
-    <mergeCell ref="A140:A141"/>
-    <mergeCell ref="B140:B141"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="D140:G140"/>
-    <mergeCell ref="A186:G186"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="A126:A128"/>
-    <mergeCell ref="A182:G182"/>
-    <mergeCell ref="A183:G183"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A2:G2"/>
   </mergeCells>
   <pageMargins left="0.46" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="41" orientation="portrait" r:id="rId1"/>
@@ -6074,10 +6065,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6086,139 +6077,256 @@
     <col min="2" max="2" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
-        <v>6</v>
+    <row r="1" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="38" t="s">
+        <v>78</v>
       </c>
       <c r="B1" t="str">
-        <f>""""&amp;A1&amp;""""&amp;","</f>
-        <v>"74009.10-400 (ЕВРО-0)",</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="71" t="s">
-        <v>22</v>
+        <f>"{"""&amp;A1&amp;""""&amp;",}"</f>
+        <v>{"ГП з/м 5320-2402010-10",}</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A2" s="38" t="s">
+        <v>79</v>
       </c>
       <c r="B2" t="str">
-        <f t="shared" ref="B2:B15" si="0">""""&amp;A2&amp;""""&amp;","</f>
-        <v>"74009.10-403 (УРАЛ)",</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="71" t="s">
-        <v>2</v>
+        <f t="shared" ref="B2:B28" si="0">"{"""&amp;A2&amp;""""&amp;",}"</f>
+        <v>{"ГП з/м 5320-2402010-20",}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A3" s="38" t="s">
+        <v>80</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
-        <v>"74039.10-400 (турбо)",</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="71" t="s">
-        <v>3</v>
+        <v>{"ГП з/м 5320-2402010-30",}</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A4" s="38" t="s">
+        <v>81</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
-        <v>"740.11-400 (ЕВРО-1)",</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="72" t="s">
-        <v>4</v>
+        <v>{"ГП з/м 5320-2402010-40",}</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A5" s="38" t="s">
+        <v>223</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
-        <v>"740.13-400 (ЕВРО-1)",</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="72" t="s">
-        <v>23</v>
+        <v>{"ГП з/м 53205-2402010-10",}</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A6" s="38" t="s">
+        <v>225</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
-        <v>"740.30-400 (ЕВРО-2)",</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="72" t="s">
-        <v>24</v>
+        <v>{"ГП з/м 53205-2402010-20",}</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A7" s="38" t="s">
+        <v>224</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
-        <v>"740.31-400 (ЕВРО-2)",</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="72" t="s">
-        <v>25</v>
+        <v>{"ГП з/м 53205-2402010-30",}</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A8" s="38" t="s">
+        <v>226</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
-        <v>"740.50-400 (ЕВРО-2)",</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="72" t="s">
-        <v>26</v>
+        <v>{"ГП з/м 53205-2402010-40",}</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A9" s="38" t="s">
+        <v>82</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
-        <v>"740.51-400 (ЕВРО-2)",</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="73" t="s">
-        <v>27</v>
+        <v>{"ГП з/м 53229-2402011-10",}</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A10" s="38" t="s">
+        <v>83</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
-        <v>"740.62-400 (ЕВРО-2)",</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="72" t="s">
-        <v>186</v>
+        <v>{"ГП з/м 53229-2402011-20",}</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A11" s="38" t="s">
+        <v>84</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
-        <v>"4ISBe 185 1ая",</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="72" t="s">
-        <v>185</v>
+        <v>{"ГП з/м 53229-2402011-30",}</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A12" s="38" t="s">
+        <v>85</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
-        <v>"6ISBe 185 1ая",</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="72" t="s">
-        <v>182</v>
+        <v>{"ГП з/м 53229-2402011-40",}</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A13" s="38" t="s">
+        <v>94</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
-        <v>"6ISBe 210 1ая",</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="72" t="s">
-        <v>183</v>
+        <v>{"ГП з/м 6520-2402011-10",}</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A14" s="38" t="s">
+        <v>95</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
-        <v>"6ISBe 285 1ая",</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="72" t="s">
-        <v>184</v>
+        <v>{"ГП з/м 6520-2402011-20",}</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A15" s="38" t="s">
+        <v>86</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
-        <v>"6ISBe 300 1ая",</v>
+        <v>{"ГП ср/м 5320-2502010-10",}</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A16" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>{"ГП ср/м 5320-2502010-20",}</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A17" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>{"ГП ср/м 5320-2502010-30",}</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A18" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>{"ГП ср/м 5320-2502010-40",}</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A19" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>{"ГП ср/м 53205-2502010-10",}</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A20" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>{"ГП ср/м 53205-2502010-20",}</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A21" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>{"ГП ср/м 53205-2502010-30",}</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A22" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>{"ГП ср/м 53205-2502010-40",}</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A23" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>{"ГП ср/м 53229-2502011-10",}</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A24" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>{"ГП ср/м 53229-2502011-20",}</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A25" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>{"ГП ср/м 53229-2502011-30",}</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A26" s="38" t="s">
+        <v>231</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>{"ГП ср/м 53229-2502011-40",}</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A27" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>{"ГП ср/м 6520-2402011-10",}</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A28" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>{"ГП ср/м 6520-2402011-20",}</v>
       </c>
     </row>
   </sheetData>

--- a/agregat/assets/docs/Прайс ЧелныАгрегатЦентр 01 2019.xlsx
+++ b/agregat/assets/docs/Прайс ЧелныАгрегатЦентр 01 2019.xlsx
@@ -1922,365 +1922,365 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="27" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="27" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="27" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="16" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="20" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="23" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="23" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="27" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="27" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="27" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="16" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="20" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="29">
@@ -2616,8 +2616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H186"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A69" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C100" sqref="C100"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A46" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I128" sqref="I128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2633,27 +2633,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.4">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="190" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
       <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="190" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
+      <c r="B2" s="190"/>
+      <c r="C2" s="190"/>
+      <c r="D2" s="190"/>
+      <c r="E2" s="190"/>
+      <c r="F2" s="190"/>
+      <c r="G2" s="190"/>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -2667,45 +2667,45 @@
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="81" t="s">
+      <c r="D4" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="82"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="124"/>
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" s="3" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="73"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="87" t="s">
+      <c r="A5" s="96"/>
+      <c r="B5" s="130"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="120" t="s">
         <v>232</v>
       </c>
-      <c r="E5" s="85" t="s">
+      <c r="E5" s="143" t="s">
         <v>222</v>
       </c>
-      <c r="F5" s="83" t="s">
+      <c r="F5" s="145" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="84"/>
+      <c r="G5" s="146"/>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" s="3" customFormat="1" ht="135.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="74"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="86"/>
+      <c r="A6" s="189"/>
+      <c r="B6" s="140"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="184"/>
+      <c r="E6" s="174"/>
       <c r="F6" s="23" t="s">
         <v>221</v>
       </c>
@@ -2715,15 +2715,15 @@
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" s="3" customFormat="1" ht="36" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="175" t="s">
         <v>173</v>
       </c>
-      <c r="B7" s="96"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="97"/>
+      <c r="B7" s="176"/>
+      <c r="C7" s="176"/>
+      <c r="D7" s="176"/>
+      <c r="E7" s="176"/>
+      <c r="F7" s="176"/>
+      <c r="G7" s="177"/>
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
@@ -2799,15 +2799,15 @@
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" s="3" customFormat="1" ht="35.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="98" t="s">
+      <c r="A11" s="178" t="s">
         <v>174</v>
       </c>
-      <c r="B11" s="99"/>
-      <c r="C11" s="99"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="100"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="179"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" s="3" customFormat="1" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -3063,106 +3063,106 @@
       <c r="H22" s="42"/>
     </row>
     <row r="23" spans="1:8" s="27" customFormat="1" ht="27.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="108" t="s">
+      <c r="A23" s="188" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="108"/>
-      <c r="C23" s="108"/>
-      <c r="D23" s="108"/>
-      <c r="E23" s="108"/>
-      <c r="F23" s="108"/>
-      <c r="G23" s="108"/>
+      <c r="B23" s="188"/>
+      <c r="C23" s="188"/>
+      <c r="D23" s="188"/>
+      <c r="E23" s="188"/>
+      <c r="F23" s="188"/>
+      <c r="G23" s="188"/>
       <c r="H23" s="43"/>
     </row>
     <row r="24" spans="1:8" s="3" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A24" s="32"/>
-      <c r="B24" s="176" t="s">
+      <c r="B24" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="177"/>
-      <c r="D24" s="178"/>
-      <c r="E24" s="178"/>
-      <c r="F24" s="179">
+      <c r="C24" s="75"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="77">
         <v>1500</v>
       </c>
-      <c r="G24" s="180"/>
+      <c r="G24" s="78"/>
       <c r="H24" s="18"/>
     </row>
     <row r="25" spans="1:8" s="3" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="35"/>
-      <c r="B25" s="181" t="s">
+      <c r="B25" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="182"/>
-      <c r="D25" s="183"/>
-      <c r="E25" s="183"/>
-      <c r="F25" s="184">
+      <c r="C25" s="80"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="82">
         <v>2500</v>
       </c>
-      <c r="G25" s="185"/>
+      <c r="G25" s="83"/>
       <c r="H25" s="18"/>
     </row>
     <row r="26" spans="1:8" ht="34.700000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="186" t="s">
+      <c r="A26" s="84" t="s">
         <v>188</v>
       </c>
-      <c r="B26" s="99"/>
-      <c r="C26" s="99"/>
-      <c r="D26" s="99"/>
-      <c r="E26" s="99"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="187"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="85"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="86"/>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8" s="3" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="125" t="s">
+      <c r="A27" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="124" t="s">
+      <c r="B27" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="127" t="s">
+      <c r="C27" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="89" t="s">
+      <c r="D27" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="89"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="90"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="93"/>
       <c r="H27" s="10"/>
     </row>
     <row r="28" spans="1:8" s="3" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="125"/>
-      <c r="B28" s="125"/>
-      <c r="C28" s="128"/>
-      <c r="D28" s="125" t="s">
+      <c r="A28" s="87"/>
+      <c r="B28" s="87"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="87" t="s">
         <v>187</v>
       </c>
-      <c r="E28" s="103" t="s">
+      <c r="E28" s="182" t="s">
         <v>235</v>
       </c>
-      <c r="F28" s="104"/>
-      <c r="G28" s="101" t="s">
+      <c r="F28" s="183"/>
+      <c r="G28" s="180" t="s">
         <v>233</v>
       </c>
-      <c r="H28" s="102"/>
+      <c r="H28" s="181"/>
     </row>
     <row r="29" spans="1:8" s="3" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="125"/>
-      <c r="B29" s="126"/>
-      <c r="C29" s="128"/>
-      <c r="D29" s="188"/>
+      <c r="A29" s="87"/>
+      <c r="B29" s="89"/>
+      <c r="C29" s="91"/>
+      <c r="D29" s="94"/>
       <c r="E29" s="68" t="s">
         <v>236</v>
       </c>
       <c r="F29" s="68" t="s">
         <v>237</v>
       </c>
-      <c r="G29" s="101" t="s">
+      <c r="G29" s="180" t="s">
         <v>234</v>
       </c>
-      <c r="H29" s="102"/>
+      <c r="H29" s="181"/>
     </row>
     <row r="30" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="12">
@@ -3285,69 +3285,69 @@
       <c r="H34" s="2"/>
     </row>
     <row r="35" spans="1:8" s="3" customFormat="1" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="109" t="s">
+      <c r="A35" s="171" t="s">
         <v>219</v>
       </c>
-      <c r="B35" s="110"/>
-      <c r="C35" s="110"/>
-      <c r="D35" s="110"/>
-      <c r="E35" s="110"/>
-      <c r="F35" s="110"/>
-      <c r="G35" s="111"/>
+      <c r="B35" s="172"/>
+      <c r="C35" s="172"/>
+      <c r="D35" s="172"/>
+      <c r="E35" s="172"/>
+      <c r="F35" s="172"/>
+      <c r="G35" s="173"/>
       <c r="H35" s="10"/>
     </row>
     <row r="36" spans="1:8" s="3" customFormat="1" ht="35.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A36" s="105" t="s">
+      <c r="A36" s="185" t="s">
         <v>177</v>
       </c>
-      <c r="B36" s="106"/>
-      <c r="C36" s="106"/>
-      <c r="D36" s="106"/>
-      <c r="E36" s="106"/>
-      <c r="F36" s="106"/>
-      <c r="G36" s="107"/>
+      <c r="B36" s="186"/>
+      <c r="C36" s="186"/>
+      <c r="D36" s="186"/>
+      <c r="E36" s="186"/>
+      <c r="F36" s="186"/>
+      <c r="G36" s="187"/>
       <c r="H36" s="10"/>
     </row>
     <row r="37" spans="1:8" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="72" t="s">
+      <c r="A37" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="75" t="s">
+      <c r="B37" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="78" t="s">
+      <c r="C37" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="81" t="s">
+      <c r="D37" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="E37" s="81"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="82"/>
+      <c r="E37" s="123"/>
+      <c r="F37" s="123"/>
+      <c r="G37" s="124"/>
       <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8" s="3" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="73"/>
-      <c r="B38" s="76"/>
-      <c r="C38" s="79"/>
-      <c r="D38" s="87" t="s">
+      <c r="A38" s="96"/>
+      <c r="B38" s="130"/>
+      <c r="C38" s="122"/>
+      <c r="D38" s="120" t="s">
         <v>238</v>
       </c>
-      <c r="E38" s="85" t="s">
+      <c r="E38" s="143" t="s">
         <v>239</v>
       </c>
-      <c r="F38" s="83" t="s">
+      <c r="F38" s="145" t="s">
         <v>41</v>
       </c>
-      <c r="G38" s="84"/>
+      <c r="G38" s="146"/>
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8" s="3" customFormat="1" ht="135.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="74"/>
-      <c r="B39" s="77"/>
-      <c r="C39" s="80"/>
-      <c r="D39" s="88"/>
-      <c r="E39" s="86"/>
+      <c r="A39" s="189"/>
+      <c r="B39" s="140"/>
+      <c r="C39" s="141"/>
+      <c r="D39" s="184"/>
+      <c r="E39" s="174"/>
       <c r="F39" s="23" t="s">
         <v>227</v>
       </c>
@@ -3429,15 +3429,15 @@
       <c r="H42" s="10"/>
     </row>
     <row r="43" spans="1:8" s="3" customFormat="1" ht="35.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A43" s="105" t="s">
+      <c r="A43" s="185" t="s">
         <v>189</v>
       </c>
-      <c r="B43" s="106"/>
-      <c r="C43" s="106"/>
-      <c r="D43" s="106"/>
-      <c r="E43" s="106"/>
-      <c r="F43" s="106"/>
-      <c r="G43" s="107"/>
+      <c r="B43" s="186"/>
+      <c r="C43" s="186"/>
+      <c r="D43" s="186"/>
+      <c r="E43" s="186"/>
+      <c r="F43" s="186"/>
+      <c r="G43" s="187"/>
       <c r="H43" s="10"/>
     </row>
     <row r="44" spans="1:8" s="3" customFormat="1" ht="28.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -3489,57 +3489,57 @@
       <c r="H45" s="10"/>
     </row>
     <row r="46" spans="1:8" s="3" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="95" t="s">
+      <c r="A46" s="175" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="96"/>
-      <c r="C46" s="96"/>
-      <c r="D46" s="96"/>
-      <c r="E46" s="96"/>
-      <c r="F46" s="96"/>
-      <c r="G46" s="97"/>
+      <c r="B46" s="176"/>
+      <c r="C46" s="176"/>
+      <c r="D46" s="176"/>
+      <c r="E46" s="176"/>
+      <c r="F46" s="176"/>
+      <c r="G46" s="177"/>
       <c r="H46" s="10"/>
     </row>
     <row r="47" spans="1:8" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="121" t="s">
+      <c r="A47" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="124" t="s">
+      <c r="B47" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="127" t="s">
+      <c r="C47" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="89" t="s">
+      <c r="D47" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="E47" s="89"/>
-      <c r="F47" s="89"/>
-      <c r="G47" s="90"/>
+      <c r="E47" s="92"/>
+      <c r="F47" s="92"/>
+      <c r="G47" s="93"/>
       <c r="H47" s="10"/>
     </row>
     <row r="48" spans="1:8" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="122"/>
-      <c r="B48" s="125"/>
-      <c r="C48" s="128"/>
-      <c r="D48" s="91" t="s">
+      <c r="A48" s="153"/>
+      <c r="B48" s="87"/>
+      <c r="C48" s="91"/>
+      <c r="D48" s="164" t="s">
         <v>75</v>
       </c>
-      <c r="E48" s="91" t="s">
+      <c r="E48" s="164" t="s">
         <v>241</v>
       </c>
-      <c r="F48" s="93" t="s">
+      <c r="F48" s="166" t="s">
         <v>41</v>
       </c>
-      <c r="G48" s="94"/>
+      <c r="G48" s="167"/>
       <c r="H48" s="10"/>
     </row>
     <row r="49" spans="1:8" s="3" customFormat="1" ht="51.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="123"/>
-      <c r="B49" s="126"/>
-      <c r="C49" s="129"/>
-      <c r="D49" s="92"/>
-      <c r="E49" s="92"/>
+      <c r="A49" s="154"/>
+      <c r="B49" s="89"/>
+      <c r="C49" s="155"/>
+      <c r="D49" s="165"/>
+      <c r="E49" s="165"/>
       <c r="F49" s="50" t="s">
         <v>49</v>
       </c>
@@ -3909,67 +3909,67 @@
       <c r="H67" s="10"/>
     </row>
     <row r="68" spans="1:8" s="3" customFormat="1" ht="81.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="115" t="s">
+      <c r="A68" s="161" t="s">
         <v>208</v>
       </c>
-      <c r="B68" s="116"/>
-      <c r="C68" s="116"/>
-      <c r="D68" s="116"/>
-      <c r="E68" s="116"/>
-      <c r="F68" s="116"/>
-      <c r="G68" s="117"/>
+      <c r="B68" s="162"/>
+      <c r="C68" s="162"/>
+      <c r="D68" s="162"/>
+      <c r="E68" s="162"/>
+      <c r="F68" s="162"/>
+      <c r="G68" s="163"/>
       <c r="H68" s="10"/>
     </row>
     <row r="69" spans="1:8" s="3" customFormat="1" ht="36" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="112" t="s">
+      <c r="A69" s="111" t="s">
         <v>77</v>
       </c>
-      <c r="B69" s="113"/>
-      <c r="C69" s="113"/>
-      <c r="D69" s="113"/>
-      <c r="E69" s="113"/>
-      <c r="F69" s="113"/>
-      <c r="G69" s="114"/>
+      <c r="B69" s="112"/>
+      <c r="C69" s="112"/>
+      <c r="D69" s="112"/>
+      <c r="E69" s="112"/>
+      <c r="F69" s="112"/>
+      <c r="G69" s="113"/>
       <c r="H69" s="10"/>
     </row>
     <row r="70" spans="1:8" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A70" s="121" t="s">
+      <c r="A70" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="B70" s="124" t="s">
+      <c r="B70" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="C70" s="127" t="s">
+      <c r="C70" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="D70" s="89" t="s">
+      <c r="D70" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="E70" s="89"/>
-      <c r="F70" s="89"/>
-      <c r="G70" s="90"/>
+      <c r="E70" s="92"/>
+      <c r="F70" s="92"/>
+      <c r="G70" s="93"/>
       <c r="H70" s="10"/>
     </row>
     <row r="71" spans="1:8" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A71" s="122"/>
-      <c r="B71" s="125"/>
-      <c r="C71" s="128"/>
-      <c r="D71" s="91" t="s">
+      <c r="A71" s="153"/>
+      <c r="B71" s="87"/>
+      <c r="C71" s="91"/>
+      <c r="D71" s="164" t="s">
         <v>100</v>
       </c>
-      <c r="E71" s="91"/>
-      <c r="F71" s="93" t="s">
+      <c r="E71" s="164"/>
+      <c r="F71" s="166" t="s">
         <v>41</v>
       </c>
-      <c r="G71" s="94"/>
+      <c r="G71" s="167"/>
       <c r="H71" s="10"/>
     </row>
     <row r="72" spans="1:8" s="3" customFormat="1" ht="117.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="123"/>
-      <c r="B72" s="126"/>
-      <c r="C72" s="129"/>
-      <c r="D72" s="92"/>
-      <c r="E72" s="92"/>
+      <c r="A72" s="154"/>
+      <c r="B72" s="89"/>
+      <c r="C72" s="155"/>
+      <c r="D72" s="165"/>
+      <c r="E72" s="165"/>
       <c r="F72" s="23" t="s">
         <v>242</v>
       </c>
@@ -4577,65 +4577,65 @@
       </c>
     </row>
     <row r="101" spans="1:8" s="3" customFormat="1" ht="105.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A101" s="130" t="s">
+      <c r="A101" s="168" t="s">
         <v>193</v>
       </c>
-      <c r="B101" s="131"/>
-      <c r="C101" s="131"/>
-      <c r="D101" s="131"/>
-      <c r="E101" s="131"/>
-      <c r="F101" s="131"/>
-      <c r="G101" s="132"/>
+      <c r="B101" s="169"/>
+      <c r="C101" s="169"/>
+      <c r="D101" s="169"/>
+      <c r="E101" s="169"/>
+      <c r="F101" s="169"/>
+      <c r="G101" s="170"/>
     </row>
     <row r="102" spans="1:8" s="3" customFormat="1" ht="35.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A102" s="118" t="s">
+      <c r="A102" s="137" t="s">
         <v>101</v>
       </c>
-      <c r="B102" s="119"/>
-      <c r="C102" s="119"/>
-      <c r="D102" s="119"/>
-      <c r="E102" s="119"/>
-      <c r="F102" s="119"/>
-      <c r="G102" s="120"/>
+      <c r="B102" s="138"/>
+      <c r="C102" s="138"/>
+      <c r="D102" s="138"/>
+      <c r="E102" s="138"/>
+      <c r="F102" s="138"/>
+      <c r="G102" s="139"/>
     </row>
     <row r="103" spans="1:8" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="133" t="s">
+      <c r="A103" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="B103" s="136" t="s">
+      <c r="B103" s="159" t="s">
         <v>47</v>
       </c>
-      <c r="C103" s="78" t="s">
+      <c r="C103" s="121" t="s">
         <v>48</v>
       </c>
-      <c r="D103" s="139" t="s">
+      <c r="D103" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="E103" s="140"/>
-      <c r="F103" s="140"/>
-      <c r="G103" s="141"/>
+      <c r="E103" s="148"/>
+      <c r="F103" s="148"/>
+      <c r="G103" s="149"/>
       <c r="H103" s="10"/>
     </row>
     <row r="104" spans="1:8" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="134"/>
-      <c r="B104" s="137"/>
-      <c r="C104" s="79"/>
-      <c r="D104" s="87" t="s">
+      <c r="A104" s="157"/>
+      <c r="B104" s="160"/>
+      <c r="C104" s="122"/>
+      <c r="D104" s="120" t="s">
         <v>100</v>
       </c>
-      <c r="E104" s="85"/>
-      <c r="F104" s="83" t="s">
+      <c r="E104" s="143"/>
+      <c r="F104" s="145" t="s">
         <v>41</v>
       </c>
-      <c r="G104" s="84"/>
+      <c r="G104" s="146"/>
       <c r="H104" s="10"/>
     </row>
     <row r="105" spans="1:8" s="3" customFormat="1" ht="113.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A105" s="135"/>
-      <c r="B105" s="138"/>
-      <c r="C105" s="80"/>
-      <c r="D105" s="138"/>
-      <c r="E105" s="142"/>
+      <c r="A105" s="158"/>
+      <c r="B105" s="142"/>
+      <c r="C105" s="141"/>
+      <c r="D105" s="142"/>
+      <c r="E105" s="144"/>
       <c r="F105" s="23" t="s">
         <v>242</v>
       </c>
@@ -4834,79 +4834,79 @@
       </c>
     </row>
     <row r="115" spans="1:8" s="3" customFormat="1" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A115" s="143" t="s">
+      <c r="A115" s="150" t="s">
         <v>113</v>
       </c>
-      <c r="B115" s="144"/>
-      <c r="C115" s="144"/>
-      <c r="D115" s="144"/>
-      <c r="E115" s="144"/>
-      <c r="F115" s="144"/>
-      <c r="G115" s="144"/>
+      <c r="B115" s="151"/>
+      <c r="C115" s="151"/>
+      <c r="D115" s="151"/>
+      <c r="E115" s="151"/>
+      <c r="F115" s="151"/>
+      <c r="G115" s="151"/>
     </row>
     <row r="116" spans="1:8" s="3" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A116" s="59"/>
-      <c r="B116" s="146" t="s">
+      <c r="B116" s="125" t="s">
         <v>112</v>
       </c>
-      <c r="C116" s="147"/>
-      <c r="D116" s="148"/>
-      <c r="E116" s="148"/>
-      <c r="F116" s="149">
+      <c r="C116" s="126"/>
+      <c r="D116" s="127"/>
+      <c r="E116" s="127"/>
+      <c r="F116" s="128">
         <v>1200</v>
       </c>
-      <c r="G116" s="150"/>
+      <c r="G116" s="129"/>
       <c r="H116" s="18"/>
     </row>
     <row r="117" spans="1:8" s="3" customFormat="1" ht="35.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A117" s="118" t="s">
+      <c r="A117" s="137" t="s">
         <v>176</v>
       </c>
-      <c r="B117" s="119"/>
-      <c r="C117" s="119"/>
-      <c r="D117" s="119"/>
-      <c r="E117" s="119"/>
-      <c r="F117" s="119"/>
-      <c r="G117" s="120"/>
+      <c r="B117" s="138"/>
+      <c r="C117" s="138"/>
+      <c r="D117" s="138"/>
+      <c r="E117" s="138"/>
+      <c r="F117" s="138"/>
+      <c r="G117" s="139"/>
     </row>
     <row r="118" spans="1:8" s="3" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
-      <c r="A118" s="72" t="s">
+      <c r="A118" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B118" s="75" t="s">
+      <c r="B118" s="119" t="s">
         <v>47</v>
       </c>
-      <c r="C118" s="78" t="s">
+      <c r="C118" s="121" t="s">
         <v>48</v>
       </c>
-      <c r="D118" s="81" t="s">
+      <c r="D118" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="E118" s="81"/>
-      <c r="F118" s="81"/>
-      <c r="G118" s="82"/>
+      <c r="E118" s="123"/>
+      <c r="F118" s="123"/>
+      <c r="G118" s="124"/>
       <c r="H118" s="10"/>
     </row>
     <row r="119" spans="1:8" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="73"/>
-      <c r="B119" s="76"/>
-      <c r="C119" s="79"/>
-      <c r="D119" s="87" t="s">
+      <c r="A119" s="96"/>
+      <c r="B119" s="130"/>
+      <c r="C119" s="122"/>
+      <c r="D119" s="120" t="s">
         <v>100</v>
       </c>
-      <c r="E119" s="85" t="s">
+      <c r="E119" s="143" t="s">
         <v>201</v>
       </c>
-      <c r="F119" s="83"/>
-      <c r="G119" s="84"/>
+      <c r="F119" s="145"/>
+      <c r="G119" s="146"/>
       <c r="H119" s="10"/>
     </row>
     <row r="120" spans="1:8" s="3" customFormat="1" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A120" s="145"/>
-      <c r="B120" s="77"/>
-      <c r="C120" s="80"/>
-      <c r="D120" s="138"/>
-      <c r="E120" s="142"/>
+      <c r="A120" s="97"/>
+      <c r="B120" s="140"/>
+      <c r="C120" s="141"/>
+      <c r="D120" s="142"/>
+      <c r="E120" s="144"/>
       <c r="F120" s="29" t="s">
         <v>200</v>
       </c>
@@ -4998,58 +4998,58 @@
       <c r="G124" s="13"/>
     </row>
     <row r="125" spans="1:8" s="3" customFormat="1" ht="36" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A125" s="112" t="s">
+      <c r="A125" s="111" t="s">
         <v>114</v>
       </c>
-      <c r="B125" s="113"/>
-      <c r="C125" s="113"/>
-      <c r="D125" s="113"/>
-      <c r="E125" s="113"/>
-      <c r="F125" s="113"/>
-      <c r="G125" s="114"/>
+      <c r="B125" s="112"/>
+      <c r="C125" s="112"/>
+      <c r="D125" s="112"/>
+      <c r="E125" s="112"/>
+      <c r="F125" s="112"/>
+      <c r="G125" s="113"/>
     </row>
     <row r="126" spans="1:8" s="3" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
-      <c r="A126" s="72" t="s">
+      <c r="A126" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B126" s="75" t="s">
+      <c r="B126" s="119" t="s">
         <v>47</v>
       </c>
-      <c r="C126" s="78" t="s">
+      <c r="C126" s="121" t="s">
         <v>48</v>
       </c>
-      <c r="D126" s="81" t="s">
+      <c r="D126" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="E126" s="81"/>
-      <c r="F126" s="81"/>
-      <c r="G126" s="82"/>
+      <c r="E126" s="123"/>
+      <c r="F126" s="123"/>
+      <c r="G126" s="124"/>
       <c r="H126" s="10"/>
     </row>
     <row r="127" spans="1:8" s="3" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A127" s="73"/>
-      <c r="B127" s="76"/>
-      <c r="C127" s="79"/>
-      <c r="D127" s="87" t="s">
+      <c r="A127" s="96"/>
+      <c r="B127" s="130"/>
+      <c r="C127" s="122"/>
+      <c r="D127" s="120" t="s">
         <v>100</v>
       </c>
-      <c r="E127" s="155" t="s">
+      <c r="E127" s="135" t="s">
         <v>41</v>
       </c>
-      <c r="F127" s="156"/>
-      <c r="G127" s="156"/>
+      <c r="F127" s="136"/>
+      <c r="G127" s="136"/>
       <c r="H127" s="10"/>
     </row>
     <row r="128" spans="1:8" s="3" customFormat="1" ht="92.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="145"/>
-      <c r="B128" s="87"/>
-      <c r="C128" s="79"/>
-      <c r="D128" s="151"/>
-      <c r="E128" s="152" t="s">
+      <c r="A128" s="97"/>
+      <c r="B128" s="120"/>
+      <c r="C128" s="122"/>
+      <c r="D128" s="131"/>
+      <c r="E128" s="132" t="s">
         <v>121</v>
       </c>
-      <c r="F128" s="153"/>
-      <c r="G128" s="154"/>
+      <c r="F128" s="133"/>
+      <c r="G128" s="134"/>
       <c r="H128" s="10"/>
     </row>
     <row r="129" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
@@ -5116,26 +5116,26 @@
       </c>
     </row>
     <row r="132" spans="1:8" s="26" customFormat="1" ht="121.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="162" t="s">
+      <c r="A132" s="105" t="s">
         <v>216</v>
       </c>
-      <c r="B132" s="163"/>
-      <c r="C132" s="163"/>
-      <c r="D132" s="163"/>
-      <c r="E132" s="163"/>
-      <c r="F132" s="163"/>
-      <c r="G132" s="164"/>
+      <c r="B132" s="106"/>
+      <c r="C132" s="106"/>
+      <c r="D132" s="106"/>
+      <c r="E132" s="106"/>
+      <c r="F132" s="106"/>
+      <c r="G132" s="107"/>
     </row>
     <row r="133" spans="1:8" s="3" customFormat="1" ht="105.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A133" s="165" t="s">
+      <c r="A133" s="108" t="s">
         <v>217</v>
       </c>
-      <c r="B133" s="166"/>
-      <c r="C133" s="166"/>
-      <c r="D133" s="166"/>
-      <c r="E133" s="166"/>
-      <c r="F133" s="166"/>
-      <c r="G133" s="167"/>
+      <c r="B133" s="109"/>
+      <c r="C133" s="109"/>
+      <c r="D133" s="109"/>
+      <c r="E133" s="109"/>
+      <c r="F133" s="109"/>
+      <c r="G133" s="110"/>
     </row>
     <row r="134" spans="1:8" s="3" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="60"/>
@@ -5147,15 +5147,15 @@
       <c r="G134" s="61"/>
     </row>
     <row r="135" spans="1:8" s="3" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="157" t="s">
+      <c r="A135" s="100" t="s">
         <v>218</v>
       </c>
-      <c r="B135" s="158"/>
-      <c r="C135" s="158"/>
-      <c r="D135" s="158"/>
-      <c r="E135" s="158"/>
-      <c r="F135" s="158"/>
-      <c r="G135" s="158"/>
+      <c r="B135" s="101"/>
+      <c r="C135" s="101"/>
+      <c r="D135" s="101"/>
+      <c r="E135" s="101"/>
+      <c r="F135" s="101"/>
+      <c r="G135" s="101"/>
     </row>
     <row r="136" spans="1:8" s="3" customFormat="1" ht="162" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="60"/>
@@ -5176,49 +5176,49 @@
       <c r="G137" s="61"/>
     </row>
     <row r="138" spans="1:8" s="3" customFormat="1" ht="35.25" x14ac:dyDescent="0.5">
-      <c r="A138" s="112" t="s">
+      <c r="A138" s="111" t="s">
         <v>125</v>
       </c>
-      <c r="B138" s="113"/>
-      <c r="C138" s="113"/>
-      <c r="D138" s="113"/>
-      <c r="E138" s="113"/>
-      <c r="F138" s="113"/>
-      <c r="G138" s="114"/>
+      <c r="B138" s="112"/>
+      <c r="C138" s="112"/>
+      <c r="D138" s="112"/>
+      <c r="E138" s="112"/>
+      <c r="F138" s="112"/>
+      <c r="G138" s="113"/>
     </row>
     <row r="139" spans="1:8" s="3" customFormat="1" ht="31.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A139" s="168" t="s">
+      <c r="A139" s="114" t="s">
         <v>124</v>
       </c>
-      <c r="B139" s="169"/>
-      <c r="C139" s="169"/>
-      <c r="D139" s="169"/>
-      <c r="E139" s="169"/>
-      <c r="F139" s="169"/>
-      <c r="G139" s="169"/>
+      <c r="B139" s="115"/>
+      <c r="C139" s="115"/>
+      <c r="D139" s="115"/>
+      <c r="E139" s="115"/>
+      <c r="F139" s="115"/>
+      <c r="G139" s="115"/>
     </row>
     <row r="140" spans="1:8" s="3" customFormat="1" ht="22.5" x14ac:dyDescent="0.35">
-      <c r="A140" s="72" t="s">
+      <c r="A140" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B140" s="75" t="s">
+      <c r="B140" s="119" t="s">
         <v>47</v>
       </c>
-      <c r="C140" s="78" t="s">
+      <c r="C140" s="121" t="s">
         <v>48</v>
       </c>
-      <c r="D140" s="81" t="s">
+      <c r="D140" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="E140" s="81"/>
-      <c r="F140" s="81"/>
-      <c r="G140" s="82"/>
+      <c r="E140" s="123"/>
+      <c r="F140" s="123"/>
+      <c r="G140" s="124"/>
       <c r="H140" s="10"/>
     </row>
     <row r="141" spans="1:8" s="3" customFormat="1" ht="92.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A141" s="145"/>
-      <c r="B141" s="87"/>
-      <c r="C141" s="79"/>
+      <c r="A141" s="97"/>
+      <c r="B141" s="120"/>
+      <c r="C141" s="122"/>
       <c r="D141" s="24"/>
       <c r="E141" s="24"/>
       <c r="F141" s="24"/>
@@ -5226,15 +5226,15 @@
       <c r="H141" s="10"/>
     </row>
     <row r="142" spans="1:8" s="3" customFormat="1" ht="33" x14ac:dyDescent="0.45">
-      <c r="A142" s="170" t="s">
+      <c r="A142" s="116" t="s">
         <v>126</v>
       </c>
-      <c r="B142" s="171"/>
-      <c r="C142" s="171"/>
-      <c r="D142" s="171"/>
-      <c r="E142" s="171"/>
-      <c r="F142" s="171"/>
-      <c r="G142" s="172"/>
+      <c r="B142" s="117"/>
+      <c r="C142" s="117"/>
+      <c r="D142" s="117"/>
+      <c r="E142" s="117"/>
+      <c r="F142" s="117"/>
+      <c r="G142" s="118"/>
     </row>
     <row r="143" spans="1:8" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A143" s="25">
@@ -5900,62 +5900,144 @@
       <c r="G181" s="14"/>
     </row>
     <row r="182" spans="1:7" s="3" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A182" s="189" t="s">
+      <c r="A182" s="98" t="s">
         <v>205</v>
       </c>
-      <c r="B182" s="190"/>
-      <c r="C182" s="190"/>
-      <c r="D182" s="190"/>
-      <c r="E182" s="190"/>
-      <c r="F182" s="190"/>
-      <c r="G182" s="190"/>
+      <c r="B182" s="99"/>
+      <c r="C182" s="99"/>
+      <c r="D182" s="99"/>
+      <c r="E182" s="99"/>
+      <c r="F182" s="99"/>
+      <c r="G182" s="99"/>
     </row>
     <row r="183" spans="1:7" s="3" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A183" s="189" t="s">
+      <c r="A183" s="98" t="s">
         <v>206</v>
       </c>
-      <c r="B183" s="190"/>
-      <c r="C183" s="190"/>
-      <c r="D183" s="190"/>
-      <c r="E183" s="190"/>
-      <c r="F183" s="190"/>
-      <c r="G183" s="190"/>
+      <c r="B183" s="99"/>
+      <c r="C183" s="99"/>
+      <c r="D183" s="99"/>
+      <c r="E183" s="99"/>
+      <c r="F183" s="99"/>
+      <c r="G183" s="99"/>
     </row>
     <row r="184" spans="1:7" s="3" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A184" s="159" t="s">
+      <c r="A184" s="102" t="s">
         <v>202</v>
       </c>
-      <c r="B184" s="160"/>
-      <c r="C184" s="160"/>
-      <c r="D184" s="160"/>
-      <c r="E184" s="160"/>
-      <c r="F184" s="160"/>
-      <c r="G184" s="161"/>
+      <c r="B184" s="103"/>
+      <c r="C184" s="103"/>
+      <c r="D184" s="103"/>
+      <c r="E184" s="103"/>
+      <c r="F184" s="103"/>
+      <c r="G184" s="104"/>
     </row>
     <row r="185" spans="1:7" s="3" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A185" s="159" t="s">
+      <c r="A185" s="102" t="s">
         <v>203</v>
       </c>
-      <c r="B185" s="160"/>
-      <c r="C185" s="160"/>
-      <c r="D185" s="160"/>
-      <c r="E185" s="160"/>
-      <c r="F185" s="160"/>
-      <c r="G185" s="161"/>
+      <c r="B185" s="103"/>
+      <c r="C185" s="103"/>
+      <c r="D185" s="103"/>
+      <c r="E185" s="103"/>
+      <c r="F185" s="103"/>
+      <c r="G185" s="104"/>
     </row>
     <row r="186" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.4">
-      <c r="A186" s="173" t="s">
+      <c r="A186" s="71" t="s">
         <v>204</v>
       </c>
-      <c r="B186" s="174"/>
-      <c r="C186" s="174"/>
-      <c r="D186" s="174"/>
-      <c r="E186" s="174"/>
-      <c r="F186" s="174"/>
-      <c r="G186" s="175"/>
+      <c r="B186" s="72"/>
+      <c r="C186" s="72"/>
+      <c r="D186" s="72"/>
+      <c r="E186" s="72"/>
+      <c r="F186" s="72"/>
+      <c r="G186" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="98">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A46:G46"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="A101:G101"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="C103:C105"/>
+    <mergeCell ref="A69:G69"/>
+    <mergeCell ref="A68:G68"/>
+    <mergeCell ref="A102:G102"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="D70:G70"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="F119:G119"/>
+    <mergeCell ref="D103:G103"/>
+    <mergeCell ref="D104:D105"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="F104:G104"/>
+    <mergeCell ref="A115:G115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="F116:G116"/>
+    <mergeCell ref="B126:B128"/>
+    <mergeCell ref="C126:C128"/>
+    <mergeCell ref="D126:G126"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="E128:G128"/>
+    <mergeCell ref="E127:G127"/>
+    <mergeCell ref="A125:G125"/>
+    <mergeCell ref="A117:G117"/>
+    <mergeCell ref="A118:A120"/>
+    <mergeCell ref="B118:B120"/>
+    <mergeCell ref="C118:C120"/>
+    <mergeCell ref="D118:G118"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="A135:G135"/>
+    <mergeCell ref="A184:G184"/>
+    <mergeCell ref="A185:G185"/>
+    <mergeCell ref="A132:G132"/>
+    <mergeCell ref="A133:G133"/>
+    <mergeCell ref="A138:G138"/>
+    <mergeCell ref="A139:G139"/>
+    <mergeCell ref="A142:G142"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="D140:G140"/>
     <mergeCell ref="A186:G186"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="D24:E24"/>
@@ -5972,88 +6054,6 @@
     <mergeCell ref="A126:A128"/>
     <mergeCell ref="A182:G182"/>
     <mergeCell ref="A183:G183"/>
-    <mergeCell ref="A135:G135"/>
-    <mergeCell ref="A184:G184"/>
-    <mergeCell ref="A185:G185"/>
-    <mergeCell ref="A132:G132"/>
-    <mergeCell ref="A133:G133"/>
-    <mergeCell ref="A138:G138"/>
-    <mergeCell ref="A139:G139"/>
-    <mergeCell ref="A142:G142"/>
-    <mergeCell ref="A140:A141"/>
-    <mergeCell ref="B140:B141"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="D140:G140"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="F116:G116"/>
-    <mergeCell ref="B126:B128"/>
-    <mergeCell ref="C126:C128"/>
-    <mergeCell ref="D126:G126"/>
-    <mergeCell ref="D127:D128"/>
-    <mergeCell ref="E128:G128"/>
-    <mergeCell ref="E127:G127"/>
-    <mergeCell ref="A125:G125"/>
-    <mergeCell ref="A117:G117"/>
-    <mergeCell ref="A118:A120"/>
-    <mergeCell ref="B118:B120"/>
-    <mergeCell ref="C118:C120"/>
-    <mergeCell ref="D118:G118"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="F119:G119"/>
-    <mergeCell ref="D103:G103"/>
-    <mergeCell ref="D104:D105"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="F104:G104"/>
-    <mergeCell ref="A115:G115"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="C103:C105"/>
-    <mergeCell ref="A69:G69"/>
-    <mergeCell ref="A68:G68"/>
-    <mergeCell ref="A102:G102"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="D70:G70"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="A101:G101"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A46:G46"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A2:G2"/>
   </mergeCells>
   <pageMargins left="0.46" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="41" orientation="portrait" r:id="rId1"/>
